--- a/base_datos/inventario/monetized_stock.xlsx
+++ b/base_datos/inventario/monetized_stock.xlsx
@@ -716,7 +716,7 @@
         <v>9141.58</v>
       </c>
       <c r="AP2" t="n">
-        <v>6529.7</v>
+        <v>7835.64</v>
       </c>
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
@@ -854,7 +854,7 @@
         <v>14952.86</v>
       </c>
       <c r="AP3" t="n">
-        <v>14952.86</v>
+        <v>14240.82</v>
       </c>
       <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr"/>
@@ -1268,7 +1268,7 @@
         <v>1066.65</v>
       </c>
       <c r="AP6" t="n">
-        <v>1777.74</v>
+        <v>1066.65</v>
       </c>
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr"/>
@@ -1544,7 +1544,7 @@
         <v>2738.25</v>
       </c>
       <c r="AP8" t="n">
-        <v>2738.25</v>
+        <v>1825.5</v>
       </c>
       <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr"/>
@@ -2234,7 +2234,7 @@
         <v>17750964.22</v>
       </c>
       <c r="AP13" t="n">
-        <v>16271717.18</v>
+        <v>14792470.17</v>
       </c>
       <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="inlineStr"/>
@@ -3062,7 +3062,7 @@
         <v>23502.45</v>
       </c>
       <c r="AP19" t="n">
-        <v>21543.91</v>
+        <v>23502.45</v>
       </c>
       <c r="AQ19" t="inlineStr"/>
       <c r="AR19" t="inlineStr"/>
@@ -4990,7 +4990,7 @@
         <v>21813.55</v>
       </c>
       <c r="AP33" t="n">
-        <v>21813.55</v>
+        <v>19389.82</v>
       </c>
       <c r="AQ33" t="inlineStr"/>
       <c r="AR33" t="inlineStr"/>
@@ -5404,7 +5404,7 @@
         <v>29309.73</v>
       </c>
       <c r="AP36" t="n">
-        <v>29309.73</v>
+        <v>19539.82</v>
       </c>
       <c r="AQ36" t="inlineStr"/>
       <c r="AR36" t="inlineStr"/>
@@ -5956,7 +5956,7 @@
         <v>10908.91</v>
       </c>
       <c r="AP40" t="n">
-        <v>10908.91</v>
+        <v>7636.24</v>
       </c>
       <c r="AQ40" t="inlineStr"/>
       <c r="AR40" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>16429.21</v>
       </c>
       <c r="AP41" t="n">
-        <v>16429.21</v>
+        <v>14375.56</v>
       </c>
       <c r="AQ41" t="inlineStr"/>
       <c r="AR41" t="inlineStr"/>
@@ -6370,7 +6370,7 @@
         <v>12261.61</v>
       </c>
       <c r="AP43" t="n">
-        <v>11035.45</v>
+        <v>12261.61</v>
       </c>
       <c r="AQ43" t="inlineStr"/>
       <c r="AR43" t="inlineStr"/>
@@ -7750,7 +7750,7 @@
         <v>58051.74</v>
       </c>
       <c r="AP53" t="n">
-        <v>56237.62</v>
+        <v>54423.5</v>
       </c>
       <c r="AQ53" t="inlineStr"/>
       <c r="AR53" t="inlineStr"/>
@@ -8026,7 +8026,7 @@
         <v>50795.27</v>
       </c>
       <c r="AP55" t="n">
-        <v>50795.27</v>
+        <v>45352.92</v>
       </c>
       <c r="AQ55" t="inlineStr"/>
       <c r="AR55" t="inlineStr"/>
@@ -8578,7 +8578,7 @@
         <v>42957.59</v>
       </c>
       <c r="AP59" t="n">
-        <v>42957.59</v>
+        <v>40186.13</v>
       </c>
       <c r="AQ59" t="inlineStr"/>
       <c r="AR59" t="inlineStr"/>
@@ -8992,7 +8992,7 @@
         <v>45854.06</v>
       </c>
       <c r="AP62" t="n">
-        <v>45854.06</v>
+        <v>43440.69</v>
       </c>
       <c r="AQ62" t="inlineStr"/>
       <c r="AR62" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>40383.67</v>
       </c>
       <c r="AP74" t="n">
-        <v>40383.67</v>
+        <v>38768.33</v>
       </c>
       <c r="AQ74" t="inlineStr"/>
       <c r="AR74" t="inlineStr"/>
@@ -11200,7 +11200,7 @@
         <v>25717.71</v>
       </c>
       <c r="AP78" t="n">
-        <v>25717.71</v>
+        <v>22750.28</v>
       </c>
       <c r="AQ78" t="inlineStr"/>
       <c r="AR78" t="inlineStr"/>
@@ -11476,7 +11476,7 @@
         <v>61679.97</v>
       </c>
       <c r="AP80" t="n">
-        <v>61679.97</v>
+        <v>59865.85</v>
       </c>
       <c r="AQ80" t="inlineStr"/>
       <c r="AR80" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>68698.2</v>
       </c>
       <c r="AP85" t="n">
-        <v>68698.2</v>
+        <v>66244.7</v>
       </c>
       <c r="AQ85" t="inlineStr"/>
       <c r="AR85" t="inlineStr"/>
@@ -12442,7 +12442,7 @@
         <v>1020560.93</v>
       </c>
       <c r="AP87" t="n">
-        <v>1105607.67</v>
+        <v>978037.5600000001</v>
       </c>
       <c r="AQ87" t="inlineStr"/>
       <c r="AR87" t="inlineStr"/>
@@ -12856,7 +12856,7 @@
         <v>84421.34</v>
       </c>
       <c r="AP90" t="n">
-        <v>84421.34</v>
+        <v>75041.19</v>
       </c>
       <c r="AQ90" t="inlineStr"/>
       <c r="AR90" t="inlineStr"/>
@@ -13132,7 +13132,7 @@
         <v>31741.07</v>
       </c>
       <c r="AP92" t="n">
-        <v>34182.69</v>
+        <v>36624.31</v>
       </c>
       <c r="AQ92" t="inlineStr"/>
       <c r="AR92" t="inlineStr"/>
@@ -13546,7 +13546,7 @@
         <v>76253.83</v>
       </c>
       <c r="AP95" t="n">
-        <v>81019.69</v>
+        <v>71487.96000000001</v>
       </c>
       <c r="AQ95" t="inlineStr"/>
       <c r="AR95" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>540190.47</v>
       </c>
       <c r="AP96" t="n">
-        <v>540190.47</v>
+        <v>450158.72</v>
       </c>
       <c r="AQ96" t="inlineStr"/>
       <c r="AR96" t="inlineStr"/>
@@ -14374,7 +14374,7 @@
         <v>124561.93</v>
       </c>
       <c r="AP101" t="n">
-        <v>124561.93</v>
+        <v>93421.45</v>
       </c>
       <c r="AQ101" t="inlineStr"/>
       <c r="AR101" t="inlineStr"/>
@@ -14512,7 +14512,7 @@
         <v>43587.34</v>
       </c>
       <c r="AP102" t="n">
-        <v>40234.46</v>
+        <v>36881.59</v>
       </c>
       <c r="AQ102" t="inlineStr"/>
       <c r="AR102" t="inlineStr"/>
@@ -14788,7 +14788,7 @@
         <v>26679.37</v>
       </c>
       <c r="AP104" t="n">
-        <v>26679.37</v>
+        <v>18675.56</v>
       </c>
       <c r="AQ104" t="inlineStr"/>
       <c r="AR104" t="inlineStr"/>
@@ -15064,7 +15064,7 @@
         <v>59791.14</v>
       </c>
       <c r="AP106" t="n">
-        <v>63112.87</v>
+        <v>53147.68</v>
       </c>
       <c r="AQ106" t="inlineStr"/>
       <c r="AR106" t="inlineStr"/>
@@ -16030,7 +16030,7 @@
         <v>29873.65</v>
       </c>
       <c r="AP113" t="n">
-        <v>29873.65</v>
+        <v>26886.29</v>
       </c>
       <c r="AQ113" t="inlineStr"/>
       <c r="AR113" t="inlineStr"/>
@@ -16168,7 +16168,7 @@
         <v>38509.34</v>
       </c>
       <c r="AP114" t="n">
-        <v>38509.34</v>
+        <v>41076.63</v>
       </c>
       <c r="AQ114" t="inlineStr"/>
       <c r="AR114" t="inlineStr"/>
@@ -16858,7 +16858,7 @@
         <v>77594.39</v>
       </c>
       <c r="AP119" t="n">
-        <v>73283.59</v>
+        <v>77594.39</v>
       </c>
       <c r="AQ119" t="inlineStr"/>
       <c r="AR119" t="inlineStr"/>
@@ -17410,7 +17410,7 @@
         <v>176817.81</v>
       </c>
       <c r="AP123" t="n">
-        <v>166994.59</v>
+        <v>157171.38</v>
       </c>
       <c r="AQ123" t="inlineStr"/>
       <c r="AR123" t="inlineStr"/>
@@ -17548,7 +17548,7 @@
         <v>60591.89</v>
       </c>
       <c r="AP124" t="n">
-        <v>48473.51</v>
+        <v>60591.89</v>
       </c>
       <c r="AQ124" t="inlineStr"/>
       <c r="AR124" t="inlineStr"/>
@@ -18376,7 +18376,7 @@
         <v>43182.63</v>
       </c>
       <c r="AP130" t="n">
-        <v>39860.89</v>
+        <v>43182.63</v>
       </c>
       <c r="AQ130" t="inlineStr"/>
       <c r="AR130" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
         <v>262721.64</v>
       </c>
       <c r="AP132" t="n">
-        <v>197041.23</v>
+        <v>262721.64</v>
       </c>
       <c r="AQ132" t="inlineStr"/>
       <c r="AR132" t="inlineStr"/>
@@ -19204,7 +19204,7 @@
         <v>27848.85</v>
       </c>
       <c r="AP136" t="n">
-        <v>29705.44</v>
+        <v>27848.85</v>
       </c>
       <c r="AQ136" t="inlineStr"/>
       <c r="AR136" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>31984.04</v>
       </c>
       <c r="AP140" t="n">
-        <v>31984.04</v>
+        <v>27414.89</v>
       </c>
       <c r="AQ140" t="inlineStr"/>
       <c r="AR140" t="inlineStr"/>
@@ -20032,7 +20032,7 @@
         <v>36159.53</v>
       </c>
       <c r="AP142" t="n">
-        <v>30993.88</v>
+        <v>36159.53</v>
       </c>
       <c r="AQ142" t="inlineStr"/>
       <c r="AR142" t="inlineStr"/>
@@ -20170,7 +20170,7 @@
         <v>12681.42</v>
       </c>
       <c r="AP143" t="n">
-        <v>12681.42</v>
+        <v>0</v>
       </c>
       <c r="AQ143" t="inlineStr"/>
       <c r="AR143" t="inlineStr"/>
@@ -20308,7 +20308,7 @@
         <v>436030.16</v>
       </c>
       <c r="AP144" t="n">
-        <v>399694.32</v>
+        <v>436030.16</v>
       </c>
       <c r="AQ144" t="inlineStr"/>
       <c r="AR144" t="inlineStr"/>
@@ -20860,7 +20860,7 @@
         <v>287166.96</v>
       </c>
       <c r="AP148" t="n">
-        <v>287166.96</v>
+        <v>262195.92</v>
       </c>
       <c r="AQ148" t="inlineStr"/>
       <c r="AR148" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>24145.39</v>
       </c>
       <c r="AP151" t="n">
-        <v>24145.39</v>
+        <v>18779.75</v>
       </c>
       <c r="AQ151" t="inlineStr"/>
       <c r="AR151" t="inlineStr"/>
@@ -21688,7 +21688,7 @@
         <v>105376.63</v>
       </c>
       <c r="AP154" t="n">
-        <v>98790.59</v>
+        <v>105376.63</v>
       </c>
       <c r="AQ154" t="inlineStr"/>
       <c r="AR154" t="inlineStr"/>
@@ -23068,7 +23068,7 @@
         <v>13317.99</v>
       </c>
       <c r="AP164" t="n">
-        <v>11653.24</v>
+        <v>13317.99</v>
       </c>
       <c r="AQ164" t="inlineStr"/>
       <c r="AR164" t="inlineStr"/>
@@ -23482,7 +23482,7 @@
         <v>12430.58</v>
       </c>
       <c r="AP167" t="n">
-        <v>12430.58</v>
+        <v>13673.64</v>
       </c>
       <c r="AQ167" t="inlineStr"/>
       <c r="AR167" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>609685.26</v>
       </c>
       <c r="AP173" t="n">
-        <v>609685.26</v>
+        <v>583177.21</v>
       </c>
       <c r="AQ173" t="inlineStr"/>
       <c r="AR173" t="inlineStr"/>
@@ -24448,7 +24448,7 @@
         <v>17155.53</v>
       </c>
       <c r="AP174" t="n">
-        <v>17155.53</v>
+        <v>16375.73</v>
       </c>
       <c r="AQ174" t="inlineStr"/>
       <c r="AR174" t="inlineStr"/>
@@ -25276,7 +25276,7 @@
         <v>85487.7</v>
       </c>
       <c r="AP180" t="n">
-        <v>81213.32000000001</v>
+        <v>85487.7</v>
       </c>
       <c r="AQ180" t="inlineStr"/>
       <c r="AR180" t="inlineStr"/>
@@ -25414,7 +25414,7 @@
         <v>36907.23</v>
       </c>
       <c r="AP181" t="n">
-        <v>36907.23</v>
+        <v>35540.3</v>
       </c>
       <c r="AQ181" t="inlineStr"/>
       <c r="AR181" t="inlineStr"/>
@@ -26104,7 +26104,7 @@
         <v>30072.56</v>
       </c>
       <c r="AP186" t="n">
-        <v>28705.62</v>
+        <v>30072.56</v>
       </c>
       <c r="AQ186" t="inlineStr"/>
       <c r="AR186" t="inlineStr"/>
@@ -26932,7 +26932,7 @@
         <v>105530.09</v>
       </c>
       <c r="AP192" t="n">
-        <v>99667.31</v>
+        <v>87941.74000000001</v>
       </c>
       <c r="AQ192" t="inlineStr"/>
       <c r="AR192" t="inlineStr"/>
@@ -27070,7 +27070,7 @@
         <v>3474793.82</v>
       </c>
       <c r="AP193" t="n">
-        <v>3474793.82</v>
+        <v>3316848.64</v>
       </c>
       <c r="AQ193" t="inlineStr"/>
       <c r="AR193" t="inlineStr"/>
@@ -27622,7 +27622,7 @@
         <v>8145.95</v>
       </c>
       <c r="AP197" t="n">
-        <v>9104.290000000001</v>
+        <v>7666.77</v>
       </c>
       <c r="AQ197" t="inlineStr"/>
       <c r="AR197" t="inlineStr"/>
@@ -28036,7 +28036,7 @@
         <v>9451.93</v>
       </c>
       <c r="AP200" t="n">
-        <v>7783.94</v>
+        <v>8339.940000000001</v>
       </c>
       <c r="AQ200" t="inlineStr"/>
       <c r="AR200" t="inlineStr"/>
@@ -28450,7 +28450,7 @@
         <v>16945.7</v>
       </c>
       <c r="AP203" t="n">
-        <v>16945.7</v>
+        <v>14524.88</v>
       </c>
       <c r="AQ203" t="inlineStr"/>
       <c r="AR203" t="inlineStr"/>
@@ -29554,7 +29554,7 @@
         <v>26185.57</v>
       </c>
       <c r="AP211" t="n">
-        <v>25138.14</v>
+        <v>26185.57</v>
       </c>
       <c r="AQ211" t="inlineStr"/>
       <c r="AR211" t="inlineStr"/>
@@ -29692,7 +29692,7 @@
         <v>30382.95</v>
       </c>
       <c r="AP212" t="n">
-        <v>30382.95</v>
+        <v>27489.34</v>
       </c>
       <c r="AQ212" t="inlineStr"/>
       <c r="AR212" t="inlineStr"/>
@@ -31210,7 +31210,7 @@
         <v>53547.84</v>
       </c>
       <c r="AP223" t="n">
-        <v>53547.84</v>
+        <v>50870.45</v>
       </c>
       <c r="AQ223" t="inlineStr"/>
       <c r="AR223" t="inlineStr"/>
@@ -31348,7 +31348,7 @@
         <v>0</v>
       </c>
       <c r="AP224" t="n">
-        <v>-1541.81</v>
+        <v>0</v>
       </c>
       <c r="AQ224" t="inlineStr"/>
       <c r="AR224" t="inlineStr"/>
@@ -31762,7 +31762,7 @@
         <v>26249.19</v>
       </c>
       <c r="AP227" t="n">
-        <v>10499.68</v>
+        <v>5249.84</v>
       </c>
       <c r="AQ227" t="inlineStr"/>
       <c r="AR227" t="inlineStr"/>
@@ -31900,7 +31900,7 @@
         <v>65914.23</v>
       </c>
       <c r="AP228" t="n">
-        <v>71407.08</v>
+        <v>76899.94</v>
       </c>
       <c r="AQ228" t="inlineStr"/>
       <c r="AR228" t="inlineStr"/>
@@ -32314,7 +32314,7 @@
         <v>71688.39999999999</v>
       </c>
       <c r="AP231" t="n">
-        <v>63254.47</v>
+        <v>59037.51</v>
       </c>
       <c r="AQ231" t="inlineStr"/>
       <c r="AR231" t="inlineStr"/>
@@ -32452,7 +32452,7 @@
         <v>21928.9</v>
       </c>
       <c r="AP232" t="n">
-        <v>18274.08</v>
+        <v>10964.45</v>
       </c>
       <c r="AQ232" t="inlineStr"/>
       <c r="AR232" t="inlineStr"/>
@@ -32728,7 +32728,7 @@
         <v>308467.15</v>
       </c>
       <c r="AP234" t="n">
-        <v>282761.56</v>
+        <v>308467.15</v>
       </c>
       <c r="AQ234" t="inlineStr"/>
       <c r="AR234" t="inlineStr"/>
@@ -32866,7 +32866,7 @@
         <v>220015.06</v>
       </c>
       <c r="AP235" t="n">
-        <v>220015.06</v>
+        <v>207073</v>
       </c>
       <c r="AQ235" t="inlineStr"/>
       <c r="AR235" t="inlineStr"/>
@@ -33004,7 +33004,7 @@
         <v>32866.73</v>
       </c>
       <c r="AP236" t="n">
-        <v>32866.73</v>
+        <v>23476.24</v>
       </c>
       <c r="AQ236" t="inlineStr"/>
       <c r="AR236" t="inlineStr"/>
@@ -33142,7 +33142,7 @@
         <v>157269.37</v>
       </c>
       <c r="AP237" t="n">
-        <v>157269.37</v>
+        <v>128674.94</v>
       </c>
       <c r="AQ237" t="inlineStr"/>
       <c r="AR237" t="inlineStr"/>
@@ -33832,7 +33832,7 @@
         <v>45145.31</v>
       </c>
       <c r="AP242" t="n">
-        <v>45145.31</v>
+        <v>39502.15</v>
       </c>
       <c r="AQ242" t="inlineStr"/>
       <c r="AR242" t="inlineStr"/>
@@ -34108,7 +34108,7 @@
         <v>30599.49</v>
       </c>
       <c r="AP244" t="n">
-        <v>30599.49</v>
+        <v>27817.72</v>
       </c>
       <c r="AQ244" t="inlineStr"/>
       <c r="AR244" t="inlineStr"/>
@@ -35764,7 +35764,7 @@
         <v>47227.04</v>
       </c>
       <c r="AP256" t="n">
-        <v>43728.74</v>
+        <v>40230.44</v>
       </c>
       <c r="AQ256" t="inlineStr"/>
       <c r="AR256" t="inlineStr"/>
@@ -35902,7 +35902,7 @@
         <v>89637.2</v>
       </c>
       <c r="AP257" t="n">
-        <v>83234.55</v>
+        <v>89637.2</v>
       </c>
       <c r="AQ257" t="inlineStr"/>
       <c r="AR257" t="inlineStr"/>
@@ -36316,7 +36316,7 @@
         <v>10314.52</v>
       </c>
       <c r="AP260" t="n">
-        <v>9168.459999999999</v>
+        <v>6876.35</v>
       </c>
       <c r="AQ260" t="inlineStr"/>
       <c r="AR260" t="inlineStr"/>
@@ -36730,7 +36730,7 @@
         <v>57857.53</v>
       </c>
       <c r="AP263" t="n">
-        <v>57857.53</v>
+        <v>52597.75</v>
       </c>
       <c r="AQ263" t="inlineStr"/>
       <c r="AR263" t="inlineStr"/>
@@ -37282,7 +37282,7 @@
         <v>40103.96</v>
       </c>
       <c r="AP267" t="n">
-        <v>40103.96</v>
+        <v>32083.17</v>
       </c>
       <c r="AQ267" t="inlineStr"/>
       <c r="AR267" t="inlineStr"/>
@@ -37972,7 +37972,7 @@
         <v>1319.28</v>
       </c>
       <c r="AP272" t="n">
-        <v>1319.28</v>
+        <v>-659.64</v>
       </c>
       <c r="AQ272" t="inlineStr"/>
       <c r="AR272" t="inlineStr"/>
@@ -38110,7 +38110,7 @@
         <v>12791.83</v>
       </c>
       <c r="AP273" t="n">
-        <v>12791.83</v>
+        <v>10659.86</v>
       </c>
       <c r="AQ273" t="inlineStr"/>
       <c r="AR273" t="inlineStr"/>
@@ -38524,7 +38524,7 @@
         <v>16905.34</v>
       </c>
       <c r="AP276" t="n">
-        <v>16060.08</v>
+        <v>16905.34</v>
       </c>
       <c r="AQ276" t="inlineStr"/>
       <c r="AR276" t="inlineStr"/>
@@ -39214,7 +39214,7 @@
         <v>2502.31</v>
       </c>
       <c r="AP281" t="n">
-        <v>2502.31</v>
+        <v>2669.13</v>
       </c>
       <c r="AQ281" t="inlineStr"/>
       <c r="AR281" t="inlineStr"/>
@@ -39628,7 +39628,7 @@
         <v>9759.25</v>
       </c>
       <c r="AP284" t="n">
-        <v>10735.18</v>
+        <v>9759.25</v>
       </c>
       <c r="AQ284" t="inlineStr"/>
       <c r="AR284" t="inlineStr"/>
@@ -40732,7 +40732,7 @@
         <v>282081.49</v>
       </c>
       <c r="AP292" t="n">
-        <v>282081.49</v>
+        <v>241784.13</v>
       </c>
       <c r="AQ292" t="inlineStr"/>
       <c r="AR292" t="inlineStr"/>
@@ -42388,7 +42388,7 @@
         <v>5677.1</v>
       </c>
       <c r="AP304" t="n">
-        <v>5677.1</v>
+        <v>4803.7</v>
       </c>
       <c r="AQ304" t="inlineStr"/>
       <c r="AR304" t="inlineStr"/>
@@ -43078,7 +43078,7 @@
         <v>279900.4</v>
       </c>
       <c r="AP309" t="n">
-        <v>279900.4</v>
+        <v>251910.36</v>
       </c>
       <c r="AQ309" t="inlineStr"/>
       <c r="AR309" t="inlineStr"/>
@@ -43492,7 +43492,7 @@
         <v>12379139.48</v>
       </c>
       <c r="AP312" t="n">
-        <v>11066200.43</v>
+        <v>11441325.87</v>
       </c>
       <c r="AQ312" t="inlineStr"/>
       <c r="AR312" t="inlineStr"/>
@@ -43630,7 +43630,7 @@
         <v>86008.82000000001</v>
       </c>
       <c r="AP313" t="n">
-        <v>78841.42</v>
+        <v>86008.82000000001</v>
       </c>
       <c r="AQ313" t="inlineStr"/>
       <c r="AR313" t="inlineStr"/>
@@ -44872,7 +44872,7 @@
         <v>120730.98</v>
       </c>
       <c r="AP322" t="n">
-        <v>120730.98</v>
+        <v>114376.72</v>
       </c>
       <c r="AQ322" t="inlineStr"/>
       <c r="AR322" t="inlineStr"/>
@@ -45010,7 +45010,7 @@
         <v>5954457.81</v>
       </c>
       <c r="AP323" t="n">
-        <v>5880945.98</v>
+        <v>6027969.63</v>
       </c>
       <c r="AQ323" t="inlineStr"/>
       <c r="AR323" t="inlineStr"/>
@@ -47218,7 +47218,7 @@
         <v>1651390.64</v>
       </c>
       <c r="AP339" t="n">
-        <v>1606758.45</v>
+        <v>1562126.28</v>
       </c>
       <c r="AQ339" t="inlineStr"/>
       <c r="AR339" t="inlineStr"/>
@@ -47356,7 +47356,7 @@
         <v>-44632.18</v>
       </c>
       <c r="AP340" t="n">
-        <v>0</v>
+        <v>-89264.36</v>
       </c>
       <c r="AQ340" t="inlineStr"/>
       <c r="AR340" t="inlineStr"/>
@@ -47632,7 +47632,7 @@
         <v>100339.33</v>
       </c>
       <c r="AP342" t="n">
-        <v>93865.82000000001</v>
+        <v>90629.07000000001</v>
       </c>
       <c r="AQ342" t="inlineStr"/>
       <c r="AR342" t="inlineStr"/>
@@ -48460,7 +48460,7 @@
         <v>839228.55</v>
       </c>
       <c r="AP348" t="n">
-        <v>883398.48</v>
+        <v>839228.55</v>
       </c>
       <c r="AQ348" t="inlineStr"/>
       <c r="AR348" t="inlineStr"/>
@@ -48732,7 +48732,7 @@
         <v>7297428.77</v>
       </c>
       <c r="AP350" t="n">
-        <v>7297428.77</v>
+        <v>6899387.2</v>
       </c>
       <c r="AQ350" t="inlineStr"/>
       <c r="AR350" t="inlineStr"/>
@@ -49008,7 +49008,7 @@
         <v>45877806.85</v>
       </c>
       <c r="AP352" t="n">
-        <v>45800506.37</v>
+        <v>45877806.8</v>
       </c>
       <c r="AQ352" t="inlineStr"/>
       <c r="AR352" t="inlineStr"/>
@@ -49146,7 +49146,7 @@
         <v>12129.02</v>
       </c>
       <c r="AP353" t="n">
-        <v>10107.51</v>
+        <v>8086.01</v>
       </c>
       <c r="AQ353" t="inlineStr"/>
       <c r="AR353" t="inlineStr"/>
@@ -49560,7 +49560,7 @@
         <v>24308210.48</v>
       </c>
       <c r="AP356" t="n">
-        <v>72924631.36</v>
+        <v>24308210.45</v>
       </c>
       <c r="AQ356" t="inlineStr"/>
       <c r="AR356" t="inlineStr"/>
@@ -49974,7 +49974,7 @@
         <v>4158668.95</v>
       </c>
       <c r="AP359" t="n">
-        <v>4112461.51</v>
+        <v>4020046.64</v>
       </c>
       <c r="AQ359" t="inlineStr"/>
       <c r="AR359" t="inlineStr"/>
@@ -51216,7 +51216,7 @@
         <v>1562789.72</v>
       </c>
       <c r="AP368" t="n">
-        <v>1488371.16</v>
+        <v>1562789.72</v>
       </c>
       <c r="AQ368" t="inlineStr"/>
       <c r="AR368" t="inlineStr"/>
@@ -51630,7 +51630,7 @@
         <v>3299216.68</v>
       </c>
       <c r="AP371" t="n">
-        <v>3299216.68</v>
+        <v>3234526.16</v>
       </c>
       <c r="AQ371" t="inlineStr"/>
       <c r="AR371" t="inlineStr"/>
@@ -52044,7 +52044,7 @@
         <v>151453.96</v>
       </c>
       <c r="AP374" t="n">
-        <v>151453.96</v>
+        <v>144463.78</v>
       </c>
       <c r="AQ374" t="inlineStr"/>
       <c r="AR374" t="inlineStr"/>
@@ -52320,7 +52320,7 @@
         <v>27903.63</v>
       </c>
       <c r="AP376" t="n">
-        <v>25578.32</v>
+        <v>23253.02</v>
       </c>
       <c r="AQ376" t="inlineStr"/>
       <c r="AR376" t="inlineStr"/>
@@ -53286,7 +53286,7 @@
         <v>690485.96</v>
       </c>
       <c r="AP383" t="n">
-        <v>662866.52</v>
+        <v>607627.65</v>
       </c>
       <c r="AQ383" t="inlineStr"/>
       <c r="AR383" t="inlineStr"/>
@@ -53562,7 +53562,7 @@
         <v>264512.32</v>
       </c>
       <c r="AP385" t="n">
-        <v>264512.32</v>
+        <v>250947.59</v>
       </c>
       <c r="AQ385" t="inlineStr"/>
       <c r="AR385" t="inlineStr"/>
@@ -53700,7 +53700,7 @@
         <v>970262.41</v>
       </c>
       <c r="AP386" t="n">
-        <v>970262.41</v>
+        <v>927139.64</v>
       </c>
       <c r="AQ386" t="inlineStr"/>
       <c r="AR386" t="inlineStr"/>
@@ -54252,7 +54252,7 @@
         <v>6520156.6</v>
       </c>
       <c r="AP390" t="n">
-        <v>6520156.59</v>
+        <v>6302818.04</v>
       </c>
       <c r="AQ390" t="inlineStr"/>
       <c r="AR390" t="inlineStr"/>
@@ -54528,7 +54528,7 @@
         <v>249400.17</v>
       </c>
       <c r="AP392" t="n">
-        <v>243978.43</v>
+        <v>246689.3</v>
       </c>
       <c r="AQ392" t="inlineStr"/>
       <c r="AR392" t="inlineStr"/>
@@ -55214,7 +55214,7 @@
         <v>13649119.88</v>
       </c>
       <c r="AP397" t="n">
-        <v>12977851.68</v>
+        <v>13425363.81</v>
       </c>
       <c r="AQ397" t="inlineStr"/>
       <c r="AR397" t="inlineStr"/>
@@ -56600,79 +56600,27 @@
       <c r="AR407" t="inlineStr"/>
     </row>
     <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>ID-00000407</t>
-        </is>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>DPS31505</t>
-        </is>
-      </c>
-      <c r="C408" t="inlineStr">
-        <is>
-          <t>MECHA EZETA ACERO RAPIDO DE 11.75 MM</t>
-        </is>
-      </c>
-      <c r="D408" t="inlineStr">
-        <is>
-          <t>ITURRIA S.A</t>
-        </is>
-      </c>
-      <c r="E408" t="inlineStr">
-        <is>
-          <t>EZETA</t>
-        </is>
-      </c>
-      <c r="F408" t="n">
-        <v>1</v>
-      </c>
-      <c r="G408" t="n">
-        <v>2</v>
-      </c>
-      <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>2013.66</v>
-      </c>
-      <c r="J408" t="n">
-        <v>2013.66</v>
-      </c>
-      <c r="K408" t="n">
-        <v>1</v>
-      </c>
-      <c r="L408" t="n">
-        <v>2020.55</v>
-      </c>
-      <c r="M408" t="n">
-        <v>2022.27</v>
-      </c>
-      <c r="N408" t="n">
-        <v>2023.63</v>
-      </c>
-      <c r="O408" t="n">
-        <v>2026.74</v>
-      </c>
-      <c r="P408" t="n">
-        <v>2035.1</v>
-      </c>
-      <c r="Q408" t="n">
-        <v>2035.1</v>
-      </c>
-      <c r="R408" t="n">
-        <v>2037.17</v>
-      </c>
-      <c r="S408" t="n">
-        <v>2033.19</v>
-      </c>
-      <c r="T408" t="n">
-        <v>2031.99</v>
-      </c>
-      <c r="U408" t="n">
-        <v>2033.01</v>
-      </c>
+      <c r="A408" t="inlineStr"/>
+      <c r="B408" t="inlineStr"/>
+      <c r="C408" t="inlineStr"/>
+      <c r="D408" t="inlineStr"/>
+      <c r="E408" t="inlineStr"/>
+      <c r="F408" t="inlineStr"/>
+      <c r="G408" t="inlineStr"/>
+      <c r="H408" t="inlineStr"/>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
+      <c r="L408" t="inlineStr"/>
+      <c r="M408" t="inlineStr"/>
+      <c r="N408" t="inlineStr"/>
+      <c r="O408" t="inlineStr"/>
+      <c r="P408" t="inlineStr"/>
+      <c r="Q408" t="inlineStr"/>
+      <c r="R408" t="inlineStr"/>
+      <c r="S408" t="inlineStr"/>
+      <c r="T408" t="inlineStr"/>
+      <c r="U408" t="inlineStr"/>
       <c r="V408" t="inlineStr"/>
       <c r="W408" t="inlineStr"/>
       <c r="X408" t="inlineStr"/>
@@ -56698,79 +56646,27 @@
       <c r="AR408" t="inlineStr"/>
     </row>
     <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>ID-00000408</t>
-        </is>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>DPS31506</t>
-        </is>
-      </c>
-      <c r="C409" t="inlineStr">
-        <is>
-          <t>MECHA EZETA ACERO RAPIDO DE 12.00 MM</t>
-        </is>
-      </c>
-      <c r="D409" t="inlineStr">
-        <is>
-          <t>BERMON DISTRIBUIDORA S.R.L</t>
-        </is>
-      </c>
-      <c r="E409" t="inlineStr">
-        <is>
-          <t>EZETA</t>
-        </is>
-      </c>
-      <c r="F409" t="n">
-        <v>1</v>
-      </c>
-      <c r="G409" t="n">
-        <v>2</v>
-      </c>
-      <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>8040.66</v>
-      </c>
-      <c r="J409" t="n">
-        <v>8040.66</v>
-      </c>
-      <c r="K409" t="n">
-        <v>1</v>
-      </c>
-      <c r="L409" t="n">
-        <v>8068.15</v>
-      </c>
-      <c r="M409" t="n">
-        <v>-8075.02</v>
-      </c>
-      <c r="N409" t="n">
-        <v>24241.4</v>
-      </c>
-      <c r="O409" t="n">
-        <v>8092.89</v>
-      </c>
-      <c r="P409" t="n">
-        <v>-8126.25</v>
-      </c>
-      <c r="Q409" t="n">
-        <v>8126.25</v>
-      </c>
-      <c r="R409" t="n">
-        <v>8134.51</v>
-      </c>
-      <c r="S409" t="n">
-        <v>8118.64</v>
-      </c>
-      <c r="T409" t="n">
-        <v>8113.85</v>
-      </c>
-      <c r="U409" t="n">
-        <v>8117.91</v>
-      </c>
+      <c r="A409" t="inlineStr"/>
+      <c r="B409" t="inlineStr"/>
+      <c r="C409" t="inlineStr"/>
+      <c r="D409" t="inlineStr"/>
+      <c r="E409" t="inlineStr"/>
+      <c r="F409" t="inlineStr"/>
+      <c r="G409" t="inlineStr"/>
+      <c r="H409" t="inlineStr"/>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
+      <c r="L409" t="inlineStr"/>
+      <c r="M409" t="inlineStr"/>
+      <c r="N409" t="inlineStr"/>
+      <c r="O409" t="inlineStr"/>
+      <c r="P409" t="inlineStr"/>
+      <c r="Q409" t="inlineStr"/>
+      <c r="R409" t="inlineStr"/>
+      <c r="S409" t="inlineStr"/>
+      <c r="T409" t="inlineStr"/>
+      <c r="U409" t="inlineStr"/>
       <c r="V409" t="inlineStr"/>
       <c r="W409" t="inlineStr"/>
       <c r="X409" t="inlineStr"/>
@@ -56796,79 +56692,27 @@
       <c r="AR409" t="inlineStr"/>
     </row>
     <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>ID-00000409</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>DPS31507</t>
-        </is>
-      </c>
-      <c r="C410" t="inlineStr">
-        <is>
-          <t>MECHA EZETA ACERO RAPIDO DE 12.25 MM</t>
-        </is>
-      </c>
-      <c r="D410" t="inlineStr">
-        <is>
-          <t>ITURRIA S.A</t>
-        </is>
-      </c>
-      <c r="E410" t="inlineStr">
-        <is>
-          <t>EZETA</t>
-        </is>
-      </c>
-      <c r="F410" t="n">
-        <v>2</v>
-      </c>
-      <c r="G410" t="n">
-        <v>4</v>
-      </c>
-      <c r="H410" t="n">
-        <v>2</v>
-      </c>
-      <c r="I410" t="n">
-        <v>32219.77</v>
-      </c>
-      <c r="J410" t="n">
-        <v>32219.77</v>
-      </c>
-      <c r="K410" t="n">
-        <v>2</v>
-      </c>
-      <c r="L410" t="n">
-        <v>32329.94</v>
-      </c>
-      <c r="M410" t="n">
-        <v>32357.47</v>
-      </c>
-      <c r="N410" t="n">
-        <v>97137.83</v>
-      </c>
-      <c r="O410" t="n">
-        <v>0</v>
-      </c>
-      <c r="P410" t="n">
-        <v>32562.73</v>
-      </c>
-      <c r="Q410" t="n">
-        <v>32562.73</v>
-      </c>
-      <c r="R410" t="n">
-        <v>32595.82</v>
-      </c>
-      <c r="S410" t="n">
-        <v>32532.26</v>
-      </c>
-      <c r="T410" t="n">
-        <v>32513.06</v>
-      </c>
-      <c r="U410" t="n">
-        <v>32529.3</v>
-      </c>
+      <c r="A410" t="inlineStr"/>
+      <c r="B410" t="inlineStr"/>
+      <c r="C410" t="inlineStr"/>
+      <c r="D410" t="inlineStr"/>
+      <c r="E410" t="inlineStr"/>
+      <c r="F410" t="inlineStr"/>
+      <c r="G410" t="inlineStr"/>
+      <c r="H410" t="inlineStr"/>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="inlineStr"/>
+      <c r="M410" t="inlineStr"/>
+      <c r="N410" t="inlineStr"/>
+      <c r="O410" t="inlineStr"/>
+      <c r="P410" t="inlineStr"/>
+      <c r="Q410" t="inlineStr"/>
+      <c r="R410" t="inlineStr"/>
+      <c r="S410" t="inlineStr"/>
+      <c r="T410" t="inlineStr"/>
+      <c r="U410" t="inlineStr"/>
       <c r="V410" t="inlineStr"/>
       <c r="W410" t="inlineStr"/>
       <c r="X410" t="inlineStr"/>
@@ -56894,79 +56738,27 @@
       <c r="AR410" t="inlineStr"/>
     </row>
     <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>ID-00000410</t>
-        </is>
-      </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>DPS31508</t>
-        </is>
-      </c>
-      <c r="C411" t="inlineStr">
-        <is>
-          <t>MECHA EZETA ACERO RAPIDO DE 12.50 MM</t>
-        </is>
-      </c>
-      <c r="D411" t="inlineStr">
-        <is>
-          <t>ITURRIA S.A</t>
-        </is>
-      </c>
-      <c r="E411" t="inlineStr">
-        <is>
-          <t>EZETA</t>
-        </is>
-      </c>
-      <c r="F411" t="n">
-        <v>1</v>
-      </c>
-      <c r="G411" t="n">
-        <v>2</v>
-      </c>
-      <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>18500.78</v>
-      </c>
-      <c r="J411" t="n">
-        <v>18500.78</v>
-      </c>
-      <c r="K411" t="n">
-        <v>1</v>
-      </c>
-      <c r="L411" t="n">
-        <v>18564.04</v>
-      </c>
-      <c r="M411" t="n">
-        <v>18579.84</v>
-      </c>
-      <c r="N411" t="n">
-        <v>55777.09</v>
-      </c>
-      <c r="O411" t="n">
-        <v>18620.94</v>
-      </c>
-      <c r="P411" t="n">
-        <v>18697.7</v>
-      </c>
-      <c r="Q411" t="n">
-        <v>18697.7</v>
-      </c>
-      <c r="R411" t="n">
-        <v>18716.7</v>
-      </c>
-      <c r="S411" t="n">
-        <v>18680.21</v>
-      </c>
-      <c r="T411" t="n">
-        <v>18669.18</v>
-      </c>
-      <c r="U411" t="n">
-        <v>18678.51</v>
-      </c>
+      <c r="A411" t="inlineStr"/>
+      <c r="B411" t="inlineStr"/>
+      <c r="C411" t="inlineStr"/>
+      <c r="D411" t="inlineStr"/>
+      <c r="E411" t="inlineStr"/>
+      <c r="F411" t="inlineStr"/>
+      <c r="G411" t="inlineStr"/>
+      <c r="H411" t="inlineStr"/>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
+      <c r="L411" t="inlineStr"/>
+      <c r="M411" t="inlineStr"/>
+      <c r="N411" t="inlineStr"/>
+      <c r="O411" t="inlineStr"/>
+      <c r="P411" t="inlineStr"/>
+      <c r="Q411" t="inlineStr"/>
+      <c r="R411" t="inlineStr"/>
+      <c r="S411" t="inlineStr"/>
+      <c r="T411" t="inlineStr"/>
+      <c r="U411" t="inlineStr"/>
       <c r="V411" t="inlineStr"/>
       <c r="W411" t="inlineStr"/>
       <c r="X411" t="inlineStr"/>
@@ -56992,79 +56784,27 @@
       <c r="AR411" t="inlineStr"/>
     </row>
     <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>ID-00000411</t>
-        </is>
-      </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>DPS31509</t>
-        </is>
-      </c>
-      <c r="C412" t="inlineStr">
-        <is>
-          <t>MECHA EZETA ACERO RAPIDO DE 12.75 MM</t>
-        </is>
-      </c>
-      <c r="D412" t="inlineStr">
-        <is>
-          <t>ITURRIA S.A</t>
-        </is>
-      </c>
-      <c r="E412" t="inlineStr">
-        <is>
-          <t>EZETA</t>
-        </is>
-      </c>
-      <c r="F412" t="n">
-        <v>2</v>
-      </c>
-      <c r="G412" t="n">
-        <v>4</v>
-      </c>
-      <c r="H412" t="n">
-        <v>2</v>
-      </c>
-      <c r="I412" t="n">
-        <v>41734.32</v>
-      </c>
-      <c r="J412" t="n">
-        <v>41734.32</v>
-      </c>
-      <c r="K412" t="n">
-        <v>2</v>
-      </c>
-      <c r="L412" t="n">
-        <v>41877.02</v>
-      </c>
-      <c r="M412" t="n">
-        <v>41912.68</v>
-      </c>
-      <c r="N412" t="n">
-        <v>83881.85000000001</v>
-      </c>
-      <c r="O412" t="n">
-        <v>42005.38</v>
-      </c>
-      <c r="P412" t="n">
-        <v>42178.55</v>
-      </c>
-      <c r="Q412" t="n">
-        <v>42178.55</v>
-      </c>
-      <c r="R412" t="n">
-        <v>42221.41</v>
-      </c>
-      <c r="S412" t="n">
-        <v>42139.08</v>
-      </c>
-      <c r="T412" t="n">
-        <v>42114.21</v>
-      </c>
-      <c r="U412" t="n">
-        <v>42135.25</v>
-      </c>
+      <c r="A412" t="inlineStr"/>
+      <c r="B412" t="inlineStr"/>
+      <c r="C412" t="inlineStr"/>
+      <c r="D412" t="inlineStr"/>
+      <c r="E412" t="inlineStr"/>
+      <c r="F412" t="inlineStr"/>
+      <c r="G412" t="inlineStr"/>
+      <c r="H412" t="inlineStr"/>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="inlineStr"/>
+      <c r="M412" t="inlineStr"/>
+      <c r="N412" t="inlineStr"/>
+      <c r="O412" t="inlineStr"/>
+      <c r="P412" t="inlineStr"/>
+      <c r="Q412" t="inlineStr"/>
+      <c r="R412" t="inlineStr"/>
+      <c r="S412" t="inlineStr"/>
+      <c r="T412" t="inlineStr"/>
+      <c r="U412" t="inlineStr"/>
       <c r="V412" t="inlineStr"/>
       <c r="W412" t="inlineStr"/>
       <c r="X412" t="inlineStr"/>
@@ -57090,79 +56830,27 @@
       <c r="AR412" t="inlineStr"/>
     </row>
     <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>ID-00000412</t>
-        </is>
-      </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>DPS31510</t>
-        </is>
-      </c>
-      <c r="C413" t="inlineStr">
-        <is>
-          <t>MECHA EZETA ACERO RAPIDO DE 13.00 MM</t>
-        </is>
-      </c>
-      <c r="D413" t="inlineStr">
-        <is>
-          <t>BERMON DISTRIBUIDORA S.R.L</t>
-        </is>
-      </c>
-      <c r="E413" t="inlineStr">
-        <is>
-          <t>EZETA</t>
-        </is>
-      </c>
-      <c r="F413" t="n">
-        <v>6</v>
-      </c>
-      <c r="G413" t="n">
-        <v>12</v>
-      </c>
-      <c r="H413" t="n">
-        <v>6</v>
-      </c>
-      <c r="I413" t="n">
-        <v>677494.3100000001</v>
-      </c>
-      <c r="J413" t="n">
-        <v>677494.3100000001</v>
-      </c>
-      <c r="K413" t="n">
-        <v>6</v>
-      </c>
-      <c r="L413" t="n">
-        <v>679810.87</v>
-      </c>
-      <c r="M413" t="n">
-        <v>680389.6899999999</v>
-      </c>
-      <c r="N413" t="n">
-        <v>2042544.6</v>
-      </c>
-      <c r="O413" t="n">
-        <v>681894.61</v>
-      </c>
-      <c r="P413" t="n">
-        <v>684705.65</v>
-      </c>
-      <c r="Q413" t="n">
-        <v>684705.65</v>
-      </c>
-      <c r="R413" t="n">
-        <v>685401.5</v>
-      </c>
-      <c r="S413" t="n">
-        <v>684065.0600000001</v>
-      </c>
-      <c r="T413" t="n">
-        <v>683661.22</v>
-      </c>
-      <c r="U413" t="n">
-        <v>684002.74</v>
-      </c>
+      <c r="A413" t="inlineStr"/>
+      <c r="B413" t="inlineStr"/>
+      <c r="C413" t="inlineStr"/>
+      <c r="D413" t="inlineStr"/>
+      <c r="E413" t="inlineStr"/>
+      <c r="F413" t="inlineStr"/>
+      <c r="G413" t="inlineStr"/>
+      <c r="H413" t="inlineStr"/>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
+      <c r="L413" t="inlineStr"/>
+      <c r="M413" t="inlineStr"/>
+      <c r="N413" t="inlineStr"/>
+      <c r="O413" t="inlineStr"/>
+      <c r="P413" t="inlineStr"/>
+      <c r="Q413" t="inlineStr"/>
+      <c r="R413" t="inlineStr"/>
+      <c r="S413" t="inlineStr"/>
+      <c r="T413" t="inlineStr"/>
+      <c r="U413" t="inlineStr"/>
       <c r="V413" t="inlineStr"/>
       <c r="W413" t="inlineStr"/>
       <c r="X413" t="inlineStr"/>
@@ -57188,79 +56876,27 @@
       <c r="AR413" t="inlineStr"/>
     </row>
     <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>ID-00000413</t>
-        </is>
-      </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>DPS31511</t>
-        </is>
-      </c>
-      <c r="C414" t="inlineStr">
-        <is>
-          <t>TIJERA P/CORTA ALAMBRE RUCCI</t>
-        </is>
-      </c>
-      <c r="D414" t="inlineStr">
-        <is>
-          <t>MIGUEL MIELGO S.R.L</t>
-        </is>
-      </c>
-      <c r="E414" t="inlineStr">
-        <is>
-          <t>RUCCI</t>
-        </is>
-      </c>
-      <c r="F414" t="n">
-        <v>0</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0</v>
-      </c>
-      <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="n">
-        <v>0</v>
-      </c>
-      <c r="J414" t="n">
-        <v>0</v>
-      </c>
-      <c r="K414" t="n">
-        <v>0</v>
-      </c>
-      <c r="L414" t="n">
-        <v>0</v>
-      </c>
-      <c r="M414" t="n">
-        <v>0</v>
-      </c>
-      <c r="N414" t="n">
-        <v>0</v>
-      </c>
-      <c r="O414" t="n">
-        <v>0</v>
-      </c>
-      <c r="P414" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q414" t="n">
-        <v>0</v>
-      </c>
-      <c r="R414" t="n">
-        <v>0</v>
-      </c>
-      <c r="S414" t="n">
-        <v>0</v>
-      </c>
-      <c r="T414" t="n">
-        <v>0</v>
-      </c>
-      <c r="U414" t="n">
-        <v>0</v>
-      </c>
+      <c r="A414" t="inlineStr"/>
+      <c r="B414" t="inlineStr"/>
+      <c r="C414" t="inlineStr"/>
+      <c r="D414" t="inlineStr"/>
+      <c r="E414" t="inlineStr"/>
+      <c r="F414" t="inlineStr"/>
+      <c r="G414" t="inlineStr"/>
+      <c r="H414" t="inlineStr"/>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
+      <c r="L414" t="inlineStr"/>
+      <c r="M414" t="inlineStr"/>
+      <c r="N414" t="inlineStr"/>
+      <c r="O414" t="inlineStr"/>
+      <c r="P414" t="inlineStr"/>
+      <c r="Q414" t="inlineStr"/>
+      <c r="R414" t="inlineStr"/>
+      <c r="S414" t="inlineStr"/>
+      <c r="T414" t="inlineStr"/>
+      <c r="U414" t="inlineStr"/>
       <c r="V414" t="inlineStr"/>
       <c r="W414" t="inlineStr"/>
       <c r="X414" t="inlineStr"/>
@@ -57286,79 +56922,27 @@
       <c r="AR414" t="inlineStr"/>
     </row>
     <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>ID-00000414</t>
-        </is>
-      </c>
-      <c r="B415" t="inlineStr">
-        <is>
-          <t>DPS31512</t>
-        </is>
-      </c>
-      <c r="C415" t="inlineStr">
-        <is>
-          <t>REMACHE POP DE 3.5 X 25MM</t>
-        </is>
-      </c>
-      <c r="D415" t="inlineStr">
-        <is>
-          <t>BERMON DISTRIBUIDORA S.R.L</t>
-        </is>
-      </c>
-      <c r="E415" t="inlineStr">
-        <is>
-          <t>ARGENRAP</t>
-        </is>
-      </c>
-      <c r="F415" t="n">
-        <v>870</v>
-      </c>
-      <c r="G415" t="n">
-        <v>1740</v>
-      </c>
-      <c r="H415" t="n">
-        <v>870</v>
-      </c>
-      <c r="I415" t="n">
-        <v>30615764.68</v>
-      </c>
-      <c r="J415" t="n">
-        <v>30615764.68</v>
-      </c>
-      <c r="K415" t="n">
-        <v>870</v>
-      </c>
-      <c r="L415" t="n">
-        <v>30720448.95</v>
-      </c>
-      <c r="M415" t="n">
-        <v>30393196.49</v>
-      </c>
-      <c r="N415" t="n">
-        <v>92301977.06</v>
-      </c>
-      <c r="O415" t="n">
-        <v>30814612.89</v>
-      </c>
-      <c r="P415" t="n">
-        <v>30941642.66</v>
-      </c>
-      <c r="Q415" t="n">
-        <v>30941642.66</v>
-      </c>
-      <c r="R415" t="n">
-        <v>30973088.14</v>
-      </c>
-      <c r="S415" t="n">
-        <v>30770567.28</v>
-      </c>
-      <c r="T415" t="n">
-        <v>30894445.14</v>
-      </c>
-      <c r="U415" t="n">
-        <v>30909878.66</v>
-      </c>
+      <c r="A415" t="inlineStr"/>
+      <c r="B415" t="inlineStr"/>
+      <c r="C415" t="inlineStr"/>
+      <c r="D415" t="inlineStr"/>
+      <c r="E415" t="inlineStr"/>
+      <c r="F415" t="inlineStr"/>
+      <c r="G415" t="inlineStr"/>
+      <c r="H415" t="inlineStr"/>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
+      <c r="L415" t="inlineStr"/>
+      <c r="M415" t="inlineStr"/>
+      <c r="N415" t="inlineStr"/>
+      <c r="O415" t="inlineStr"/>
+      <c r="P415" t="inlineStr"/>
+      <c r="Q415" t="inlineStr"/>
+      <c r="R415" t="inlineStr"/>
+      <c r="S415" t="inlineStr"/>
+      <c r="T415" t="inlineStr"/>
+      <c r="U415" t="inlineStr"/>
       <c r="V415" t="inlineStr"/>
       <c r="W415" t="inlineStr"/>
       <c r="X415" t="inlineStr"/>
@@ -57384,79 +56968,27 @@
       <c r="AR415" t="inlineStr"/>
     </row>
     <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>ID-00000415</t>
-        </is>
-      </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>DPS31513</t>
-        </is>
-      </c>
-      <c r="C416" t="inlineStr">
-        <is>
-          <t>REMACHE POP DE 4 X 10 MM</t>
-        </is>
-      </c>
-      <c r="D416" t="inlineStr">
-        <is>
-          <t>BERMON DISTRIBUIDORA S.R.L</t>
-        </is>
-      </c>
-      <c r="E416" t="inlineStr">
-        <is>
-          <t>RERAR</t>
-        </is>
-      </c>
-      <c r="F416" t="n">
-        <v>0</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0</v>
-      </c>
-      <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="n">
-        <v>0</v>
-      </c>
-      <c r="J416" t="n">
-        <v>0</v>
-      </c>
-      <c r="K416" t="n">
-        <v>0</v>
-      </c>
-      <c r="L416" t="n">
-        <v>0</v>
-      </c>
-      <c r="M416" t="n">
-        <v>0</v>
-      </c>
-      <c r="N416" t="n">
-        <v>0</v>
-      </c>
-      <c r="O416" t="n">
-        <v>0</v>
-      </c>
-      <c r="P416" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q416" t="n">
-        <v>0</v>
-      </c>
-      <c r="R416" t="n">
-        <v>0</v>
-      </c>
-      <c r="S416" t="n">
-        <v>0</v>
-      </c>
-      <c r="T416" t="n">
-        <v>0</v>
-      </c>
-      <c r="U416" t="n">
-        <v>0</v>
-      </c>
+      <c r="A416" t="inlineStr"/>
+      <c r="B416" t="inlineStr"/>
+      <c r="C416" t="inlineStr"/>
+      <c r="D416" t="inlineStr"/>
+      <c r="E416" t="inlineStr"/>
+      <c r="F416" t="inlineStr"/>
+      <c r="G416" t="inlineStr"/>
+      <c r="H416" t="inlineStr"/>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
+      <c r="L416" t="inlineStr"/>
+      <c r="M416" t="inlineStr"/>
+      <c r="N416" t="inlineStr"/>
+      <c r="O416" t="inlineStr"/>
+      <c r="P416" t="inlineStr"/>
+      <c r="Q416" t="inlineStr"/>
+      <c r="R416" t="inlineStr"/>
+      <c r="S416" t="inlineStr"/>
+      <c r="T416" t="inlineStr"/>
+      <c r="U416" t="inlineStr"/>
       <c r="V416" t="inlineStr"/>
       <c r="W416" t="inlineStr"/>
       <c r="X416" t="inlineStr"/>
@@ -57482,79 +57014,27 @@
       <c r="AR416" t="inlineStr"/>
     </row>
     <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>ID-00000416</t>
-        </is>
-      </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>DPS31514</t>
-        </is>
-      </c>
-      <c r="C417" t="inlineStr">
-        <is>
-          <t>REMACHE POP DE 4 X 14 MM</t>
-        </is>
-      </c>
-      <c r="D417" t="inlineStr">
-        <is>
-          <t>BULONFER S.A</t>
-        </is>
-      </c>
-      <c r="E417" t="inlineStr">
-        <is>
-          <t>ARGENRAP</t>
-        </is>
-      </c>
-      <c r="F417" t="n">
-        <v>30</v>
-      </c>
-      <c r="G417" t="n">
-        <v>60</v>
-      </c>
-      <c r="H417" t="n">
-        <v>30</v>
-      </c>
-      <c r="I417" t="n">
-        <v>29119.51</v>
-      </c>
-      <c r="J417" t="n">
-        <v>29119.51</v>
-      </c>
-      <c r="K417" t="n">
-        <v>26</v>
-      </c>
-      <c r="L417" t="n">
-        <v>23375.26</v>
-      </c>
-      <c r="M417" t="n">
-        <v>29243.96</v>
-      </c>
-      <c r="N417" t="n">
-        <v>87791</v>
-      </c>
-      <c r="O417" t="n">
-        <v>29308.64</v>
-      </c>
-      <c r="P417" t="n">
-        <v>29429.46</v>
-      </c>
-      <c r="Q417" t="n">
-        <v>21581.61</v>
-      </c>
-      <c r="R417" t="n">
-        <v>29459.37</v>
-      </c>
-      <c r="S417" t="n">
-        <v>19601.29</v>
-      </c>
-      <c r="T417" t="n">
-        <v>21548.69</v>
-      </c>
-      <c r="U417" t="n">
-        <v>27439.3</v>
-      </c>
+      <c r="A417" t="inlineStr"/>
+      <c r="B417" t="inlineStr"/>
+      <c r="C417" t="inlineStr"/>
+      <c r="D417" t="inlineStr"/>
+      <c r="E417" t="inlineStr"/>
+      <c r="F417" t="inlineStr"/>
+      <c r="G417" t="inlineStr"/>
+      <c r="H417" t="inlineStr"/>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="inlineStr"/>
+      <c r="M417" t="inlineStr"/>
+      <c r="N417" t="inlineStr"/>
+      <c r="O417" t="inlineStr"/>
+      <c r="P417" t="inlineStr"/>
+      <c r="Q417" t="inlineStr"/>
+      <c r="R417" t="inlineStr"/>
+      <c r="S417" t="inlineStr"/>
+      <c r="T417" t="inlineStr"/>
+      <c r="U417" t="inlineStr"/>
       <c r="V417" t="inlineStr"/>
       <c r="W417" t="inlineStr"/>
       <c r="X417" t="inlineStr"/>
@@ -57580,79 +57060,27 @@
       <c r="AR417" t="inlineStr"/>
     </row>
     <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>ID-00000417</t>
-        </is>
-      </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>DPS31515</t>
-        </is>
-      </c>
-      <c r="C418" t="inlineStr">
-        <is>
-          <t>REMACHE POP DE 4 X 20 MM</t>
-        </is>
-      </c>
-      <c r="D418" t="inlineStr">
-        <is>
-          <t>BERMON DISTRIBUIDORA S.R.L</t>
-        </is>
-      </c>
-      <c r="E418" t="inlineStr">
-        <is>
-          <t>ARGENRAP</t>
-        </is>
-      </c>
-      <c r="F418" t="n">
-        <v>175</v>
-      </c>
-      <c r="G418" t="n">
-        <v>345</v>
-      </c>
-      <c r="H418" t="n">
-        <v>172</v>
-      </c>
-      <c r="I418" t="n">
-        <v>1183838.24</v>
-      </c>
-      <c r="J418" t="n">
-        <v>1150014.29</v>
-      </c>
-      <c r="K418" t="n">
-        <v>175</v>
-      </c>
-      <c r="L418" t="n">
-        <v>1187886.13</v>
-      </c>
-      <c r="M418" t="n">
-        <v>1188897.55</v>
-      </c>
-      <c r="N418" t="n">
-        <v>3569096.22</v>
-      </c>
-      <c r="O418" t="n">
-        <v>1191527.22</v>
-      </c>
-      <c r="P418" t="n">
-        <v>1141744.8</v>
-      </c>
-      <c r="Q418" t="n">
-        <v>1155418.39</v>
-      </c>
-      <c r="R418" t="n">
-        <v>1170280.11</v>
-      </c>
-      <c r="S418" t="n">
-        <v>1167998.21</v>
-      </c>
-      <c r="T418" t="n">
-        <v>1153655.95</v>
-      </c>
-      <c r="U418" t="n">
-        <v>1195210.92</v>
-      </c>
+      <c r="A418" t="inlineStr"/>
+      <c r="B418" t="inlineStr"/>
+      <c r="C418" t="inlineStr"/>
+      <c r="D418" t="inlineStr"/>
+      <c r="E418" t="inlineStr"/>
+      <c r="F418" t="inlineStr"/>
+      <c r="G418" t="inlineStr"/>
+      <c r="H418" t="inlineStr"/>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
+      <c r="L418" t="inlineStr"/>
+      <c r="M418" t="inlineStr"/>
+      <c r="N418" t="inlineStr"/>
+      <c r="O418" t="inlineStr"/>
+      <c r="P418" t="inlineStr"/>
+      <c r="Q418" t="inlineStr"/>
+      <c r="R418" t="inlineStr"/>
+      <c r="S418" t="inlineStr"/>
+      <c r="T418" t="inlineStr"/>
+      <c r="U418" t="inlineStr"/>
       <c r="V418" t="inlineStr"/>
       <c r="W418" t="inlineStr"/>
       <c r="X418" t="inlineStr"/>
@@ -57678,79 +57106,27 @@
       <c r="AR418" t="inlineStr"/>
     </row>
     <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>ID-00000418</t>
-        </is>
-      </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>DPS31516</t>
-        </is>
-      </c>
-      <c r="C419" t="inlineStr">
-        <is>
-          <t>REMACHE POP DE 4.8 X 14 MM</t>
-        </is>
-      </c>
-      <c r="D419" t="inlineStr">
-        <is>
-          <t>BERMON DISTRIBUIDORA S.R.L</t>
-        </is>
-      </c>
-      <c r="E419" t="inlineStr">
-        <is>
-          <t>RERAR</t>
-        </is>
-      </c>
-      <c r="F419" t="n">
-        <v>0</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0</v>
-      </c>
-      <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="n">
-        <v>0</v>
-      </c>
-      <c r="J419" t="n">
-        <v>0</v>
-      </c>
-      <c r="K419" t="n">
-        <v>0</v>
-      </c>
-      <c r="L419" t="n">
-        <v>0</v>
-      </c>
-      <c r="M419" t="n">
-        <v>0</v>
-      </c>
-      <c r="N419" t="n">
-        <v>0</v>
-      </c>
-      <c r="O419" t="n">
-        <v>0</v>
-      </c>
-      <c r="P419" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q419" t="n">
-        <v>0</v>
-      </c>
-      <c r="R419" t="n">
-        <v>0</v>
-      </c>
-      <c r="S419" t="n">
-        <v>0</v>
-      </c>
-      <c r="T419" t="n">
-        <v>0</v>
-      </c>
-      <c r="U419" t="n">
-        <v>0</v>
-      </c>
+      <c r="A419" t="inlineStr"/>
+      <c r="B419" t="inlineStr"/>
+      <c r="C419" t="inlineStr"/>
+      <c r="D419" t="inlineStr"/>
+      <c r="E419" t="inlineStr"/>
+      <c r="F419" t="inlineStr"/>
+      <c r="G419" t="inlineStr"/>
+      <c r="H419" t="inlineStr"/>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
+      <c r="L419" t="inlineStr"/>
+      <c r="M419" t="inlineStr"/>
+      <c r="N419" t="inlineStr"/>
+      <c r="O419" t="inlineStr"/>
+      <c r="P419" t="inlineStr"/>
+      <c r="Q419" t="inlineStr"/>
+      <c r="R419" t="inlineStr"/>
+      <c r="S419" t="inlineStr"/>
+      <c r="T419" t="inlineStr"/>
+      <c r="U419" t="inlineStr"/>
       <c r="V419" t="inlineStr"/>
       <c r="W419" t="inlineStr"/>
       <c r="X419" t="inlineStr"/>
@@ -57776,79 +57152,27 @@
       <c r="AR419" t="inlineStr"/>
     </row>
     <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>ID-00000419</t>
-        </is>
-      </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>DPS31517</t>
-        </is>
-      </c>
-      <c r="C420" t="inlineStr">
-        <is>
-          <t>REMACHE POP DE 5 X 20 MM</t>
-        </is>
-      </c>
-      <c r="D420" t="inlineStr">
-        <is>
-          <t>BULONFER S.A</t>
-        </is>
-      </c>
-      <c r="E420" t="inlineStr">
-        <is>
-          <t>ARGENRAP</t>
-        </is>
-      </c>
-      <c r="F420" t="n">
-        <v>0</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0</v>
-      </c>
-      <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="n">
-        <v>0</v>
-      </c>
-      <c r="J420" t="n">
-        <v>0</v>
-      </c>
-      <c r="K420" t="n">
-        <v>0</v>
-      </c>
-      <c r="L420" t="n">
-        <v>0</v>
-      </c>
-      <c r="M420" t="n">
-        <v>0</v>
-      </c>
-      <c r="N420" t="n">
-        <v>0</v>
-      </c>
-      <c r="O420" t="n">
-        <v>0</v>
-      </c>
-      <c r="P420" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q420" t="n">
-        <v>0</v>
-      </c>
-      <c r="R420" t="n">
-        <v>0</v>
-      </c>
-      <c r="S420" t="n">
-        <v>0</v>
-      </c>
-      <c r="T420" t="n">
-        <v>0</v>
-      </c>
-      <c r="U420" t="n">
-        <v>0</v>
-      </c>
+      <c r="A420" t="inlineStr"/>
+      <c r="B420" t="inlineStr"/>
+      <c r="C420" t="inlineStr"/>
+      <c r="D420" t="inlineStr"/>
+      <c r="E420" t="inlineStr"/>
+      <c r="F420" t="inlineStr"/>
+      <c r="G420" t="inlineStr"/>
+      <c r="H420" t="inlineStr"/>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="inlineStr"/>
+      <c r="M420" t="inlineStr"/>
+      <c r="N420" t="inlineStr"/>
+      <c r="O420" t="inlineStr"/>
+      <c r="P420" t="inlineStr"/>
+      <c r="Q420" t="inlineStr"/>
+      <c r="R420" t="inlineStr"/>
+      <c r="S420" t="inlineStr"/>
+      <c r="T420" t="inlineStr"/>
+      <c r="U420" t="inlineStr"/>
       <c r="V420" t="inlineStr"/>
       <c r="W420" t="inlineStr"/>
       <c r="X420" t="inlineStr"/>
@@ -57874,79 +57198,27 @@
       <c r="AR420" t="inlineStr"/>
     </row>
     <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>ID-00000420</t>
-        </is>
-      </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>DPS31518</t>
-        </is>
-      </c>
-      <c r="C421" t="inlineStr">
-        <is>
-          <t>ABRAZADERA 7 MM DE</t>
-        </is>
-      </c>
-      <c r="D421" t="inlineStr">
-        <is>
-          <t>ITURRIA S.A</t>
-        </is>
-      </c>
-      <c r="E421" t="inlineStr">
-        <is>
-          <t>PERFECTO</t>
-        </is>
-      </c>
-      <c r="F421" t="n">
-        <v>83</v>
-      </c>
-      <c r="G421" t="n">
-        <v>166</v>
-      </c>
-      <c r="H421" t="n">
-        <v>83</v>
-      </c>
-      <c r="I421" t="n">
-        <v>118680.94</v>
-      </c>
-      <c r="J421" t="n">
-        <v>120128.26</v>
-      </c>
-      <c r="K421" t="n">
-        <v>73</v>
-      </c>
-      <c r="L421" t="n">
-        <v>120539.02</v>
-      </c>
-      <c r="M421" t="n">
-        <v>120641.65</v>
-      </c>
-      <c r="N421" t="n">
-        <v>356350.88</v>
-      </c>
-      <c r="O421" t="n">
-        <v>106341.2</v>
-      </c>
-      <c r="P421" t="n">
-        <v>121406.92</v>
-      </c>
-      <c r="Q421" t="n">
-        <v>118481.46</v>
-      </c>
-      <c r="R421" t="n">
-        <v>112744.98</v>
-      </c>
-      <c r="S421" t="n">
-        <v>121293.34</v>
-      </c>
-      <c r="T421" t="n">
-        <v>121221.73</v>
-      </c>
-      <c r="U421" t="n">
-        <v>121282.29</v>
-      </c>
+      <c r="A421" t="inlineStr"/>
+      <c r="B421" t="inlineStr"/>
+      <c r="C421" t="inlineStr"/>
+      <c r="D421" t="inlineStr"/>
+      <c r="E421" t="inlineStr"/>
+      <c r="F421" t="inlineStr"/>
+      <c r="G421" t="inlineStr"/>
+      <c r="H421" t="inlineStr"/>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="inlineStr"/>
+      <c r="M421" t="inlineStr"/>
+      <c r="N421" t="inlineStr"/>
+      <c r="O421" t="inlineStr"/>
+      <c r="P421" t="inlineStr"/>
+      <c r="Q421" t="inlineStr"/>
+      <c r="R421" t="inlineStr"/>
+      <c r="S421" t="inlineStr"/>
+      <c r="T421" t="inlineStr"/>
+      <c r="U421" t="inlineStr"/>
       <c r="V421" t="inlineStr"/>
       <c r="W421" t="inlineStr"/>
       <c r="X421" t="inlineStr"/>
@@ -57972,79 +57244,27 @@
       <c r="AR421" t="inlineStr"/>
     </row>
     <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>ID-00000421</t>
-        </is>
-      </c>
-      <c r="B422" t="inlineStr">
-        <is>
-          <t>DPS31519</t>
-        </is>
-      </c>
-      <c r="C422" t="inlineStr">
-        <is>
-          <t>APAREJO A PALANCA X 3 TN</t>
-        </is>
-      </c>
-      <c r="D422" t="inlineStr">
-        <is>
-          <t>FERRIMED SRL</t>
-        </is>
-      </c>
-      <c r="E422" t="inlineStr">
-        <is>
-          <t>GAN-MAR</t>
-        </is>
-      </c>
-      <c r="F422" t="n">
-        <v>0</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0</v>
-      </c>
-      <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="n">
-        <v>0</v>
-      </c>
-      <c r="J422" t="n">
-        <v>0</v>
-      </c>
-      <c r="K422" t="n">
-        <v>0</v>
-      </c>
-      <c r="L422" t="n">
-        <v>0</v>
-      </c>
-      <c r="M422" t="n">
-        <v>0</v>
-      </c>
-      <c r="N422" t="n">
-        <v>0</v>
-      </c>
-      <c r="O422" t="n">
-        <v>0</v>
-      </c>
-      <c r="P422" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q422" t="n">
-        <v>0</v>
-      </c>
-      <c r="R422" t="n">
-        <v>0</v>
-      </c>
-      <c r="S422" t="n">
-        <v>0</v>
-      </c>
-      <c r="T422" t="n">
-        <v>0</v>
-      </c>
-      <c r="U422" t="n">
-        <v>0</v>
-      </c>
+      <c r="A422" t="inlineStr"/>
+      <c r="B422" t="inlineStr"/>
+      <c r="C422" t="inlineStr"/>
+      <c r="D422" t="inlineStr"/>
+      <c r="E422" t="inlineStr"/>
+      <c r="F422" t="inlineStr"/>
+      <c r="G422" t="inlineStr"/>
+      <c r="H422" t="inlineStr"/>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
+      <c r="L422" t="inlineStr"/>
+      <c r="M422" t="inlineStr"/>
+      <c r="N422" t="inlineStr"/>
+      <c r="O422" t="inlineStr"/>
+      <c r="P422" t="inlineStr"/>
+      <c r="Q422" t="inlineStr"/>
+      <c r="R422" t="inlineStr"/>
+      <c r="S422" t="inlineStr"/>
+      <c r="T422" t="inlineStr"/>
+      <c r="U422" t="inlineStr"/>
       <c r="V422" t="inlineStr"/>
       <c r="W422" t="inlineStr"/>
       <c r="X422" t="inlineStr"/>
@@ -58070,79 +57290,27 @@
       <c r="AR422" t="inlineStr"/>
     </row>
     <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>ID-00000422</t>
-        </is>
-      </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>DPS31520</t>
-        </is>
-      </c>
-      <c r="C423" t="inlineStr">
-        <is>
-          <t>APAREJO A PALANCA X 2 TN</t>
-        </is>
-      </c>
-      <c r="D423" t="inlineStr">
-        <is>
-          <t>FERRIMED SRL</t>
-        </is>
-      </c>
-      <c r="E423" t="inlineStr">
-        <is>
-          <t>GAN-MAR</t>
-        </is>
-      </c>
-      <c r="F423" t="n">
-        <v>0</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0</v>
-      </c>
-      <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="n">
-        <v>0</v>
-      </c>
-      <c r="J423" t="n">
-        <v>0</v>
-      </c>
-      <c r="K423" t="n">
-        <v>0</v>
-      </c>
-      <c r="L423" t="n">
-        <v>0</v>
-      </c>
-      <c r="M423" t="n">
-        <v>0</v>
-      </c>
-      <c r="N423" t="n">
-        <v>0</v>
-      </c>
-      <c r="O423" t="n">
-        <v>0</v>
-      </c>
-      <c r="P423" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q423" t="n">
-        <v>0</v>
-      </c>
-      <c r="R423" t="n">
-        <v>0</v>
-      </c>
-      <c r="S423" t="n">
-        <v>0</v>
-      </c>
-      <c r="T423" t="n">
-        <v>0</v>
-      </c>
-      <c r="U423" t="n">
-        <v>0</v>
-      </c>
+      <c r="A423" t="inlineStr"/>
+      <c r="B423" t="inlineStr"/>
+      <c r="C423" t="inlineStr"/>
+      <c r="D423" t="inlineStr"/>
+      <c r="E423" t="inlineStr"/>
+      <c r="F423" t="inlineStr"/>
+      <c r="G423" t="inlineStr"/>
+      <c r="H423" t="inlineStr"/>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
+      <c r="L423" t="inlineStr"/>
+      <c r="M423" t="inlineStr"/>
+      <c r="N423" t="inlineStr"/>
+      <c r="O423" t="inlineStr"/>
+      <c r="P423" t="inlineStr"/>
+      <c r="Q423" t="inlineStr"/>
+      <c r="R423" t="inlineStr"/>
+      <c r="S423" t="inlineStr"/>
+      <c r="T423" t="inlineStr"/>
+      <c r="U423" t="inlineStr"/>
       <c r="V423" t="inlineStr"/>
       <c r="W423" t="inlineStr"/>
       <c r="X423" t="inlineStr"/>
@@ -58168,79 +57336,27 @@
       <c r="AR423" t="inlineStr"/>
     </row>
     <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>ID-00000423</t>
-        </is>
-      </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>DPS31521</t>
-        </is>
-      </c>
-      <c r="C424" t="inlineStr">
-        <is>
-          <t>CAJA DE HERRAMIENTAS Nº 2 PAPAGNO</t>
-        </is>
-      </c>
-      <c r="D424" t="inlineStr">
-        <is>
-          <t>DELLA VALLE Y CIA SRL</t>
-        </is>
-      </c>
-      <c r="E424" t="inlineStr">
-        <is>
-          <t>PAPAGNO</t>
-        </is>
-      </c>
-      <c r="F424" t="n">
-        <v>1</v>
-      </c>
-      <c r="G424" t="n">
-        <v>2</v>
-      </c>
-      <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>3073.4</v>
-      </c>
-      <c r="J424" t="n">
-        <v>3073.4</v>
-      </c>
-      <c r="K424" t="n">
-        <v>1</v>
-      </c>
-      <c r="L424" t="n">
-        <v>3083.91</v>
-      </c>
-      <c r="M424" t="n">
-        <v>3086.53</v>
-      </c>
-      <c r="N424" t="n">
-        <v>3088.61</v>
-      </c>
-      <c r="O424" t="n">
-        <v>-3093.36</v>
-      </c>
-      <c r="P424" t="n">
-        <v>3106.11</v>
-      </c>
-      <c r="Q424" t="n">
-        <v>3106.11</v>
-      </c>
-      <c r="R424" t="n">
-        <v>3109.27</v>
-      </c>
-      <c r="S424" t="n">
-        <v>3103.21</v>
-      </c>
-      <c r="T424" t="n">
-        <v>3101.37</v>
-      </c>
-      <c r="U424" t="n">
-        <v>3102.92</v>
-      </c>
+      <c r="A424" t="inlineStr"/>
+      <c r="B424" t="inlineStr"/>
+      <c r="C424" t="inlineStr"/>
+      <c r="D424" t="inlineStr"/>
+      <c r="E424" t="inlineStr"/>
+      <c r="F424" t="inlineStr"/>
+      <c r="G424" t="inlineStr"/>
+      <c r="H424" t="inlineStr"/>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
+      <c r="L424" t="inlineStr"/>
+      <c r="M424" t="inlineStr"/>
+      <c r="N424" t="inlineStr"/>
+      <c r="O424" t="inlineStr"/>
+      <c r="P424" t="inlineStr"/>
+      <c r="Q424" t="inlineStr"/>
+      <c r="R424" t="inlineStr"/>
+      <c r="S424" t="inlineStr"/>
+      <c r="T424" t="inlineStr"/>
+      <c r="U424" t="inlineStr"/>
       <c r="V424" t="inlineStr"/>
       <c r="W424" t="inlineStr"/>
       <c r="X424" t="inlineStr"/>
@@ -58266,79 +57382,27 @@
       <c r="AR424" t="inlineStr"/>
     </row>
     <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>ID-00000424</t>
-        </is>
-      </c>
-      <c r="B425" t="inlineStr">
-        <is>
-          <t>DPS31522</t>
-        </is>
-      </c>
-      <c r="C425" t="inlineStr">
-        <is>
-          <t>CUCHARA DE ALBAÑIL 5 1/2</t>
-        </is>
-      </c>
-      <c r="D425" t="inlineStr">
-        <is>
-          <t>BERMON DISTRIBUIDORA S.R.L</t>
-        </is>
-      </c>
-      <c r="E425" t="inlineStr">
-        <is>
-          <t>EL ROBLE</t>
-        </is>
-      </c>
-      <c r="F425" t="n">
-        <v>0</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0</v>
-      </c>
-      <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="n">
-        <v>0</v>
-      </c>
-      <c r="J425" t="n">
-        <v>0</v>
-      </c>
-      <c r="K425" t="n">
-        <v>0</v>
-      </c>
-      <c r="L425" t="n">
-        <v>0</v>
-      </c>
-      <c r="M425" t="n">
-        <v>0</v>
-      </c>
-      <c r="N425" t="n">
-        <v>0</v>
-      </c>
-      <c r="O425" t="n">
-        <v>0</v>
-      </c>
-      <c r="P425" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q425" t="n">
-        <v>0</v>
-      </c>
-      <c r="R425" t="n">
-        <v>0</v>
-      </c>
-      <c r="S425" t="n">
-        <v>0</v>
-      </c>
-      <c r="T425" t="n">
-        <v>0</v>
-      </c>
-      <c r="U425" t="n">
-        <v>0</v>
-      </c>
+      <c r="A425" t="inlineStr"/>
+      <c r="B425" t="inlineStr"/>
+      <c r="C425" t="inlineStr"/>
+      <c r="D425" t="inlineStr"/>
+      <c r="E425" t="inlineStr"/>
+      <c r="F425" t="inlineStr"/>
+      <c r="G425" t="inlineStr"/>
+      <c r="H425" t="inlineStr"/>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
+      <c r="L425" t="inlineStr"/>
+      <c r="M425" t="inlineStr"/>
+      <c r="N425" t="inlineStr"/>
+      <c r="O425" t="inlineStr"/>
+      <c r="P425" t="inlineStr"/>
+      <c r="Q425" t="inlineStr"/>
+      <c r="R425" t="inlineStr"/>
+      <c r="S425" t="inlineStr"/>
+      <c r="T425" t="inlineStr"/>
+      <c r="U425" t="inlineStr"/>
       <c r="V425" t="inlineStr"/>
       <c r="W425" t="inlineStr"/>
       <c r="X425" t="inlineStr"/>
@@ -58364,79 +57428,27 @@
       <c r="AR425" t="inlineStr"/>
     </row>
     <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>ID-00000425</t>
-        </is>
-      </c>
-      <c r="B426" t="inlineStr">
-        <is>
-          <t>DPS31523</t>
-        </is>
-      </c>
-      <c r="C426" t="inlineStr">
-        <is>
-          <t>CAJA DE HERRAMIENTAS Nº 7 PAPAGNO</t>
-        </is>
-      </c>
-      <c r="D426" t="inlineStr">
-        <is>
-          <t>DELLA VALLE Y CIA SRL</t>
-        </is>
-      </c>
-      <c r="E426" t="inlineStr">
-        <is>
-          <t>PAPAGNO</t>
-        </is>
-      </c>
-      <c r="F426" t="n">
-        <v>0</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0</v>
-      </c>
-      <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="n">
-        <v>0</v>
-      </c>
-      <c r="J426" t="n">
-        <v>0</v>
-      </c>
-      <c r="K426" t="n">
-        <v>0</v>
-      </c>
-      <c r="L426" t="n">
-        <v>0</v>
-      </c>
-      <c r="M426" t="n">
-        <v>0</v>
-      </c>
-      <c r="N426" t="n">
-        <v>0</v>
-      </c>
-      <c r="O426" t="n">
-        <v>0</v>
-      </c>
-      <c r="P426" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q426" t="n">
-        <v>0</v>
-      </c>
-      <c r="R426" t="n">
-        <v>0</v>
-      </c>
-      <c r="S426" t="n">
-        <v>0</v>
-      </c>
-      <c r="T426" t="n">
-        <v>0</v>
-      </c>
-      <c r="U426" t="n">
-        <v>0</v>
-      </c>
+      <c r="A426" t="inlineStr"/>
+      <c r="B426" t="inlineStr"/>
+      <c r="C426" t="inlineStr"/>
+      <c r="D426" t="inlineStr"/>
+      <c r="E426" t="inlineStr"/>
+      <c r="F426" t="inlineStr"/>
+      <c r="G426" t="inlineStr"/>
+      <c r="H426" t="inlineStr"/>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
+      <c r="L426" t="inlineStr"/>
+      <c r="M426" t="inlineStr"/>
+      <c r="N426" t="inlineStr"/>
+      <c r="O426" t="inlineStr"/>
+      <c r="P426" t="inlineStr"/>
+      <c r="Q426" t="inlineStr"/>
+      <c r="R426" t="inlineStr"/>
+      <c r="S426" t="inlineStr"/>
+      <c r="T426" t="inlineStr"/>
+      <c r="U426" t="inlineStr"/>
       <c r="V426" t="inlineStr"/>
       <c r="W426" t="inlineStr"/>
       <c r="X426" t="inlineStr"/>
@@ -58462,79 +57474,27 @@
       <c r="AR426" t="inlineStr"/>
     </row>
     <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>ID-00000426</t>
-        </is>
-      </c>
-      <c r="B427" t="inlineStr">
-        <is>
-          <t>DPS31524</t>
-        </is>
-      </c>
-      <c r="C427" t="inlineStr">
-        <is>
-          <t>CAJA DE HERRAMIENTAS Nº 25 PAPAGNO</t>
-        </is>
-      </c>
-      <c r="D427" t="inlineStr">
-        <is>
-          <t>DELLA VALLE Y CIA SRL</t>
-        </is>
-      </c>
-      <c r="E427" t="inlineStr">
-        <is>
-          <t>PAPAGNO</t>
-        </is>
-      </c>
-      <c r="F427" t="n">
-        <v>0</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0</v>
-      </c>
-      <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="n">
-        <v>0</v>
-      </c>
-      <c r="J427" t="n">
-        <v>0</v>
-      </c>
-      <c r="K427" t="n">
-        <v>0</v>
-      </c>
-      <c r="L427" t="n">
-        <v>0</v>
-      </c>
-      <c r="M427" t="n">
-        <v>0</v>
-      </c>
-      <c r="N427" t="n">
-        <v>0</v>
-      </c>
-      <c r="O427" t="n">
-        <v>0</v>
-      </c>
-      <c r="P427" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q427" t="n">
-        <v>0</v>
-      </c>
-      <c r="R427" t="n">
-        <v>0</v>
-      </c>
-      <c r="S427" t="n">
-        <v>0</v>
-      </c>
-      <c r="T427" t="n">
-        <v>0</v>
-      </c>
-      <c r="U427" t="n">
-        <v>0</v>
-      </c>
+      <c r="A427" t="inlineStr"/>
+      <c r="B427" t="inlineStr"/>
+      <c r="C427" t="inlineStr"/>
+      <c r="D427" t="inlineStr"/>
+      <c r="E427" t="inlineStr"/>
+      <c r="F427" t="inlineStr"/>
+      <c r="G427" t="inlineStr"/>
+      <c r="H427" t="inlineStr"/>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="inlineStr"/>
+      <c r="M427" t="inlineStr"/>
+      <c r="N427" t="inlineStr"/>
+      <c r="O427" t="inlineStr"/>
+      <c r="P427" t="inlineStr"/>
+      <c r="Q427" t="inlineStr"/>
+      <c r="R427" t="inlineStr"/>
+      <c r="S427" t="inlineStr"/>
+      <c r="T427" t="inlineStr"/>
+      <c r="U427" t="inlineStr"/>
       <c r="V427" t="inlineStr"/>
       <c r="W427" t="inlineStr"/>
       <c r="X427" t="inlineStr"/>
@@ -58560,79 +57520,27 @@
       <c r="AR427" t="inlineStr"/>
     </row>
     <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>ID-00000427</t>
-        </is>
-      </c>
-      <c r="B428" t="inlineStr">
-        <is>
-          <t>DPS31525</t>
-        </is>
-      </c>
-      <c r="C428" t="inlineStr">
-        <is>
-          <t>CAJA DE HERRAMIENTAS TIPO FUELLE ROJA</t>
-        </is>
-      </c>
-      <c r="D428" t="inlineStr">
-        <is>
-          <t>BERMON DISTRIBUIDORA S.R.L</t>
-        </is>
-      </c>
-      <c r="E428" t="inlineStr">
-        <is>
-          <t>CONER</t>
-        </is>
-      </c>
-      <c r="F428" t="n">
-        <v>0</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0</v>
-      </c>
-      <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="n">
-        <v>0</v>
-      </c>
-      <c r="J428" t="n">
-        <v>0</v>
-      </c>
-      <c r="K428" t="n">
-        <v>0</v>
-      </c>
-      <c r="L428" t="n">
-        <v>0</v>
-      </c>
-      <c r="M428" t="n">
-        <v>0</v>
-      </c>
-      <c r="N428" t="n">
-        <v>0</v>
-      </c>
-      <c r="O428" t="n">
-        <v>0</v>
-      </c>
-      <c r="P428" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q428" t="n">
-        <v>0</v>
-      </c>
-      <c r="R428" t="n">
-        <v>0</v>
-      </c>
-      <c r="S428" t="n">
-        <v>0</v>
-      </c>
-      <c r="T428" t="n">
-        <v>0</v>
-      </c>
-      <c r="U428" t="n">
-        <v>0</v>
-      </c>
+      <c r="A428" t="inlineStr"/>
+      <c r="B428" t="inlineStr"/>
+      <c r="C428" t="inlineStr"/>
+      <c r="D428" t="inlineStr"/>
+      <c r="E428" t="inlineStr"/>
+      <c r="F428" t="inlineStr"/>
+      <c r="G428" t="inlineStr"/>
+      <c r="H428" t="inlineStr"/>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="inlineStr"/>
+      <c r="M428" t="inlineStr"/>
+      <c r="N428" t="inlineStr"/>
+      <c r="O428" t="inlineStr"/>
+      <c r="P428" t="inlineStr"/>
+      <c r="Q428" t="inlineStr"/>
+      <c r="R428" t="inlineStr"/>
+      <c r="S428" t="inlineStr"/>
+      <c r="T428" t="inlineStr"/>
+      <c r="U428" t="inlineStr"/>
       <c r="V428" t="inlineStr"/>
       <c r="W428" t="inlineStr"/>
       <c r="X428" t="inlineStr"/>
@@ -58658,79 +57566,27 @@
       <c r="AR428" t="inlineStr"/>
     </row>
     <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>ID-00000428</t>
-        </is>
-      </c>
-      <c r="B429" t="inlineStr">
-        <is>
-          <t>DPS31526</t>
-        </is>
-      </c>
-      <c r="C429" t="inlineStr">
-        <is>
-          <t>METRO DE MADERA DE 1.00 MTS.</t>
-        </is>
-      </c>
-      <c r="D429" t="inlineStr">
-        <is>
-          <t>BERMON DISTRIBUIDORA S.R.L</t>
-        </is>
-      </c>
-      <c r="E429" t="inlineStr">
-        <is>
-          <t>RACORT</t>
-        </is>
-      </c>
-      <c r="F429" t="n">
-        <v>1</v>
-      </c>
-      <c r="G429" t="n">
-        <v>2</v>
-      </c>
-      <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>3073.4</v>
-      </c>
-      <c r="J429" t="n">
-        <v>3073.4</v>
-      </c>
-      <c r="K429" t="n">
-        <v>1</v>
-      </c>
-      <c r="L429" t="n">
-        <v>3083.91</v>
-      </c>
-      <c r="M429" t="n">
-        <v>-3086.53</v>
-      </c>
-      <c r="N429" t="n">
-        <v>9265.84</v>
-      </c>
-      <c r="O429" t="n">
-        <v>3093.36</v>
-      </c>
-      <c r="P429" t="n">
-        <v>3106.11</v>
-      </c>
-      <c r="Q429" t="n">
-        <v>3106.11</v>
-      </c>
-      <c r="R429" t="n">
-        <v>3109.27</v>
-      </c>
-      <c r="S429" t="n">
-        <v>3103.21</v>
-      </c>
-      <c r="T429" t="n">
-        <v>3101.37</v>
-      </c>
-      <c r="U429" t="n">
-        <v>3102.92</v>
-      </c>
+      <c r="A429" t="inlineStr"/>
+      <c r="B429" t="inlineStr"/>
+      <c r="C429" t="inlineStr"/>
+      <c r="D429" t="inlineStr"/>
+      <c r="E429" t="inlineStr"/>
+      <c r="F429" t="inlineStr"/>
+      <c r="G429" t="inlineStr"/>
+      <c r="H429" t="inlineStr"/>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
+      <c r="L429" t="inlineStr"/>
+      <c r="M429" t="inlineStr"/>
+      <c r="N429" t="inlineStr"/>
+      <c r="O429" t="inlineStr"/>
+      <c r="P429" t="inlineStr"/>
+      <c r="Q429" t="inlineStr"/>
+      <c r="R429" t="inlineStr"/>
+      <c r="S429" t="inlineStr"/>
+      <c r="T429" t="inlineStr"/>
+      <c r="U429" t="inlineStr"/>
       <c r="V429" t="inlineStr"/>
       <c r="W429" t="inlineStr"/>
       <c r="X429" t="inlineStr"/>
@@ -58756,79 +57612,27 @@
       <c r="AR429" t="inlineStr"/>
     </row>
     <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>ID-00000429</t>
-        </is>
-      </c>
-      <c r="B430" t="inlineStr">
-        <is>
-          <t>DPS31527</t>
-        </is>
-      </c>
-      <c r="C430" t="inlineStr">
-        <is>
-          <t>CAJA DE HERRAMIENTAS CON FUELLE ROJA</t>
-        </is>
-      </c>
-      <c r="D430" t="inlineStr">
-        <is>
-          <t>BERMON DISTRIBUIDORA S.R.L</t>
-        </is>
-      </c>
-      <c r="E430" t="inlineStr">
-        <is>
-          <t>CONER</t>
-        </is>
-      </c>
-      <c r="F430" t="n">
-        <v>0</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0</v>
-      </c>
-      <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="n">
-        <v>0</v>
-      </c>
-      <c r="J430" t="n">
-        <v>0</v>
-      </c>
-      <c r="K430" t="n">
-        <v>0</v>
-      </c>
-      <c r="L430" t="n">
-        <v>0</v>
-      </c>
-      <c r="M430" t="n">
-        <v>0</v>
-      </c>
-      <c r="N430" t="n">
-        <v>0</v>
-      </c>
-      <c r="O430" t="n">
-        <v>0</v>
-      </c>
-      <c r="P430" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q430" t="n">
-        <v>0</v>
-      </c>
-      <c r="R430" t="n">
-        <v>0</v>
-      </c>
-      <c r="S430" t="n">
-        <v>0</v>
-      </c>
-      <c r="T430" t="n">
-        <v>0</v>
-      </c>
-      <c r="U430" t="n">
-        <v>0</v>
-      </c>
+      <c r="A430" t="inlineStr"/>
+      <c r="B430" t="inlineStr"/>
+      <c r="C430" t="inlineStr"/>
+      <c r="D430" t="inlineStr"/>
+      <c r="E430" t="inlineStr"/>
+      <c r="F430" t="inlineStr"/>
+      <c r="G430" t="inlineStr"/>
+      <c r="H430" t="inlineStr"/>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
+      <c r="L430" t="inlineStr"/>
+      <c r="M430" t="inlineStr"/>
+      <c r="N430" t="inlineStr"/>
+      <c r="O430" t="inlineStr"/>
+      <c r="P430" t="inlineStr"/>
+      <c r="Q430" t="inlineStr"/>
+      <c r="R430" t="inlineStr"/>
+      <c r="S430" t="inlineStr"/>
+      <c r="T430" t="inlineStr"/>
+      <c r="U430" t="inlineStr"/>
       <c r="V430" t="inlineStr"/>
       <c r="W430" t="inlineStr"/>
       <c r="X430" t="inlineStr"/>
@@ -58854,79 +57658,27 @@
       <c r="AR430" t="inlineStr"/>
     </row>
     <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>ID-00000430</t>
-        </is>
-      </c>
-      <c r="B431" t="inlineStr">
-        <is>
-          <t>DPS31528</t>
-        </is>
-      </c>
-      <c r="C431" t="inlineStr">
-        <is>
-          <t>METRO DE MADERA DE 2.00 MTS</t>
-        </is>
-      </c>
-      <c r="D431" t="inlineStr">
-        <is>
-          <t>BERMON DISTRIBUIDORA S.R.L</t>
-        </is>
-      </c>
-      <c r="E431" t="inlineStr">
-        <is>
-          <t>RACORT</t>
-        </is>
-      </c>
-      <c r="F431" t="n">
-        <v>5</v>
-      </c>
-      <c r="G431" t="n">
-        <v>10</v>
-      </c>
-      <c r="H431" t="n">
-        <v>5</v>
-      </c>
-      <c r="I431" t="n">
-        <v>35828.46</v>
-      </c>
-      <c r="J431" t="n">
-        <v>35828.46</v>
-      </c>
-      <c r="K431" t="n">
-        <v>5</v>
-      </c>
-      <c r="L431" t="n">
-        <v>35950.97</v>
-      </c>
-      <c r="M431" t="n">
-        <v>35981.58</v>
-      </c>
-      <c r="N431" t="n">
-        <v>108017.49</v>
-      </c>
-      <c r="O431" t="n">
-        <v>36061.17</v>
-      </c>
-      <c r="P431" t="n">
-        <v>36209.83</v>
-      </c>
-      <c r="Q431" t="n">
-        <v>36209.83</v>
-      </c>
-      <c r="R431" t="n">
-        <v>36246.63</v>
-      </c>
-      <c r="S431" t="n">
-        <v>36175.95</v>
-      </c>
-      <c r="T431" t="n">
-        <v>36154.59</v>
-      </c>
-      <c r="U431" t="n">
-        <v>36172.66</v>
-      </c>
+      <c r="A431" t="inlineStr"/>
+      <c r="B431" t="inlineStr"/>
+      <c r="C431" t="inlineStr"/>
+      <c r="D431" t="inlineStr"/>
+      <c r="E431" t="inlineStr"/>
+      <c r="F431" t="inlineStr"/>
+      <c r="G431" t="inlineStr"/>
+      <c r="H431" t="inlineStr"/>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
+      <c r="L431" t="inlineStr"/>
+      <c r="M431" t="inlineStr"/>
+      <c r="N431" t="inlineStr"/>
+      <c r="O431" t="inlineStr"/>
+      <c r="P431" t="inlineStr"/>
+      <c r="Q431" t="inlineStr"/>
+      <c r="R431" t="inlineStr"/>
+      <c r="S431" t="inlineStr"/>
+      <c r="T431" t="inlineStr"/>
+      <c r="U431" t="inlineStr"/>
       <c r="V431" t="inlineStr"/>
       <c r="W431" t="inlineStr"/>
       <c r="X431" t="inlineStr"/>
@@ -58952,79 +57704,27 @@
       <c r="AR431" t="inlineStr"/>
     </row>
     <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>ID-00000431</t>
-        </is>
-      </c>
-      <c r="B432" t="inlineStr">
-        <is>
-          <t>DPS31529</t>
-        </is>
-      </c>
-      <c r="C432" t="inlineStr">
-        <is>
-          <t>ESCUADRA METALICA EL ROBLE 70</t>
-        </is>
-      </c>
-      <c r="D432" t="inlineStr">
-        <is>
-          <t>BERMON DISTRIBUIDORA S.R.L</t>
-        </is>
-      </c>
-      <c r="E432" t="inlineStr">
-        <is>
-          <t>EL ROBLE</t>
-        </is>
-      </c>
-      <c r="F432" t="n">
-        <v>1</v>
-      </c>
-      <c r="G432" t="n">
-        <v>2</v>
-      </c>
-      <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>395.57</v>
-      </c>
-      <c r="J432" t="n">
-        <v>395.57</v>
-      </c>
-      <c r="K432" t="n">
-        <v>1</v>
-      </c>
-      <c r="L432" t="n">
-        <v>396.92</v>
-      </c>
-      <c r="M432" t="n">
-        <v>397.26</v>
-      </c>
-      <c r="N432" t="n">
-        <v>1192.57</v>
-      </c>
-      <c r="O432" t="n">
-        <v>398.13</v>
-      </c>
-      <c r="P432" t="n">
-        <v>399.78</v>
-      </c>
-      <c r="Q432" t="n">
-        <v>399.78</v>
-      </c>
-      <c r="R432" t="n">
-        <v>400.18</v>
-      </c>
-      <c r="S432" t="n">
-        <v>399.4</v>
-      </c>
-      <c r="T432" t="n">
-        <v>399.17</v>
-      </c>
-      <c r="U432" t="n">
-        <v>399.37</v>
-      </c>
+      <c r="A432" t="inlineStr"/>
+      <c r="B432" t="inlineStr"/>
+      <c r="C432" t="inlineStr"/>
+      <c r="D432" t="inlineStr"/>
+      <c r="E432" t="inlineStr"/>
+      <c r="F432" t="inlineStr"/>
+      <c r="G432" t="inlineStr"/>
+      <c r="H432" t="inlineStr"/>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
+      <c r="L432" t="inlineStr"/>
+      <c r="M432" t="inlineStr"/>
+      <c r="N432" t="inlineStr"/>
+      <c r="O432" t="inlineStr"/>
+      <c r="P432" t="inlineStr"/>
+      <c r="Q432" t="inlineStr"/>
+      <c r="R432" t="inlineStr"/>
+      <c r="S432" t="inlineStr"/>
+      <c r="T432" t="inlineStr"/>
+      <c r="U432" t="inlineStr"/>
       <c r="V432" t="inlineStr"/>
       <c r="W432" t="inlineStr"/>
       <c r="X432" t="inlineStr"/>
@@ -59050,79 +57750,27 @@
       <c r="AR432" t="inlineStr"/>
     </row>
     <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>ID-00000432</t>
-        </is>
-      </c>
-      <c r="B433" t="inlineStr">
-        <is>
-          <t>DPS31530</t>
-        </is>
-      </c>
-      <c r="C433" t="inlineStr">
-        <is>
-          <t>ESCUADRA METALICA CONNER 50CM</t>
-        </is>
-      </c>
-      <c r="D433" t="inlineStr">
-        <is>
-          <t>BERMON DISTRIBUIDORA S.R.L</t>
-        </is>
-      </c>
-      <c r="E433" t="inlineStr">
-        <is>
-          <t>CONER</t>
-        </is>
-      </c>
-      <c r="F433" t="n">
-        <v>0</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0</v>
-      </c>
-      <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="n">
-        <v>0</v>
-      </c>
-      <c r="J433" t="n">
-        <v>0</v>
-      </c>
-      <c r="K433" t="n">
-        <v>0</v>
-      </c>
-      <c r="L433" t="n">
-        <v>0</v>
-      </c>
-      <c r="M433" t="n">
-        <v>0</v>
-      </c>
-      <c r="N433" t="n">
-        <v>0</v>
-      </c>
-      <c r="O433" t="n">
-        <v>0</v>
-      </c>
-      <c r="P433" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q433" t="n">
-        <v>0</v>
-      </c>
-      <c r="R433" t="n">
-        <v>0</v>
-      </c>
-      <c r="S433" t="n">
-        <v>0</v>
-      </c>
-      <c r="T433" t="n">
-        <v>0</v>
-      </c>
-      <c r="U433" t="n">
-        <v>0</v>
-      </c>
+      <c r="A433" t="inlineStr"/>
+      <c r="B433" t="inlineStr"/>
+      <c r="C433" t="inlineStr"/>
+      <c r="D433" t="inlineStr"/>
+      <c r="E433" t="inlineStr"/>
+      <c r="F433" t="inlineStr"/>
+      <c r="G433" t="inlineStr"/>
+      <c r="H433" t="inlineStr"/>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
+      <c r="L433" t="inlineStr"/>
+      <c r="M433" t="inlineStr"/>
+      <c r="N433" t="inlineStr"/>
+      <c r="O433" t="inlineStr"/>
+      <c r="P433" t="inlineStr"/>
+      <c r="Q433" t="inlineStr"/>
+      <c r="R433" t="inlineStr"/>
+      <c r="S433" t="inlineStr"/>
+      <c r="T433" t="inlineStr"/>
+      <c r="U433" t="inlineStr"/>
       <c r="V433" t="inlineStr"/>
       <c r="W433" t="inlineStr"/>
       <c r="X433" t="inlineStr"/>
@@ -59148,79 +57796,27 @@
       <c r="AR433" t="inlineStr"/>
     </row>
     <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>ID-00000433</t>
-        </is>
-      </c>
-      <c r="B434" t="inlineStr">
-        <is>
-          <t>DPS31531</t>
-        </is>
-      </c>
-      <c r="C434" t="inlineStr">
-        <is>
-          <t>TERRAJA MACHETE Nº 9</t>
-        </is>
-      </c>
-      <c r="D434" t="inlineStr">
-        <is>
-          <t>DISMAR</t>
-        </is>
-      </c>
-      <c r="E434" t="inlineStr">
-        <is>
-          <t>MACHETE</t>
-        </is>
-      </c>
-      <c r="F434" t="n">
-        <v>1</v>
-      </c>
-      <c r="G434" t="n">
-        <v>2</v>
-      </c>
-      <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>2974.78</v>
-      </c>
-      <c r="J434" t="n">
-        <v>2974.78</v>
-      </c>
-      <c r="K434" t="n">
-        <v>1</v>
-      </c>
-      <c r="L434" t="n">
-        <v>2984.95</v>
-      </c>
-      <c r="M434" t="n">
-        <v>2987.49</v>
-      </c>
-      <c r="N434" t="n">
-        <v>2989.5</v>
-      </c>
-      <c r="O434" t="n">
-        <v>2994.1</v>
-      </c>
-      <c r="P434" t="n">
-        <v>3006.44</v>
-      </c>
-      <c r="Q434" t="n">
-        <v>3006.44</v>
-      </c>
-      <c r="R434" t="n">
-        <v>3009.5</v>
-      </c>
-      <c r="S434" t="n">
-        <v>3003.63</v>
-      </c>
-      <c r="T434" t="n">
-        <v>3001.85</v>
-      </c>
-      <c r="U434" t="n">
-        <v>3003.35</v>
-      </c>
+      <c r="A434" t="inlineStr"/>
+      <c r="B434" t="inlineStr"/>
+      <c r="C434" t="inlineStr"/>
+      <c r="D434" t="inlineStr"/>
+      <c r="E434" t="inlineStr"/>
+      <c r="F434" t="inlineStr"/>
+      <c r="G434" t="inlineStr"/>
+      <c r="H434" t="inlineStr"/>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
+      <c r="L434" t="inlineStr"/>
+      <c r="M434" t="inlineStr"/>
+      <c r="N434" t="inlineStr"/>
+      <c r="O434" t="inlineStr"/>
+      <c r="P434" t="inlineStr"/>
+      <c r="Q434" t="inlineStr"/>
+      <c r="R434" t="inlineStr"/>
+      <c r="S434" t="inlineStr"/>
+      <c r="T434" t="inlineStr"/>
+      <c r="U434" t="inlineStr"/>
       <c r="V434" t="inlineStr"/>
       <c r="W434" t="inlineStr"/>
       <c r="X434" t="inlineStr"/>
@@ -59246,79 +57842,27 @@
       <c r="AR434" t="inlineStr"/>
     </row>
     <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>ID-00000434</t>
-        </is>
-      </c>
-      <c r="B435" t="inlineStr">
-        <is>
-          <t>DPS31532</t>
-        </is>
-      </c>
-      <c r="C435" t="inlineStr">
-        <is>
-          <t>ACEITE STIHL 2T X 500 CC</t>
-        </is>
-      </c>
-      <c r="D435" t="inlineStr">
-        <is>
-          <t>STIHL MOTOIMPLEMENTOS S.A</t>
-        </is>
-      </c>
-      <c r="E435" t="inlineStr">
-        <is>
-          <t>STIHL</t>
-        </is>
-      </c>
-      <c r="F435" t="n">
-        <v>67</v>
-      </c>
-      <c r="G435" t="n">
-        <v>129</v>
-      </c>
-      <c r="H435" t="n">
-        <v>67</v>
-      </c>
-      <c r="I435" t="n">
-        <v>50880571.37</v>
-      </c>
-      <c r="J435" t="n">
-        <v>50880571.37</v>
-      </c>
-      <c r="K435" t="n">
-        <v>67</v>
-      </c>
-      <c r="L435" t="n">
-        <v>51054546.96</v>
-      </c>
-      <c r="M435" t="n">
-        <v>48047389.25</v>
-      </c>
-      <c r="N435" t="n">
-        <v>145765646.08</v>
-      </c>
-      <c r="O435" t="n">
-        <v>51211038.73</v>
-      </c>
-      <c r="P435" t="n">
-        <v>48352171.34</v>
-      </c>
-      <c r="Q435" t="n">
-        <v>48352171.34</v>
-      </c>
-      <c r="R435" t="n">
-        <v>51474409.94</v>
-      </c>
-      <c r="S435" t="n">
-        <v>51374041.48</v>
-      </c>
-      <c r="T435" t="n">
-        <v>51343712.55</v>
-      </c>
-      <c r="U435" t="n">
-        <v>51369361.63</v>
-      </c>
+      <c r="A435" t="inlineStr"/>
+      <c r="B435" t="inlineStr"/>
+      <c r="C435" t="inlineStr"/>
+      <c r="D435" t="inlineStr"/>
+      <c r="E435" t="inlineStr"/>
+      <c r="F435" t="inlineStr"/>
+      <c r="G435" t="inlineStr"/>
+      <c r="H435" t="inlineStr"/>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
+      <c r="L435" t="inlineStr"/>
+      <c r="M435" t="inlineStr"/>
+      <c r="N435" t="inlineStr"/>
+      <c r="O435" t="inlineStr"/>
+      <c r="P435" t="inlineStr"/>
+      <c r="Q435" t="inlineStr"/>
+      <c r="R435" t="inlineStr"/>
+      <c r="S435" t="inlineStr"/>
+      <c r="T435" t="inlineStr"/>
+      <c r="U435" t="inlineStr"/>
       <c r="V435" t="inlineStr"/>
       <c r="W435" t="inlineStr"/>
       <c r="X435" t="inlineStr"/>
@@ -59344,79 +57888,27 @@
       <c r="AR435" t="inlineStr"/>
     </row>
     <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>ID-00000435</t>
-        </is>
-      </c>
-      <c r="B436" t="inlineStr">
-        <is>
-          <t>DPS31533</t>
-        </is>
-      </c>
-      <c r="C436" t="inlineStr">
-        <is>
-          <t>TERRAJA MACHETE Nº 10</t>
-        </is>
-      </c>
-      <c r="D436" t="inlineStr">
-        <is>
-          <t>FERNANDEZ Y FERNANDEZ</t>
-        </is>
-      </c>
-      <c r="E436" t="inlineStr">
-        <is>
-          <t>MACHETE</t>
-        </is>
-      </c>
-      <c r="F436" t="n">
-        <v>0</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0</v>
-      </c>
-      <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="n">
-        <v>0</v>
-      </c>
-      <c r="J436" t="n">
-        <v>0</v>
-      </c>
-      <c r="K436" t="n">
-        <v>0</v>
-      </c>
-      <c r="L436" t="n">
-        <v>0</v>
-      </c>
-      <c r="M436" t="n">
-        <v>0</v>
-      </c>
-      <c r="N436" t="n">
-        <v>0</v>
-      </c>
-      <c r="O436" t="n">
-        <v>0</v>
-      </c>
-      <c r="P436" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q436" t="n">
-        <v>0</v>
-      </c>
-      <c r="R436" t="n">
-        <v>0</v>
-      </c>
-      <c r="S436" t="n">
-        <v>0</v>
-      </c>
-      <c r="T436" t="n">
-        <v>0</v>
-      </c>
-      <c r="U436" t="n">
-        <v>0</v>
-      </c>
+      <c r="A436" t="inlineStr"/>
+      <c r="B436" t="inlineStr"/>
+      <c r="C436" t="inlineStr"/>
+      <c r="D436" t="inlineStr"/>
+      <c r="E436" t="inlineStr"/>
+      <c r="F436" t="inlineStr"/>
+      <c r="G436" t="inlineStr"/>
+      <c r="H436" t="inlineStr"/>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
+      <c r="L436" t="inlineStr"/>
+      <c r="M436" t="inlineStr"/>
+      <c r="N436" t="inlineStr"/>
+      <c r="O436" t="inlineStr"/>
+      <c r="P436" t="inlineStr"/>
+      <c r="Q436" t="inlineStr"/>
+      <c r="R436" t="inlineStr"/>
+      <c r="S436" t="inlineStr"/>
+      <c r="T436" t="inlineStr"/>
+      <c r="U436" t="inlineStr"/>
       <c r="V436" t="inlineStr"/>
       <c r="W436" t="inlineStr"/>
       <c r="X436" t="inlineStr"/>
@@ -59442,79 +57934,27 @@
       <c r="AR436" t="inlineStr"/>
     </row>
     <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>ID-00000436</t>
-        </is>
-      </c>
-      <c r="B437" t="inlineStr">
-        <is>
-          <t>DPS31534</t>
-        </is>
-      </c>
-      <c r="C437" t="inlineStr">
-        <is>
-          <t>ACEITE STIHL 2T X 1LT</t>
-        </is>
-      </c>
-      <c r="D437" t="inlineStr">
-        <is>
-          <t>STIHL MOTOIMPLEMENTOS S.A</t>
-        </is>
-      </c>
-      <c r="E437" t="inlineStr">
-        <is>
-          <t>STIHL</t>
-        </is>
-      </c>
-      <c r="F437" t="n">
-        <v>107</v>
-      </c>
-      <c r="G437" t="n">
-        <v>214</v>
-      </c>
-      <c r="H437" t="n">
-        <v>107</v>
-      </c>
-      <c r="I437" t="n">
-        <v>292047005.99</v>
-      </c>
-      <c r="J437" t="n">
-        <v>292047005.99</v>
-      </c>
-      <c r="K437" t="n">
-        <v>107</v>
-      </c>
-      <c r="L437" t="n">
-        <v>293045600.29</v>
-      </c>
-      <c r="M437" t="n">
-        <v>293295112.75</v>
-      </c>
-      <c r="N437" t="n">
-        <v>880478287.3</v>
-      </c>
-      <c r="O437" t="n">
-        <v>271966730.51</v>
-      </c>
-      <c r="P437" t="n">
-        <v>295155590.45</v>
-      </c>
-      <c r="Q437" t="n">
-        <v>289638663.52</v>
-      </c>
-      <c r="R437" t="n">
-        <v>295455552.12</v>
-      </c>
-      <c r="S437" t="n">
-        <v>278344155.56</v>
-      </c>
-      <c r="T437" t="n">
-        <v>294705368.29</v>
-      </c>
-      <c r="U437" t="n">
-        <v>294852590.23</v>
-      </c>
+      <c r="A437" t="inlineStr"/>
+      <c r="B437" t="inlineStr"/>
+      <c r="C437" t="inlineStr"/>
+      <c r="D437" t="inlineStr"/>
+      <c r="E437" t="inlineStr"/>
+      <c r="F437" t="inlineStr"/>
+      <c r="G437" t="inlineStr"/>
+      <c r="H437" t="inlineStr"/>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
+      <c r="L437" t="inlineStr"/>
+      <c r="M437" t="inlineStr"/>
+      <c r="N437" t="inlineStr"/>
+      <c r="O437" t="inlineStr"/>
+      <c r="P437" t="inlineStr"/>
+      <c r="Q437" t="inlineStr"/>
+      <c r="R437" t="inlineStr"/>
+      <c r="S437" t="inlineStr"/>
+      <c r="T437" t="inlineStr"/>
+      <c r="U437" t="inlineStr"/>
       <c r="V437" t="inlineStr"/>
       <c r="W437" t="inlineStr"/>
       <c r="X437" t="inlineStr"/>
@@ -59540,79 +57980,27 @@
       <c r="AR437" t="inlineStr"/>
     </row>
     <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>ID-00000437</t>
-        </is>
-      </c>
-      <c r="B438" t="inlineStr">
-        <is>
-          <t>DPS31535</t>
-        </is>
-      </c>
-      <c r="C438" t="inlineStr">
-        <is>
-          <t>ANULAR</t>
-        </is>
-      </c>
-      <c r="D438" t="inlineStr">
-        <is>
-          <t>BULONFER S.A</t>
-        </is>
-      </c>
-      <c r="E438" t="inlineStr">
-        <is>
-          <t>HUALA</t>
-        </is>
-      </c>
-      <c r="F438" t="n">
-        <v>0</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0</v>
-      </c>
-      <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="n">
-        <v>0</v>
-      </c>
-      <c r="J438" t="n">
-        <v>0</v>
-      </c>
-      <c r="K438" t="n">
-        <v>0</v>
-      </c>
-      <c r="L438" t="n">
-        <v>0</v>
-      </c>
-      <c r="M438" t="n">
-        <v>0</v>
-      </c>
-      <c r="N438" t="n">
-        <v>0</v>
-      </c>
-      <c r="O438" t="n">
-        <v>0</v>
-      </c>
-      <c r="P438" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q438" t="n">
-        <v>0</v>
-      </c>
-      <c r="R438" t="n">
-        <v>0</v>
-      </c>
-      <c r="S438" t="n">
-        <v>0</v>
-      </c>
-      <c r="T438" t="n">
-        <v>0</v>
-      </c>
-      <c r="U438" t="n">
-        <v>0</v>
-      </c>
+      <c r="A438" t="inlineStr"/>
+      <c r="B438" t="inlineStr"/>
+      <c r="C438" t="inlineStr"/>
+      <c r="D438" t="inlineStr"/>
+      <c r="E438" t="inlineStr"/>
+      <c r="F438" t="inlineStr"/>
+      <c r="G438" t="inlineStr"/>
+      <c r="H438" t="inlineStr"/>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
+      <c r="L438" t="inlineStr"/>
+      <c r="M438" t="inlineStr"/>
+      <c r="N438" t="inlineStr"/>
+      <c r="O438" t="inlineStr"/>
+      <c r="P438" t="inlineStr"/>
+      <c r="Q438" t="inlineStr"/>
+      <c r="R438" t="inlineStr"/>
+      <c r="S438" t="inlineStr"/>
+      <c r="T438" t="inlineStr"/>
+      <c r="U438" t="inlineStr"/>
       <c r="V438" t="inlineStr"/>
       <c r="W438" t="inlineStr"/>
       <c r="X438" t="inlineStr"/>
@@ -59638,79 +58026,27 @@
       <c r="AR438" t="inlineStr"/>
     </row>
     <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>ID-00000438</t>
-        </is>
-      </c>
-      <c r="B439" t="inlineStr">
-        <is>
-          <t>DPS31536</t>
-        </is>
-      </c>
-      <c r="C439" t="inlineStr">
-        <is>
-          <t>PRENSA F BARBERO 120/500</t>
-        </is>
-      </c>
-      <c r="D439" t="inlineStr">
-        <is>
-          <t>BULONFER S.A</t>
-        </is>
-      </c>
-      <c r="E439" t="inlineStr">
-        <is>
-          <t>BARBERO</t>
-        </is>
-      </c>
-      <c r="F439" t="n">
-        <v>0</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0</v>
-      </c>
-      <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="n">
-        <v>0</v>
-      </c>
-      <c r="J439" t="n">
-        <v>0</v>
-      </c>
-      <c r="K439" t="n">
-        <v>0</v>
-      </c>
-      <c r="L439" t="n">
-        <v>0</v>
-      </c>
-      <c r="M439" t="n">
-        <v>0</v>
-      </c>
-      <c r="N439" t="n">
-        <v>0</v>
-      </c>
-      <c r="O439" t="n">
-        <v>0</v>
-      </c>
-      <c r="P439" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q439" t="n">
-        <v>0</v>
-      </c>
-      <c r="R439" t="n">
-        <v>0</v>
-      </c>
-      <c r="S439" t="n">
-        <v>0</v>
-      </c>
-      <c r="T439" t="n">
-        <v>0</v>
-      </c>
-      <c r="U439" t="n">
-        <v>0</v>
-      </c>
+      <c r="A439" t="inlineStr"/>
+      <c r="B439" t="inlineStr"/>
+      <c r="C439" t="inlineStr"/>
+      <c r="D439" t="inlineStr"/>
+      <c r="E439" t="inlineStr"/>
+      <c r="F439" t="inlineStr"/>
+      <c r="G439" t="inlineStr"/>
+      <c r="H439" t="inlineStr"/>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
+      <c r="L439" t="inlineStr"/>
+      <c r="M439" t="inlineStr"/>
+      <c r="N439" t="inlineStr"/>
+      <c r="O439" t="inlineStr"/>
+      <c r="P439" t="inlineStr"/>
+      <c r="Q439" t="inlineStr"/>
+      <c r="R439" t="inlineStr"/>
+      <c r="S439" t="inlineStr"/>
+      <c r="T439" t="inlineStr"/>
+      <c r="U439" t="inlineStr"/>
       <c r="V439" t="inlineStr"/>
       <c r="W439" t="inlineStr"/>
       <c r="X439" t="inlineStr"/>

--- a/base_datos/inventario/monetized_stock.xlsx
+++ b/base_datos/inventario/monetized_stock.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ407"/>
+  <dimension ref="A1:AR407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,6 +579,9 @@
       <c r="AQ1" s="2" t="n">
         <v>45597</v>
       </c>
+      <c r="AR1" s="2" t="n">
+        <v>45598</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -716,6 +719,7 @@
         <v>7843.47</v>
       </c>
       <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -850,9 +854,10 @@
         <v>14240.82</v>
       </c>
       <c r="AP3" t="n">
-        <v>14255.06</v>
+        <v>12829.55</v>
       </c>
       <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -990,6 +995,7 @@
         <v>6414.78</v>
       </c>
       <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1127,6 +1133,7 @@
         <v>-712.75</v>
       </c>
       <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1264,6 +1271,7 @@
         <v>1067.71</v>
       </c>
       <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1401,6 +1409,7 @@
         <v>15532.26</v>
       </c>
       <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1538,6 +1547,7 @@
         <v>1827.32</v>
       </c>
       <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1672,9 +1682,10 @@
         <v>14907.9</v>
       </c>
       <c r="AP9" t="n">
-        <v>12933.09</v>
+        <v>14922.8</v>
       </c>
       <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1812,6 +1823,7 @@
         <v>10943.38</v>
       </c>
       <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1949,6 +1961,7 @@
         <v>2961451.17</v>
       </c>
       <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2086,6 +2099,7 @@
         <v>5922902.33</v>
       </c>
       <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2220,9 +2234,10 @@
         <v>14792470.17</v>
       </c>
       <c r="AP13" t="n">
-        <v>14807255.83</v>
+        <v>10365079.08</v>
       </c>
       <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2360,6 +2375,7 @@
         <v>311972.64</v>
       </c>
       <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2497,6 +2513,7 @@
         <v>12139.02</v>
       </c>
       <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2634,6 +2651,7 @@
         <v>47818.67</v>
       </c>
       <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2771,6 +2789,7 @@
         <v>13041.46</v>
       </c>
       <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2908,6 +2927,7 @@
         <v>0</v>
       </c>
       <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3045,6 +3065,7 @@
         <v>23525.94</v>
       </c>
       <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3179,9 +3200,10 @@
         <v>25460.99</v>
       </c>
       <c r="AP20" t="n">
-        <v>25486.44</v>
+        <v>21565.45</v>
       </c>
       <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3319,6 +3341,7 @@
         <v>9802.48</v>
       </c>
       <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3456,6 +3479,7 @@
         <v>52108.08</v>
       </c>
       <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3590,9 +3614,10 @@
         <v>55034.44</v>
       </c>
       <c r="AP23" t="n">
-        <v>52190</v>
+        <v>55089.45</v>
       </c>
       <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3727,9 +3752,10 @@
         <v>1111.39</v>
       </c>
       <c r="AP24" t="n">
-        <v>635.72</v>
+        <v>1112.51</v>
       </c>
       <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3864,9 +3890,10 @@
         <v>35163.99</v>
       </c>
       <c r="AP25" t="n">
-        <v>33942.03</v>
+        <v>35199.14</v>
       </c>
       <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4001,9 +4028,10 @@
         <v>127335.8</v>
       </c>
       <c r="AP26" t="n">
-        <v>127463.08</v>
+        <v>103563.75</v>
       </c>
       <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4141,6 +4169,7 @@
         <v>0</v>
       </c>
       <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4278,6 +4307,7 @@
         <v>30278.72</v>
       </c>
       <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4412,9 +4442,10 @@
         <v>107914.11</v>
       </c>
       <c r="AP29" t="n">
-        <v>99920.33</v>
+        <v>108021.98</v>
       </c>
       <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4549,9 +4580,10 @@
         <v>250231.94</v>
       </c>
       <c r="AP30" t="n">
-        <v>250482.06</v>
+        <v>241536.27</v>
       </c>
       <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4686,9 +4718,10 @@
         <v>178527.75</v>
       </c>
       <c r="AP31" t="n">
-        <v>178706.2</v>
+        <v>167051.45</v>
       </c>
       <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4823,9 +4856,10 @@
         <v>715481.13</v>
       </c>
       <c r="AP32" t="n">
-        <v>697349.01</v>
+        <v>716196.28</v>
       </c>
       <c r="AQ32" t="inlineStr"/>
+      <c r="AR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4960,9 +4994,10 @@
         <v>19389.82</v>
       </c>
       <c r="AP33" t="n">
-        <v>19409.2</v>
+        <v>18196.13</v>
       </c>
       <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5100,6 +5135,7 @@
         <v>16419.92</v>
       </c>
       <c r="AQ34" t="inlineStr"/>
+      <c r="AR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5237,6 +5273,7 @@
         <v>9679.92</v>
       </c>
       <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5374,6 +5411,7 @@
         <v>19559.35</v>
       </c>
       <c r="AQ36" t="inlineStr"/>
+      <c r="AR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5511,6 +5549,7 @@
         <v>168291.68</v>
       </c>
       <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5648,6 +5687,7 @@
         <v>0</v>
       </c>
       <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5785,6 +5825,7 @@
         <v>0</v>
       </c>
       <c r="AQ39" t="inlineStr"/>
+      <c r="AR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5922,6 +5963,7 @@
         <v>7643.87</v>
       </c>
       <c r="AQ40" t="inlineStr"/>
+      <c r="AR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6056,9 +6098,10 @@
         <v>14375.56</v>
       </c>
       <c r="AP41" t="n">
-        <v>14389.93</v>
+        <v>10278.52</v>
       </c>
       <c r="AQ41" t="inlineStr"/>
+      <c r="AR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6196,6 +6239,7 @@
         <v>6041.24</v>
       </c>
       <c r="AQ42" t="inlineStr"/>
+      <c r="AR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6333,6 +6377,7 @@
         <v>12273.87</v>
       </c>
       <c r="AQ43" t="inlineStr"/>
+      <c r="AR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6470,6 +6515,7 @@
         <v>28700.73</v>
       </c>
       <c r="AQ44" t="inlineStr"/>
+      <c r="AR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6607,6 +6653,7 @@
         <v>175303.83</v>
       </c>
       <c r="AQ45" t="inlineStr"/>
+      <c r="AR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6741,9 +6788,10 @@
         <v>32369.2</v>
       </c>
       <c r="AP46" t="n">
-        <v>30781.48</v>
+        <v>27541.32</v>
       </c>
       <c r="AQ46" t="inlineStr"/>
+      <c r="AR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6881,6 +6929,7 @@
         <v>1247.86</v>
       </c>
       <c r="AQ47" t="inlineStr"/>
+      <c r="AR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7018,6 +7067,7 @@
         <v>66273.33</v>
       </c>
       <c r="AQ48" t="inlineStr"/>
+      <c r="AR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7155,6 +7205,7 @@
         <v>24596.36</v>
       </c>
       <c r="AQ49" t="inlineStr"/>
+      <c r="AR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7289,9 +7340,10 @@
         <v>10576.03</v>
       </c>
       <c r="AP50" t="n">
-        <v>7057.73</v>
+        <v>9410.309999999999</v>
       </c>
       <c r="AQ50" t="inlineStr"/>
+      <c r="AR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7429,6 +7481,7 @@
         <v>73016.57000000001</v>
       </c>
       <c r="AQ51" t="inlineStr"/>
+      <c r="AR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7566,6 +7619,7 @@
         <v>140909.54</v>
       </c>
       <c r="AQ52" t="inlineStr"/>
+      <c r="AR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7700,9 +7754,10 @@
         <v>54423.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>54477.9</v>
+        <v>50846.04</v>
       </c>
       <c r="AQ53" t="inlineStr"/>
+      <c r="AR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7840,6 +7895,7 @@
         <v>30870.81</v>
       </c>
       <c r="AQ54" t="inlineStr"/>
+      <c r="AR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7977,6 +8033,7 @@
         <v>45398.25</v>
       </c>
       <c r="AQ55" t="inlineStr"/>
+      <c r="AR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8114,6 +8171,7 @@
         <v>53109.58</v>
       </c>
       <c r="AQ56" t="inlineStr"/>
+      <c r="AR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8251,6 +8309,7 @@
         <v>115072.41</v>
       </c>
       <c r="AQ57" t="inlineStr"/>
+      <c r="AR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8385,9 +8444,10 @@
         <v>48500.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>45774.75</v>
+        <v>47161.87</v>
       </c>
       <c r="AQ58" t="inlineStr"/>
+      <c r="AR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8525,6 +8585,7 @@
         <v>36064.96</v>
       </c>
       <c r="AQ59" t="inlineStr"/>
+      <c r="AR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8659,9 +8720,10 @@
         <v>29640.2</v>
       </c>
       <c r="AP60" t="n">
-        <v>26373.18</v>
+        <v>29669.82</v>
       </c>
       <c r="AQ60" t="inlineStr"/>
+      <c r="AR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8796,9 +8858,10 @@
         <v>25137.64</v>
       </c>
       <c r="AP61" t="n">
-        <v>23065.87</v>
+        <v>25162.77</v>
       </c>
       <c r="AQ61" t="inlineStr"/>
+      <c r="AR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8933,9 +8996,10 @@
         <v>43440.69</v>
       </c>
       <c r="AP62" t="n">
-        <v>42276.22</v>
+        <v>43484.11</v>
       </c>
       <c r="AQ62" t="inlineStr"/>
+      <c r="AR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9070,9 +9134,10 @@
         <v>16098.97</v>
       </c>
       <c r="AP63" t="n">
-        <v>15414.41</v>
+        <v>16115.07</v>
       </c>
       <c r="AQ63" t="inlineStr"/>
+      <c r="AR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9210,6 +9275,7 @@
         <v>82569.95</v>
       </c>
       <c r="AQ64" t="inlineStr"/>
+      <c r="AR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9347,6 +9413,7 @@
         <v>32824.61</v>
       </c>
       <c r="AQ65" t="inlineStr"/>
+      <c r="AR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9481,9 +9548,10 @@
         <v>18435.12</v>
       </c>
       <c r="AP66" t="n">
-        <v>18453.55</v>
+        <v>16146.86</v>
       </c>
       <c r="AQ66" t="inlineStr"/>
+      <c r="AR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9621,6 +9689,7 @@
         <v>23077.89</v>
       </c>
       <c r="AQ67" t="inlineStr"/>
+      <c r="AR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9755,9 +9824,10 @@
         <v>75452.35000000001</v>
       </c>
       <c r="AP68" t="n">
-        <v>70492.59</v>
+        <v>73010.17999999999</v>
       </c>
       <c r="AQ68" t="inlineStr"/>
+      <c r="AR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9895,6 +9965,7 @@
         <v>42713.97</v>
       </c>
       <c r="AQ69" t="inlineStr"/>
+      <c r="AR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -10029,9 +10100,10 @@
         <v>14453.19</v>
       </c>
       <c r="AP70" t="n">
-        <v>14467.63</v>
+        <v>13089.76</v>
       </c>
       <c r="AQ70" t="inlineStr"/>
+      <c r="AR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -10166,9 +10238,10 @@
         <v>34077.94</v>
       </c>
       <c r="AP71" t="n">
-        <v>30321.78</v>
+        <v>34112.01</v>
       </c>
       <c r="AQ71" t="inlineStr"/>
+      <c r="AR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -10306,6 +10379,7 @@
         <v>29133.35</v>
       </c>
       <c r="AQ72" t="inlineStr"/>
+      <c r="AR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -10443,6 +10517,7 @@
         <v>30761.59</v>
       </c>
       <c r="AQ73" t="inlineStr"/>
+      <c r="AR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10577,9 +10652,10 @@
         <v>38768.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>35573.15</v>
+        <v>38807.08</v>
       </c>
       <c r="AQ74" t="inlineStr"/>
+      <c r="AR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10717,6 +10793,7 @@
         <v>9085.84</v>
       </c>
       <c r="AQ75" t="inlineStr"/>
+      <c r="AR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10854,6 +10931,7 @@
         <v>0</v>
       </c>
       <c r="AQ76" t="inlineStr"/>
+      <c r="AR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -10991,6 +11069,7 @@
         <v>62215.76</v>
       </c>
       <c r="AQ77" t="inlineStr"/>
+      <c r="AR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -11125,9 +11204,10 @@
         <v>22750.28</v>
       </c>
       <c r="AP78" t="n">
-        <v>19802.63</v>
+        <v>22773.02</v>
       </c>
       <c r="AQ78" t="inlineStr"/>
+      <c r="AR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -11265,6 +11345,7 @@
         <v>990.13</v>
       </c>
       <c r="AQ79" t="inlineStr"/>
+      <c r="AR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -11402,6 +11483,7 @@
         <v>59925.69</v>
       </c>
       <c r="AQ80" t="inlineStr"/>
+      <c r="AR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -11539,6 +11621,7 @@
         <v>47214.18</v>
       </c>
       <c r="AQ81" t="inlineStr"/>
+      <c r="AR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -11676,6 +11759,7 @@
         <v>38111.18</v>
       </c>
       <c r="AQ82" t="inlineStr"/>
+      <c r="AR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -11810,9 +11894,10 @@
         <v>71846.13</v>
       </c>
       <c r="AP83" t="n">
-        <v>71917.95</v>
+        <v>63287.79</v>
       </c>
       <c r="AQ83" t="inlineStr"/>
+      <c r="AR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -11950,6 +12035,7 @@
         <v>46819.74</v>
       </c>
       <c r="AQ84" t="inlineStr"/>
+      <c r="AR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -12087,6 +12173,7 @@
         <v>66310.91</v>
       </c>
       <c r="AQ85" t="inlineStr"/>
+      <c r="AR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -12224,6 +12311,7 @@
         <v>0</v>
       </c>
       <c r="AQ86" t="inlineStr"/>
+      <c r="AR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -12358,9 +12446,10 @@
         <v>978037.5600000001</v>
       </c>
       <c r="AP87" t="n">
-        <v>851317.52</v>
+        <v>979015.14</v>
       </c>
       <c r="AQ87" t="inlineStr"/>
+      <c r="AR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -12495,9 +12584,10 @@
         <v>35942.05</v>
       </c>
       <c r="AP88" t="n">
-        <v>28268.41</v>
+        <v>35977.97</v>
       </c>
       <c r="AQ88" t="inlineStr"/>
+      <c r="AR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -12635,6 +12725,7 @@
         <v>38547.83</v>
       </c>
       <c r="AQ89" t="inlineStr"/>
+      <c r="AR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -12769,9 +12860,10 @@
         <v>75041.19</v>
       </c>
       <c r="AP90" t="n">
-        <v>75116.19</v>
+        <v>65726.67</v>
       </c>
       <c r="AQ90" t="inlineStr"/>
+      <c r="AR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -12909,6 +13001,7 @@
         <v>17229.98</v>
       </c>
       <c r="AQ91" t="inlineStr"/>
+      <c r="AR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -13043,9 +13136,10 @@
         <v>36624.31</v>
       </c>
       <c r="AP92" t="n">
-        <v>36660.92</v>
+        <v>31772.8</v>
       </c>
       <c r="AQ92" t="inlineStr"/>
+      <c r="AR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -13180,9 +13274,10 @@
         <v>-14493.06</v>
       </c>
       <c r="AP93" t="n">
-        <v>-14507.55</v>
+        <v>-29015.09</v>
       </c>
       <c r="AQ93" t="inlineStr"/>
+      <c r="AR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -13320,6 +13415,7 @@
         <v>0</v>
       </c>
       <c r="AQ94" t="inlineStr"/>
+      <c r="AR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -13454,9 +13550,10 @@
         <v>71487.96000000001</v>
       </c>
       <c r="AP95" t="n">
-        <v>66788.78999999999</v>
+        <v>71559.42</v>
       </c>
       <c r="AQ95" t="inlineStr"/>
+      <c r="AR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -13594,6 +13691,7 @@
         <v>405547.81</v>
       </c>
       <c r="AQ96" t="inlineStr"/>
+      <c r="AR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -13728,9 +13826,10 @@
         <v>181424.55</v>
       </c>
       <c r="AP97" t="n">
-        <v>181605.89</v>
+        <v>142690.35</v>
       </c>
       <c r="AQ97" t="inlineStr"/>
+      <c r="AR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -13868,6 +13967,7 @@
         <v>133300.69</v>
       </c>
       <c r="AQ98" t="inlineStr"/>
+      <c r="AR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -14002,9 +14102,10 @@
         <v>12796.49</v>
       </c>
       <c r="AP99" t="n">
-        <v>8539.52</v>
+        <v>12809.28</v>
       </c>
       <c r="AQ99" t="inlineStr"/>
+      <c r="AR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -14142,6 +14243,7 @@
         <v>24357.95</v>
       </c>
       <c r="AQ100" t="inlineStr"/>
+      <c r="AR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -14279,6 +14381,7 @@
         <v>93514.83</v>
       </c>
       <c r="AQ101" t="inlineStr"/>
+      <c r="AR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -14416,6 +14519,7 @@
         <v>36918.46</v>
       </c>
       <c r="AQ102" t="inlineStr"/>
+      <c r="AR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -14550,9 +14654,10 @@
         <v>39066.43</v>
       </c>
       <c r="AP103" t="n">
-        <v>39105.48</v>
+        <v>34217.3</v>
       </c>
       <c r="AQ103" t="inlineStr"/>
+      <c r="AR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -14690,6 +14795,7 @@
         <v>18694.23</v>
       </c>
       <c r="AQ104" t="inlineStr"/>
+      <c r="AR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -14824,9 +14930,10 @@
         <v>20221.76</v>
       </c>
       <c r="AP105" t="n">
-        <v>20241.97</v>
+        <v>10120.99</v>
       </c>
       <c r="AQ105" t="inlineStr"/>
+      <c r="AR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -14961,9 +15068,10 @@
         <v>53147.68</v>
       </c>
       <c r="AP106" t="n">
-        <v>43225.65</v>
+        <v>53200.8</v>
       </c>
       <c r="AQ106" t="inlineStr"/>
+      <c r="AR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -15101,6 +15209,7 @@
         <v>23275.35</v>
       </c>
       <c r="AQ107" t="inlineStr"/>
+      <c r="AR107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -15238,6 +15347,7 @@
         <v>150528.14</v>
       </c>
       <c r="AQ108" t="inlineStr"/>
+      <c r="AR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -15372,9 +15482,10 @@
         <v>63465.89</v>
       </c>
       <c r="AP109" t="n">
-        <v>63529.33</v>
+        <v>44470.53</v>
       </c>
       <c r="AQ109" t="inlineStr"/>
+      <c r="AR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -15512,6 +15623,7 @@
         <v>17456.37</v>
       </c>
       <c r="AQ110" t="inlineStr"/>
+      <c r="AR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -15649,6 +15761,7 @@
         <v>16704.06</v>
       </c>
       <c r="AQ111" t="inlineStr"/>
+      <c r="AR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -15783,9 +15896,10 @@
         <v>44947.58</v>
       </c>
       <c r="AP112" t="n">
-        <v>42345.89</v>
+        <v>39699.27</v>
       </c>
       <c r="AQ112" t="inlineStr"/>
+      <c r="AR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -15923,6 +16037,7 @@
         <v>26913.16</v>
       </c>
       <c r="AQ113" t="inlineStr"/>
+      <c r="AR113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -16057,9 +16172,10 @@
         <v>41076.63</v>
       </c>
       <c r="AP114" t="n">
-        <v>41117.69</v>
+        <v>35977.97</v>
       </c>
       <c r="AQ114" t="inlineStr"/>
+      <c r="AR114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -16194,9 +16310,10 @@
         <v>15863.85</v>
       </c>
       <c r="AP115" t="n">
-        <v>11909.78</v>
+        <v>15879.71</v>
       </c>
       <c r="AQ115" t="inlineStr"/>
+      <c r="AR115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -16334,6 +16451,7 @@
         <v>68812.07000000001</v>
       </c>
       <c r="AQ116" t="inlineStr"/>
+      <c r="AR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -16468,9 +16586,10 @@
         <v>42318.82</v>
       </c>
       <c r="AP117" t="n">
-        <v>35672.52</v>
+        <v>42361.12</v>
       </c>
       <c r="AQ117" t="inlineStr"/>
+      <c r="AR117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -16605,9 +16724,10 @@
         <v>-6681.92</v>
       </c>
       <c r="AP118" t="n">
-        <v>-6688.6</v>
+        <v>-11147.66</v>
       </c>
       <c r="AQ118" t="inlineStr"/>
+      <c r="AR118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -16742,9 +16862,10 @@
         <v>77594.39</v>
       </c>
       <c r="AP119" t="n">
-        <v>64726.62</v>
+        <v>77671.95</v>
       </c>
       <c r="AQ119" t="inlineStr"/>
+      <c r="AR119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -16882,6 +17003,7 @@
         <v>12166.53</v>
       </c>
       <c r="AQ120" t="inlineStr"/>
+      <c r="AR120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -17016,9 +17138,10 @@
         <v>71370.36</v>
       </c>
       <c r="AP121" t="n">
-        <v>60725.44</v>
+        <v>71441.69</v>
       </c>
       <c r="AQ121" t="inlineStr"/>
+      <c r="AR121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -17156,6 +17279,7 @@
         <v>10716.25</v>
       </c>
       <c r="AQ122" t="inlineStr"/>
+      <c r="AR122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -17290,9 +17414,10 @@
         <v>157171.38</v>
       </c>
       <c r="AP123" t="n">
-        <v>157328.48</v>
+        <v>127829.39</v>
       </c>
       <c r="AQ123" t="inlineStr"/>
+      <c r="AR123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -17430,6 +17555,7 @@
         <v>60652.45</v>
       </c>
       <c r="AQ124" t="inlineStr"/>
+      <c r="AR124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -17567,6 +17693,7 @@
         <v>36661.39</v>
       </c>
       <c r="AQ125" t="inlineStr"/>
+      <c r="AR125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -17704,6 +17831,7 @@
         <v>4888.19</v>
       </c>
       <c r="AQ126" t="inlineStr"/>
+      <c r="AR126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -17841,6 +17969,7 @@
         <v>42729.66</v>
       </c>
       <c r="AQ127" t="inlineStr"/>
+      <c r="AR127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -17978,6 +18107,7 @@
         <v>26706.04</v>
       </c>
       <c r="AQ128" t="inlineStr"/>
+      <c r="AR128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -18112,9 +18242,10 @@
         <v>2667.94</v>
       </c>
       <c r="AP129" t="n">
-        <v>-5341.21</v>
+        <v>0</v>
       </c>
       <c r="AQ129" t="inlineStr"/>
+      <c r="AR129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -18252,6 +18383,7 @@
         <v>43225.79</v>
       </c>
       <c r="AQ130" t="inlineStr"/>
+      <c r="AR130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -18389,6 +18521,7 @@
         <v>1051936.97</v>
       </c>
       <c r="AQ131" t="inlineStr"/>
+      <c r="AR131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -18523,9 +18656,10 @@
         <v>262721.64</v>
       </c>
       <c r="AP132" t="n">
-        <v>131492.12</v>
+        <v>262984.24</v>
       </c>
       <c r="AQ132" t="inlineStr"/>
+      <c r="AR132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -18663,6 +18797,7 @@
         <v>95599.85000000001</v>
       </c>
       <c r="AQ133" t="inlineStr"/>
+      <c r="AR133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -18797,9 +18932,10 @@
         <v>0</v>
       </c>
       <c r="AP134" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ134" t="inlineStr"/>
+      <c r="AR134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -18937,6 +19073,7 @@
         <v>0</v>
       </c>
       <c r="AQ135" t="inlineStr"/>
+      <c r="AR135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -19071,9 +19208,10 @@
         <v>27848.85</v>
       </c>
       <c r="AP136" t="n">
-        <v>27876.68</v>
+        <v>24159.79</v>
       </c>
       <c r="AQ136" t="inlineStr"/>
+      <c r="AR136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -19211,6 +19349,7 @@
         <v>0</v>
       </c>
       <c r="AQ137" t="inlineStr"/>
+      <c r="AR137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -19348,6 +19487,7 @@
         <v>21542.8</v>
       </c>
       <c r="AQ138" t="inlineStr"/>
+      <c r="AR138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -19485,6 +19625,7 @@
         <v>0</v>
       </c>
       <c r="AQ139" t="inlineStr"/>
+      <c r="AR139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -19622,6 +19763,7 @@
         <v>27442.3</v>
       </c>
       <c r="AQ140" t="inlineStr"/>
+      <c r="AR140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -19759,6 +19901,7 @@
         <v>0</v>
       </c>
       <c r="AQ141" t="inlineStr"/>
+      <c r="AR141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -19896,6 +20039,7 @@
         <v>36195.67</v>
       </c>
       <c r="AQ142" t="inlineStr"/>
+      <c r="AR142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -20033,6 +20177,7 @@
         <v>0</v>
       </c>
       <c r="AQ143" t="inlineStr"/>
+      <c r="AR143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -20167,9 +20312,10 @@
         <v>436030.16</v>
       </c>
       <c r="AP144" t="n">
-        <v>436465.99</v>
+        <v>327349.49</v>
       </c>
       <c r="AQ144" t="inlineStr"/>
+      <c r="AR144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -20307,6 +20453,7 @@
         <v>1702364.75</v>
       </c>
       <c r="AQ145" t="inlineStr"/>
+      <c r="AR145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -20444,6 +20591,7 @@
         <v>0</v>
       </c>
       <c r="AQ146" t="inlineStr"/>
+      <c r="AR146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -20578,9 +20726,10 @@
         <v>335513.06</v>
       </c>
       <c r="AP147" t="n">
-        <v>335848.42</v>
+        <v>321246.31</v>
       </c>
       <c r="AQ147" t="inlineStr"/>
+      <c r="AR147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -20718,6 +20867,7 @@
         <v>262457.99</v>
       </c>
       <c r="AQ148" t="inlineStr"/>
+      <c r="AR148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -20852,9 +21002,10 @@
         <v>45425.94</v>
       </c>
       <c r="AP149" t="n">
-        <v>45471.34</v>
+        <v>40418.97</v>
       </c>
       <c r="AQ149" t="inlineStr"/>
+      <c r="AR149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -20992,6 +21143,7 @@
         <v>0</v>
       </c>
       <c r="AQ150" t="inlineStr"/>
+      <c r="AR150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -21129,6 +21281,7 @@
         <v>18798.52</v>
       </c>
       <c r="AQ151" t="inlineStr"/>
+      <c r="AR151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -21263,9 +21416,10 @@
         <v>11793.66</v>
       </c>
       <c r="AP152" t="n">
-        <v>11805.44</v>
+        <v>7378.4</v>
       </c>
       <c r="AQ152" t="inlineStr"/>
+      <c r="AR152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -21400,9 +21554,10 @@
         <v>26479.69</v>
       </c>
       <c r="AP153" t="n">
-        <v>21204.93</v>
+        <v>26506.16</v>
       </c>
       <c r="AQ153" t="inlineStr"/>
+      <c r="AR153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -21540,6 +21695,7 @@
         <v>105481.96</v>
       </c>
       <c r="AQ154" t="inlineStr"/>
+      <c r="AR154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -21677,6 +21833,7 @@
         <v>139941.64</v>
       </c>
       <c r="AQ155" t="inlineStr"/>
+      <c r="AR155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -21811,9 +21968,10 @@
         <v>2282.87</v>
       </c>
       <c r="AP156" t="n">
-        <v>-1142.58</v>
+        <v>2285.15</v>
       </c>
       <c r="AQ156" t="inlineStr"/>
+      <c r="AR156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -21951,6 +22109,7 @@
         <v>18281.39</v>
       </c>
       <c r="AQ157" t="inlineStr"/>
+      <c r="AR157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -22088,6 +22247,7 @@
         <v>47988.21</v>
       </c>
       <c r="AQ158" t="inlineStr"/>
+      <c r="AR158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -22225,6 +22385,7 @@
         <v>0</v>
       </c>
       <c r="AQ159" t="inlineStr"/>
+      <c r="AR159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -22362,6 +22523,7 @@
         <v>82169.60000000001</v>
       </c>
       <c r="AQ160" t="inlineStr"/>
+      <c r="AR160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -22499,6 +22661,7 @@
         <v>2713.04</v>
       </c>
       <c r="AQ161" t="inlineStr"/>
+      <c r="AR161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -22633,9 +22796,10 @@
         <v>26119.63</v>
       </c>
       <c r="AP162" t="n">
-        <v>26145.74</v>
+        <v>23531.17</v>
       </c>
       <c r="AQ162" t="inlineStr"/>
+      <c r="AR162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -22773,6 +22937,7 @@
         <v>0</v>
       </c>
       <c r="AQ163" t="inlineStr"/>
+      <c r="AR163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -22910,6 +23075,7 @@
         <v>13331.3</v>
       </c>
       <c r="AQ164" t="inlineStr"/>
+      <c r="AR164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -23044,9 +23210,10 @@
         <v>37858.83</v>
       </c>
       <c r="AP165" t="n">
-        <v>32212.17</v>
+        <v>37896.67</v>
       </c>
       <c r="AQ165" t="inlineStr"/>
+      <c r="AR165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -23181,9 +23348,10 @@
         <v>71895.28999999999</v>
       </c>
       <c r="AP166" t="n">
-        <v>71967.16</v>
+        <v>64770.44</v>
       </c>
       <c r="AQ166" t="inlineStr"/>
+      <c r="AR166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -23318,9 +23486,10 @@
         <v>13673.64</v>
       </c>
       <c r="AP167" t="n">
-        <v>11198.71</v>
+        <v>13687.31</v>
       </c>
       <c r="AQ167" t="inlineStr"/>
+      <c r="AR167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -23455,9 +23624,10 @@
         <v>35801.21</v>
       </c>
       <c r="AP168" t="n">
-        <v>31855.11</v>
+        <v>35837</v>
       </c>
       <c r="AQ168" t="inlineStr"/>
+      <c r="AR168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -23595,6 +23765,7 @@
         <v>875725.92</v>
       </c>
       <c r="AQ169" t="inlineStr"/>
+      <c r="AR169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -23732,6 +23903,7 @@
         <v>998632376.89</v>
       </c>
       <c r="AQ170" t="inlineStr"/>
+      <c r="AR170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -23869,6 +24041,7 @@
         <v>255284337.01</v>
       </c>
       <c r="AQ171" t="inlineStr"/>
+      <c r="AR171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -24006,6 +24179,7 @@
         <v>0</v>
       </c>
       <c r="AQ172" t="inlineStr"/>
+      <c r="AR172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -24143,6 +24317,7 @@
         <v>583760.11</v>
       </c>
       <c r="AQ173" t="inlineStr"/>
+      <c r="AR173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -24280,6 +24455,7 @@
         <v>16392.1</v>
       </c>
       <c r="AQ174" t="inlineStr"/>
+      <c r="AR174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -24414,9 +24590,10 @@
         <v>0</v>
       </c>
       <c r="AP175" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ175" t="inlineStr"/>
+      <c r="AR175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -24554,6 +24731,7 @@
         <v>13125.65</v>
       </c>
       <c r="AQ176" t="inlineStr"/>
+      <c r="AR176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -24691,6 +24869,7 @@
         <v>18359.01</v>
       </c>
       <c r="AQ177" t="inlineStr"/>
+      <c r="AR177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -24828,6 +25007,7 @@
         <v>0</v>
       </c>
       <c r="AQ178" t="inlineStr"/>
+      <c r="AR178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -24965,6 +25145,7 @@
         <v>4984.34</v>
       </c>
       <c r="AQ179" t="inlineStr"/>
+      <c r="AR179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -25099,9 +25280,10 @@
         <v>85487.7</v>
       </c>
       <c r="AP180" t="n">
-        <v>72737.17999999999</v>
+        <v>85573.14999999999</v>
       </c>
       <c r="AQ180" t="inlineStr"/>
+      <c r="AR180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -25236,9 +25418,10 @@
         <v>35540.3</v>
       </c>
       <c r="AP181" t="n">
-        <v>35575.82</v>
+        <v>32839.22</v>
       </c>
       <c r="AQ181" t="inlineStr"/>
+      <c r="AR181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -25376,6 +25559,7 @@
         <v>41729.04</v>
       </c>
       <c r="AQ182" t="inlineStr"/>
+      <c r="AR182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -25513,6 +25697,7 @@
         <v>14508.05</v>
       </c>
       <c r="AQ183" t="inlineStr"/>
+      <c r="AR183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -25647,9 +25832,10 @@
         <v>195852.08</v>
       </c>
       <c r="AP184" t="n">
-        <v>171541.86</v>
+        <v>196047.84</v>
       </c>
       <c r="AQ184" t="inlineStr"/>
+      <c r="AR184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -25787,6 +25973,7 @@
         <v>73517.94</v>
       </c>
       <c r="AQ185" t="inlineStr"/>
+      <c r="AR185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -25924,6 +26111,7 @@
         <v>30102.62</v>
       </c>
       <c r="AQ186" t="inlineStr"/>
+      <c r="AR186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -26061,6 +26249,7 @@
         <v>0</v>
       </c>
       <c r="AQ187" t="inlineStr"/>
+      <c r="AR187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -26195,9 +26384,10 @@
         <v>5251290.46</v>
       </c>
       <c r="AP188" t="n">
-        <v>5256539.34</v>
+        <v>5054364.75</v>
       </c>
       <c r="AQ188" t="inlineStr"/>
+      <c r="AR188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -26332,9 +26522,10 @@
         <v>2526655.36</v>
       </c>
       <c r="AP189" t="n">
-        <v>2529180.86</v>
+        <v>2371107.05</v>
       </c>
       <c r="AQ189" t="inlineStr"/>
+      <c r="AR189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -26472,6 +26663,7 @@
         <v>363904.23</v>
       </c>
       <c r="AQ190" t="inlineStr"/>
+      <c r="AR190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -26606,9 +26798,10 @@
         <v>0</v>
       </c>
       <c r="AP191" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ191" t="inlineStr"/>
+      <c r="AR191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -26743,9 +26936,10 @@
         <v>87941.74000000001</v>
       </c>
       <c r="AP192" t="n">
-        <v>88029.64</v>
+        <v>76292.36</v>
       </c>
       <c r="AQ192" t="inlineStr"/>
+      <c r="AR192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -26880,9 +27074,10 @@
         <v>3316848.64</v>
       </c>
       <c r="AP193" t="n">
-        <v>3162060.92</v>
+        <v>3320163.97</v>
       </c>
       <c r="AQ193" t="inlineStr"/>
+      <c r="AR193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -27020,6 +27215,7 @@
         <v>0</v>
       </c>
       <c r="AQ194" t="inlineStr"/>
+      <c r="AR194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -27157,6 +27353,7 @@
         <v>0</v>
       </c>
       <c r="AQ195" t="inlineStr"/>
+      <c r="AR195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -27294,6 +27491,7 @@
         <v>0</v>
       </c>
       <c r="AQ196" t="inlineStr"/>
+      <c r="AR196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -27431,6 +27629,7 @@
         <v>7674.44</v>
       </c>
       <c r="AQ197" t="inlineStr"/>
+      <c r="AR197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -27565,9 +27764,10 @@
         <v>61283.88</v>
       </c>
       <c r="AP198" t="n">
-        <v>61345.13</v>
+        <v>56371.2</v>
       </c>
       <c r="AQ198" t="inlineStr"/>
+      <c r="AR198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -27702,9 +27902,10 @@
         <v>21532.17</v>
       </c>
       <c r="AP199" t="n">
-        <v>19895.72</v>
+        <v>16579.77</v>
       </c>
       <c r="AQ199" t="inlineStr"/>
+      <c r="AR199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -27842,6 +28043,7 @@
         <v>8348.27</v>
       </c>
       <c r="AQ200" t="inlineStr"/>
+      <c r="AR200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -27979,6 +28181,7 @@
         <v>0</v>
       </c>
       <c r="AQ201" t="inlineStr"/>
+      <c r="AR201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -28116,6 +28319,7 @@
         <v>19079.28</v>
       </c>
       <c r="AQ202" t="inlineStr"/>
+      <c r="AR202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -28253,6 +28457,7 @@
         <v>14539.4</v>
       </c>
       <c r="AQ203" t="inlineStr"/>
+      <c r="AR203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -28390,6 +28595,7 @@
         <v>12581.64</v>
       </c>
       <c r="AQ204" t="inlineStr"/>
+      <c r="AR204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -28527,6 +28733,7 @@
         <v>28965.07</v>
       </c>
       <c r="AQ205" t="inlineStr"/>
+      <c r="AR205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -28664,6 +28871,7 @@
         <v>30327.1</v>
       </c>
       <c r="AQ206" t="inlineStr"/>
+      <c r="AR206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -28801,6 +29009,7 @@
         <v>6235.48</v>
       </c>
       <c r="AQ207" t="inlineStr"/>
+      <c r="AR207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -28935,9 +29144,10 @@
         <v>28557.62</v>
       </c>
       <c r="AP208" t="n">
-        <v>25577.09</v>
+        <v>28586.16</v>
       </c>
       <c r="AQ208" t="inlineStr"/>
+      <c r="AR208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -29075,6 +29285,7 @@
         <v>11631.02</v>
       </c>
       <c r="AQ209" t="inlineStr"/>
+      <c r="AR209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -29212,6 +29423,7 @@
         <v>24211.76</v>
       </c>
       <c r="AQ210" t="inlineStr"/>
+      <c r="AR210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -29349,6 +29561,7 @@
         <v>26211.74</v>
       </c>
       <c r="AQ211" t="inlineStr"/>
+      <c r="AR211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -29483,9 +29696,10 @@
         <v>27489.34</v>
       </c>
       <c r="AP212" t="n">
-        <v>27516.81</v>
+        <v>23172.05</v>
       </c>
       <c r="AQ212" t="inlineStr"/>
+      <c r="AR212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -29623,6 +29837,7 @@
         <v>8476.32</v>
       </c>
       <c r="AQ213" t="inlineStr"/>
+      <c r="AR213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -29757,9 +29972,10 @@
         <v>90338.92999999999</v>
       </c>
       <c r="AP214" t="n">
-        <v>90429.23</v>
+        <v>82893.46000000001</v>
       </c>
       <c r="AQ214" t="inlineStr"/>
+      <c r="AR214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -29897,6 +30113,7 @@
         <v>2364.8</v>
       </c>
       <c r="AQ215" t="inlineStr"/>
+      <c r="AR215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -30031,9 +30248,10 @@
         <v>11291.61</v>
       </c>
       <c r="AP216" t="n">
-        <v>7535.27</v>
+        <v>11302.9</v>
       </c>
       <c r="AQ216" t="inlineStr"/>
+      <c r="AR216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -30171,6 +30389,7 @@
         <v>0</v>
       </c>
       <c r="AQ217" t="inlineStr"/>
+      <c r="AR217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -30308,6 +30527,7 @@
         <v>62142.39</v>
       </c>
       <c r="AQ218" t="inlineStr"/>
+      <c r="AR218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -30445,6 +30665,7 @@
         <v>78916.39999999999</v>
       </c>
       <c r="AQ219" t="inlineStr"/>
+      <c r="AR219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -30579,9 +30800,10 @@
         <v>52880.14</v>
       </c>
       <c r="AP220" t="n">
-        <v>49992.27</v>
+        <v>44110.83</v>
       </c>
       <c r="AQ220" t="inlineStr"/>
+      <c r="AR220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -30719,6 +30941,7 @@
         <v>118234.75</v>
       </c>
       <c r="AQ221" t="inlineStr"/>
+      <c r="AR221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -30856,6 +31079,7 @@
         <v>0</v>
       </c>
       <c r="AQ222" t="inlineStr"/>
+      <c r="AR222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -30993,6 +31217,7 @@
         <v>50921.29</v>
       </c>
       <c r="AQ223" t="inlineStr"/>
+      <c r="AR223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -31127,9 +31352,10 @@
         <v>0</v>
       </c>
       <c r="AP224" t="n">
-        <v>-3086.69</v>
+        <v>0</v>
       </c>
       <c r="AQ224" t="inlineStr"/>
+      <c r="AR224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -31267,6 +31493,7 @@
         <v>0</v>
       </c>
       <c r="AQ225" t="inlineStr"/>
+      <c r="AR225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -31404,6 +31631,7 @@
         <v>0</v>
       </c>
       <c r="AQ226" t="inlineStr"/>
+      <c r="AR226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -31538,9 +31766,10 @@
         <v>5249.84</v>
       </c>
       <c r="AP227" t="n">
-        <v>5255.09</v>
+        <v>0</v>
       </c>
       <c r="AQ227" t="inlineStr"/>
+      <c r="AR227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -31678,6 +31907,7 @@
         <v>76976.8</v>
       </c>
       <c r="AQ228" t="inlineStr"/>
+      <c r="AR228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -31815,6 +32045,7 @@
         <v>103900.87</v>
       </c>
       <c r="AQ229" t="inlineStr"/>
+      <c r="AR229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -31952,6 +32183,7 @@
         <v>103715.12</v>
       </c>
       <c r="AQ230" t="inlineStr"/>
+      <c r="AR230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -32089,6 +32321,7 @@
         <v>59096.52</v>
       </c>
       <c r="AQ231" t="inlineStr"/>
+      <c r="AR231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -32226,6 +32459,7 @@
         <v>10975.41</v>
       </c>
       <c r="AQ232" t="inlineStr"/>
+      <c r="AR232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -32363,6 +32597,7 @@
         <v>138581.22</v>
       </c>
       <c r="AQ233" t="inlineStr"/>
+      <c r="AR233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -32500,6 +32735,7 @@
         <v>308775.48</v>
       </c>
       <c r="AQ234" t="inlineStr"/>
+      <c r="AR234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -32637,6 +32873,7 @@
         <v>207279.98</v>
       </c>
       <c r="AQ235" t="inlineStr"/>
+      <c r="AR235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -32774,6 +33011,7 @@
         <v>23499.7</v>
       </c>
       <c r="AQ236" t="inlineStr"/>
+      <c r="AR236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -32911,6 +33149,7 @@
         <v>128803.55</v>
       </c>
       <c r="AQ237" t="inlineStr"/>
+      <c r="AR237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -33045,9 +33284,10 @@
         <v>16935.72</v>
       </c>
       <c r="AP238" t="n">
-        <v>15069.02</v>
+        <v>16952.65</v>
       </c>
       <c r="AQ238" t="inlineStr"/>
+      <c r="AR238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -33185,6 +33425,7 @@
         <v>53704.44</v>
       </c>
       <c r="AQ239" t="inlineStr"/>
+      <c r="AR239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -33322,6 +33563,7 @@
         <v>64982.98</v>
       </c>
       <c r="AQ240" t="inlineStr"/>
+      <c r="AR240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -33456,9 +33698,10 @@
         <v>6585.89</v>
       </c>
       <c r="AP241" t="n">
-        <v>5650.69</v>
+        <v>6592.48</v>
       </c>
       <c r="AQ241" t="inlineStr"/>
+      <c r="AR241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -33596,6 +33839,7 @@
         <v>39541.63</v>
       </c>
       <c r="AQ242" t="inlineStr"/>
+      <c r="AR242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -33733,6 +33977,7 @@
         <v>45560.05</v>
       </c>
       <c r="AQ243" t="inlineStr"/>
+      <c r="AR243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -33870,6 +34115,7 @@
         <v>27845.52</v>
       </c>
       <c r="AQ244" t="inlineStr"/>
+      <c r="AR244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -34007,6 +34253,7 @@
         <v>130675.45</v>
       </c>
       <c r="AQ245" t="inlineStr"/>
+      <c r="AR245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -34144,6 +34391,7 @@
         <v>47744.89</v>
       </c>
       <c r="AQ246" t="inlineStr"/>
+      <c r="AR246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -34281,6 +34529,7 @@
         <v>110298.63</v>
       </c>
       <c r="AQ247" t="inlineStr"/>
+      <c r="AR247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -34418,6 +34667,7 @@
         <v>120729.13</v>
       </c>
       <c r="AQ248" t="inlineStr"/>
+      <c r="AR248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -34555,6 +34805,7 @@
         <v>73093.35000000001</v>
       </c>
       <c r="AQ249" t="inlineStr"/>
+      <c r="AR249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -34692,6 +34943,7 @@
         <v>233769.66</v>
       </c>
       <c r="AQ250" t="inlineStr"/>
+      <c r="AR250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -34829,6 +35081,7 @@
         <v>236764.05</v>
       </c>
       <c r="AQ251" t="inlineStr"/>
+      <c r="AR251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -34966,6 +35219,7 @@
         <v>167879.36</v>
       </c>
       <c r="AQ252" t="inlineStr"/>
+      <c r="AR252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -35100,9 +35354,10 @@
         <v>712774.85</v>
       </c>
       <c r="AP253" t="n">
-        <v>713487.3</v>
+        <v>682009.92</v>
       </c>
       <c r="AQ253" t="inlineStr"/>
+      <c r="AR253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -35240,6 +35495,7 @@
         <v>0</v>
       </c>
       <c r="AQ254" t="inlineStr"/>
+      <c r="AR254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -35377,6 +35633,7 @@
         <v>0</v>
       </c>
       <c r="AQ255" t="inlineStr"/>
+      <c r="AR255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -35511,9 +35768,10 @@
         <v>40230.44</v>
       </c>
       <c r="AP256" t="n">
-        <v>40270.65</v>
+        <v>36768.85</v>
       </c>
       <c r="AQ256" t="inlineStr"/>
+      <c r="AR256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -35648,9 +35906,10 @@
         <v>89637.2</v>
       </c>
       <c r="AP257" t="n">
-        <v>89726.8</v>
+        <v>70499.63</v>
       </c>
       <c r="AQ257" t="inlineStr"/>
+      <c r="AR257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -35785,9 +36044,10 @@
         <v>13251.52</v>
       </c>
       <c r="AP258" t="n">
-        <v>13264.77</v>
+        <v>12058.88</v>
       </c>
       <c r="AQ258" t="inlineStr"/>
+      <c r="AR258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -35925,6 +36185,7 @@
         <v>0</v>
       </c>
       <c r="AQ259" t="inlineStr"/>
+      <c r="AR259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -36062,6 +36323,7 @@
         <v>6883.22</v>
       </c>
       <c r="AQ260" t="inlineStr"/>
+      <c r="AR260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -36196,9 +36458,10 @@
         <v>6122.32</v>
       </c>
       <c r="AP261" t="n">
-        <v>3501.96</v>
+        <v>6128.44</v>
       </c>
       <c r="AQ261" t="inlineStr"/>
+      <c r="AR261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -36333,9 +36596,10 @@
         <v>34987.18</v>
       </c>
       <c r="AP262" t="n">
-        <v>33271.05</v>
+        <v>35022.15</v>
       </c>
       <c r="AQ262" t="inlineStr"/>
+      <c r="AR262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -36473,6 +36737,7 @@
         <v>52650.33</v>
       </c>
       <c r="AQ263" t="inlineStr"/>
+      <c r="AR263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -36607,9 +36872,10 @@
         <v>47482.54</v>
       </c>
       <c r="AP264" t="n">
-        <v>41588.75</v>
+        <v>47530.01</v>
       </c>
       <c r="AQ264" t="inlineStr"/>
+      <c r="AR264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -36747,6 +37013,7 @@
         <v>43956.4</v>
       </c>
       <c r="AQ265" t="inlineStr"/>
+      <c r="AR265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -36881,9 +37148,10 @@
         <v>27987.73</v>
       </c>
       <c r="AP266" t="n">
-        <v>28015.71</v>
+        <v>22762.76</v>
       </c>
       <c r="AQ266" t="inlineStr"/>
+      <c r="AR266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -37021,6 +37289,7 @@
         <v>32115.24</v>
       </c>
       <c r="AQ267" t="inlineStr"/>
+      <c r="AR267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -37155,9 +37424,10 @@
         <v>5642.75</v>
       </c>
       <c r="AP268" t="n">
-        <v>5648.39</v>
+        <v>4942.34</v>
       </c>
       <c r="AQ268" t="inlineStr"/>
+      <c r="AR268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -37292,9 +37562,10 @@
         <v>1410.69</v>
       </c>
       <c r="AP269" t="n">
-        <v>0</v>
+        <v>1412.1</v>
       </c>
       <c r="AQ269" t="inlineStr"/>
+      <c r="AR269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -37429,9 +37700,10 @@
         <v>5642.75</v>
       </c>
       <c r="AP270" t="n">
-        <v>5648.39</v>
+        <v>3530.24</v>
       </c>
       <c r="AQ270" t="inlineStr"/>
+      <c r="AR270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -37569,6 +37841,7 @@
         <v>6603.01</v>
       </c>
       <c r="AQ271" t="inlineStr"/>
+      <c r="AR271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -37706,6 +37979,7 @@
         <v>-660.3</v>
       </c>
       <c r="AQ272" t="inlineStr"/>
+      <c r="AR272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -37843,6 +38117,7 @@
         <v>10670.52</v>
       </c>
       <c r="AQ273" t="inlineStr"/>
+      <c r="AR273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -37980,6 +38255,7 @@
         <v>13414.91</v>
       </c>
       <c r="AQ274" t="inlineStr"/>
+      <c r="AR274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -38114,9 +38390,10 @@
         <v>5642.75</v>
       </c>
       <c r="AP275" t="n">
-        <v>4236.29</v>
+        <v>5648.39</v>
       </c>
       <c r="AQ275" t="inlineStr"/>
+      <c r="AR275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -38254,6 +38531,7 @@
         <v>16922.24</v>
       </c>
       <c r="AQ276" t="inlineStr"/>
+      <c r="AR276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -38391,6 +38669,7 @@
         <v>0</v>
       </c>
       <c r="AQ277" t="inlineStr"/>
+      <c r="AR277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -38528,6 +38807,7 @@
         <v>39556.18</v>
       </c>
       <c r="AQ278" t="inlineStr"/>
+      <c r="AR278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -38665,6 +38945,7 @@
         <v>20383.16</v>
       </c>
       <c r="AQ279" t="inlineStr"/>
+      <c r="AR279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -38802,6 +39083,7 @@
         <v>6412.41</v>
       </c>
       <c r="AQ280" t="inlineStr"/>
+      <c r="AR280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -38936,9 +39218,10 @@
         <v>2669.13</v>
       </c>
       <c r="AP281" t="n">
-        <v>2671.8</v>
+        <v>2337.83</v>
       </c>
       <c r="AQ281" t="inlineStr"/>
+      <c r="AR281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -39073,9 +39356,10 @@
         <v>29277.75</v>
       </c>
       <c r="AP282" t="n">
-        <v>29307.02</v>
+        <v>27353.21</v>
       </c>
       <c r="AQ282" t="inlineStr"/>
+      <c r="AR282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -39213,6 +39497,7 @@
         <v>4884.5</v>
       </c>
       <c r="AQ283" t="inlineStr"/>
+      <c r="AR283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -39350,6 +39635,7 @@
         <v>8792.1</v>
       </c>
       <c r="AQ284" t="inlineStr"/>
+      <c r="AR284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -39487,6 +39773,7 @@
         <v>1953.8</v>
       </c>
       <c r="AQ285" t="inlineStr"/>
+      <c r="AR285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -39624,6 +39911,7 @@
         <v>3907.6</v>
       </c>
       <c r="AQ286" t="inlineStr"/>
+      <c r="AR286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -39761,6 +40049,7 @@
         <v>95796.50999999999</v>
       </c>
       <c r="AQ287" t="inlineStr"/>
+      <c r="AR287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -39898,6 +40187,7 @@
         <v>8059114.53</v>
       </c>
       <c r="AQ288" t="inlineStr"/>
+      <c r="AR288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -40035,6 +40325,7 @@
         <v>0</v>
       </c>
       <c r="AQ289" t="inlineStr"/>
+      <c r="AR289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -40172,6 +40463,7 @@
         <v>876860613.48</v>
       </c>
       <c r="AQ290" t="inlineStr"/>
+      <c r="AR290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -40306,9 +40598,10 @@
         <v>47383.6</v>
       </c>
       <c r="AP291" t="n">
-        <v>47430.96</v>
+        <v>41502.09</v>
       </c>
       <c r="AQ291" t="inlineStr"/>
+      <c r="AR291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -40446,6 +40739,7 @@
         <v>242025.8</v>
       </c>
       <c r="AQ292" t="inlineStr"/>
+      <c r="AR292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -40580,9 +40874,10 @@
         <v>141040.74</v>
       </c>
       <c r="AP293" t="n">
-        <v>80675.27</v>
+        <v>141181.72</v>
       </c>
       <c r="AQ293" t="inlineStr"/>
+      <c r="AR293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -40717,9 +41012,10 @@
         <v>40297.36</v>
       </c>
       <c r="AP294" t="n">
-        <v>40337.63</v>
+        <v>-20168.82</v>
       </c>
       <c r="AQ294" t="inlineStr"/>
+      <c r="AR294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -40857,6 +41153,7 @@
         <v>-20168.82</v>
       </c>
       <c r="AQ295" t="inlineStr"/>
+      <c r="AR295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -40991,9 +41288,10 @@
         <v>8145.95</v>
       </c>
       <c r="AP296" t="n">
-        <v>6715.13</v>
+        <v>8154.09</v>
       </c>
       <c r="AQ296" t="inlineStr"/>
+      <c r="AR296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -41128,9 +41426,10 @@
         <v>94581.87</v>
       </c>
       <c r="AP297" t="n">
-        <v>92367.23</v>
+        <v>94676.41</v>
       </c>
       <c r="AQ297" t="inlineStr"/>
+      <c r="AR297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -41268,6 +41567,7 @@
         <v>0</v>
       </c>
       <c r="AQ298" t="inlineStr"/>
+      <c r="AR298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -41405,6 +41705,7 @@
         <v>18650.35</v>
       </c>
       <c r="AQ299" t="inlineStr"/>
+      <c r="AR299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -41542,6 +41843,7 @@
         <v>9944.84</v>
       </c>
       <c r="AQ300" t="inlineStr"/>
+      <c r="AR300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -41679,6 +41981,7 @@
         <v>44969.37</v>
       </c>
       <c r="AQ301" t="inlineStr"/>
+      <c r="AR301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -41816,6 +42119,7 @@
         <v>225921.35</v>
       </c>
       <c r="AQ302" t="inlineStr"/>
+      <c r="AR302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -41953,6 +42257,7 @@
         <v>4286.59</v>
       </c>
       <c r="AQ303" t="inlineStr"/>
+      <c r="AR303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -42087,9 +42392,10 @@
         <v>4803.7</v>
       </c>
       <c r="AP304" t="n">
-        <v>3497.1</v>
+        <v>4808.51</v>
       </c>
       <c r="AQ304" t="inlineStr"/>
+      <c r="AR304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -42224,9 +42530,10 @@
         <v>24006.36</v>
       </c>
       <c r="AP305" t="n">
-        <v>23069.14</v>
+        <v>24030.36</v>
       </c>
       <c r="AQ305" t="inlineStr"/>
+      <c r="AR305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -42361,9 +42668,10 @@
         <v>0</v>
       </c>
       <c r="AP306" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ306" t="inlineStr"/>
+      <c r="AR306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -42501,6 +42809,7 @@
         <v>47846799.07</v>
       </c>
       <c r="AQ307" t="inlineStr"/>
+      <c r="AR307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -42635,9 +42944,10 @@
         <v>389697.85</v>
       </c>
       <c r="AP308" t="n">
-        <v>390087.36</v>
+        <v>348500.23</v>
       </c>
       <c r="AQ308" t="inlineStr"/>
+      <c r="AR308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -42775,6 +43085,7 @@
         <v>252162.15</v>
       </c>
       <c r="AQ309" t="inlineStr"/>
+      <c r="AR309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -42912,6 +43223,7 @@
         <v>31284971.57</v>
       </c>
       <c r="AQ310" t="inlineStr"/>
+      <c r="AR310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -43049,6 +43361,7 @@
         <v>10472678.9</v>
       </c>
       <c r="AQ311" t="inlineStr"/>
+      <c r="AR311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -43183,9 +43496,10 @@
         <v>11441325.87</v>
       </c>
       <c r="AP312" t="n">
-        <v>11452761.93</v>
+        <v>10889511.34</v>
       </c>
       <c r="AQ312" t="inlineStr"/>
+      <c r="AR312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -43323,6 +43637,7 @@
         <v>86094.78999999999</v>
       </c>
       <c r="AQ313" t="inlineStr"/>
+      <c r="AR313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -43460,6 +43775,7 @@
         <v>315364.64</v>
       </c>
       <c r="AQ314" t="inlineStr"/>
+      <c r="AR314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -43594,9 +43910,10 @@
         <v>14560.31</v>
       </c>
       <c r="AP315" t="n">
-        <v>-14574.87</v>
+        <v>14574.87</v>
       </c>
       <c r="AQ315" t="inlineStr"/>
+      <c r="AR315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -43734,6 +44051,7 @@
         <v>0</v>
       </c>
       <c r="AQ316" t="inlineStr"/>
+      <c r="AR316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -43868,9 +44186,10 @@
         <v>19867.74</v>
       </c>
       <c r="AP317" t="n">
-        <v>13258.4</v>
+        <v>19887.6</v>
       </c>
       <c r="AQ317" t="inlineStr"/>
+      <c r="AR317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -44005,9 +44324,10 @@
         <v>16190827.51</v>
       </c>
       <c r="AP318" t="n">
-        <v>16207010.89</v>
+        <v>15801835.62</v>
       </c>
       <c r="AQ318" t="inlineStr"/>
+      <c r="AR318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -44145,6 +44465,7 @@
         <v>1684778.21</v>
       </c>
       <c r="AQ319" t="inlineStr"/>
+      <c r="AR319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -44282,6 +44603,7 @@
         <v>445777.63</v>
       </c>
       <c r="AQ320" t="inlineStr"/>
+      <c r="AR320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -44416,9 +44738,10 @@
         <v>78120.23</v>
       </c>
       <c r="AP321" t="n">
-        <v>78198.31</v>
+        <v>52132.21</v>
       </c>
       <c r="AQ321" t="inlineStr"/>
+      <c r="AR321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -44556,6 +44879,7 @@
         <v>114491.04</v>
       </c>
       <c r="AQ322" t="inlineStr"/>
+      <c r="AR322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -44693,6 +45017,7 @@
         <v>6033994.82</v>
       </c>
       <c r="AQ323" t="inlineStr"/>
+      <c r="AR323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -44830,6 +45155,7 @@
         <v>463392.5</v>
       </c>
       <c r="AQ324" t="inlineStr"/>
+      <c r="AR324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -44967,6 +45293,7 @@
         <v>0</v>
       </c>
       <c r="AQ325" t="inlineStr"/>
+      <c r="AR325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -45104,6 +45431,7 @@
         <v>28478.85</v>
       </c>
       <c r="AQ326" t="inlineStr"/>
+      <c r="AR326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -45241,6 +45569,7 @@
         <v>343624.4</v>
       </c>
       <c r="AQ327" t="inlineStr"/>
+      <c r="AR327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -45378,6 +45707,7 @@
         <v>9897853.08</v>
       </c>
       <c r="AQ328" t="inlineStr"/>
+      <c r="AR328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -45515,6 +45845,7 @@
         <v>0</v>
       </c>
       <c r="AQ329" t="inlineStr"/>
+      <c r="AR329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -45649,9 +45980,10 @@
         <v>95723.03999999999</v>
       </c>
       <c r="AP330" t="n">
-        <v>76654.98</v>
+        <v>95818.72</v>
       </c>
       <c r="AQ330" t="inlineStr"/>
+      <c r="AR330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -45789,6 +46121,7 @@
         <v>1478248.49</v>
       </c>
       <c r="AQ331" t="inlineStr"/>
+      <c r="AR331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -45926,6 +46259,7 @@
         <v>0</v>
       </c>
       <c r="AQ332" t="inlineStr"/>
+      <c r="AR332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -46063,6 +46397,7 @@
         <v>0</v>
       </c>
       <c r="AQ333" t="inlineStr"/>
+      <c r="AR333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -46200,6 +46535,7 @@
         <v>0</v>
       </c>
       <c r="AQ334" t="inlineStr"/>
+      <c r="AR334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -46334,9 +46670,10 @@
         <v>3500547.86</v>
       </c>
       <c r="AP335" t="n">
-        <v>3504046.8</v>
+        <v>3378902.27</v>
       </c>
       <c r="AQ335" t="inlineStr"/>
+      <c r="AR335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -46474,6 +46811,7 @@
         <v>208574.21</v>
       </c>
       <c r="AQ336" t="inlineStr"/>
+      <c r="AR336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -46611,6 +46949,7 @@
         <v>125144.53</v>
       </c>
       <c r="AQ337" t="inlineStr"/>
+      <c r="AR337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -46748,6 +47087,7 @@
         <v>-166859.37</v>
       </c>
       <c r="AQ338" t="inlineStr"/>
+      <c r="AR338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -46882,9 +47222,10 @@
         <v>1562126.28</v>
       </c>
       <c r="AP339" t="n">
-        <v>1563687.68</v>
+        <v>1429657.31</v>
       </c>
       <c r="AQ339" t="inlineStr"/>
+      <c r="AR339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -47022,6 +47363,7 @@
         <v>-89353.58</v>
       </c>
       <c r="AQ340" t="inlineStr"/>
+      <c r="AR340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -47159,6 +47501,7 @@
         <v>1927234.12</v>
       </c>
       <c r="AQ341" t="inlineStr"/>
+      <c r="AR341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -47296,6 +47639,7 @@
         <v>90719.66</v>
       </c>
       <c r="AQ342" t="inlineStr"/>
+      <c r="AR342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -47433,6 +47777,7 @@
         <v>5313.61</v>
       </c>
       <c r="AQ343" t="inlineStr"/>
+      <c r="AR343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -47570,6 +47915,7 @@
         <v>69816.2</v>
       </c>
       <c r="AQ344" t="inlineStr"/>
+      <c r="AR344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -47704,9 +48050,10 @@
         <v>-4900.79</v>
       </c>
       <c r="AP345" t="n">
-        <v>-4905.69</v>
+        <v>-12264.22</v>
       </c>
       <c r="AQ345" t="inlineStr"/>
+      <c r="AR345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -47844,6 +48191,7 @@
         <v>91856.41</v>
       </c>
       <c r="AQ346" t="inlineStr"/>
+      <c r="AR346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -47981,6 +48329,7 @@
         <v>3924.58</v>
       </c>
       <c r="AQ347" t="inlineStr"/>
+      <c r="AR347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -48115,9 +48464,10 @@
         <v>839228.55</v>
       </c>
       <c r="AP348" t="n">
-        <v>840067.4</v>
+        <v>795853.3199999999</v>
       </c>
       <c r="AQ348" t="inlineStr"/>
+      <c r="AR348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -48248,9 +48598,10 @@
         <v>6990015.68</v>
       </c>
       <c r="AP349" t="n">
-        <v>6997002.48</v>
+        <v>6608280.12</v>
       </c>
       <c r="AQ349" t="inlineStr"/>
+      <c r="AR349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -48388,6 +48739,7 @@
         <v>6906283.41</v>
       </c>
       <c r="AQ350" t="inlineStr"/>
+      <c r="AR350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -48525,6 +48877,7 @@
         <v>20126546.09</v>
       </c>
       <c r="AQ351" t="inlineStr"/>
+      <c r="AR351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -48659,9 +49012,10 @@
         <v>45877806.8</v>
       </c>
       <c r="AP352" t="n">
-        <v>45884974.66</v>
+        <v>45923663.51</v>
       </c>
       <c r="AQ352" t="inlineStr"/>
+      <c r="AR352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -48796,9 +49150,10 @@
         <v>8086.01</v>
       </c>
       <c r="AP353" t="n">
-        <v>6070.57</v>
+        <v>8094.09</v>
       </c>
       <c r="AQ353" t="inlineStr"/>
+      <c r="AR353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -48936,6 +49291,7 @@
         <v>5614126.56</v>
       </c>
       <c r="AQ354" t="inlineStr"/>
+      <c r="AR354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -49070,9 +49426,10 @@
         <v>16290209.28</v>
       </c>
       <c r="AP355" t="n">
-        <v>16257078.39</v>
+        <v>16281785.2</v>
       </c>
       <c r="AQ355" t="inlineStr"/>
+      <c r="AR355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -49210,6 +49567,7 @@
         <v>24332507.49</v>
       </c>
       <c r="AQ356" t="inlineStr"/>
+      <c r="AR356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -49344,9 +49702,10 @@
         <v>218773894.07</v>
       </c>
       <c r="AP357" t="n">
-        <v>194660059.88</v>
+        <v>218992567.37</v>
       </c>
       <c r="AQ357" t="inlineStr"/>
+      <c r="AR357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -49481,9 +49840,10 @@
         <v>1129055.43</v>
       </c>
       <c r="AP358" t="n">
-        <v>1130183.97</v>
+        <v>1127137.65</v>
       </c>
       <c r="AQ358" t="inlineStr"/>
+      <c r="AR358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -49618,9 +49978,10 @@
         <v>4020046.64</v>
       </c>
       <c r="AP359" t="n">
-        <v>3977811.22</v>
+        <v>4024064.84</v>
       </c>
       <c r="AQ359" t="inlineStr"/>
+      <c r="AR359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -49755,9 +50116,10 @@
         <v>126036.37</v>
       </c>
       <c r="AP360" t="n">
-        <v>126162.35</v>
+        <v>118277.2</v>
       </c>
       <c r="AQ360" t="inlineStr"/>
+      <c r="AR360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -49892,9 +50254,10 @@
         <v>130300.85</v>
       </c>
       <c r="AP361" t="n">
-        <v>130431.09</v>
+        <v>118573.72</v>
       </c>
       <c r="AQ361" t="inlineStr"/>
+      <c r="AR361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -50032,6 +50395,7 @@
         <v>13860.54</v>
       </c>
       <c r="AQ362" t="inlineStr"/>
+      <c r="AR362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -50169,6 +50533,7 @@
         <v>51383.68</v>
       </c>
       <c r="AQ363" t="inlineStr"/>
+      <c r="AR363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -50306,6 +50671,7 @@
         <v>216342.02</v>
       </c>
       <c r="AQ364" t="inlineStr"/>
+      <c r="AR364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -50440,9 +50806,10 @@
         <v>292331.61</v>
       </c>
       <c r="AP365" t="n">
-        <v>292623.81</v>
+        <v>284643.16</v>
       </c>
       <c r="AQ365" t="inlineStr"/>
+      <c r="AR365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -50577,9 +50944,10 @@
         <v>1293808.11</v>
       </c>
       <c r="AP366" t="n">
-        <v>1295101.33</v>
+        <v>1248847.71</v>
       </c>
       <c r="AQ366" t="inlineStr"/>
+      <c r="AR366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -50717,6 +51085,7 @@
         <v>42048.74</v>
       </c>
       <c r="AQ367" t="inlineStr"/>
+      <c r="AR367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -50851,9 +51220,10 @@
         <v>1562789.72</v>
       </c>
       <c r="AP368" t="n">
-        <v>1545728.56</v>
+        <v>1527105.32</v>
       </c>
       <c r="AQ368" t="inlineStr"/>
+      <c r="AR368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -50988,9 +51358,10 @@
         <v>20419.95</v>
       </c>
       <c r="AP369" t="n">
-        <v>14308.25</v>
+        <v>20440.36</v>
       </c>
       <c r="AQ369" t="inlineStr"/>
+      <c r="AR369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -51125,9 +51496,10 @@
         <v>872553.4</v>
       </c>
       <c r="AP370" t="n">
-        <v>873425.55</v>
+        <v>841076.46</v>
       </c>
       <c r="AQ370" t="inlineStr"/>
+      <c r="AR370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -51265,6 +51637,7 @@
         <v>3237759.2</v>
       </c>
       <c r="AQ371" t="inlineStr"/>
+      <c r="AR371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -51402,6 +51775,7 @@
         <v>617019.62</v>
       </c>
       <c r="AQ372" t="inlineStr"/>
+      <c r="AR372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -51536,9 +51910,10 @@
         <v>24656.14</v>
       </c>
       <c r="AP373" t="n">
-        <v>0</v>
+        <v>24680.78</v>
       </c>
       <c r="AQ373" t="inlineStr"/>
+      <c r="AR373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -51676,6 +52051,7 @@
         <v>144608.18</v>
       </c>
       <c r="AQ374" t="inlineStr"/>
+      <c r="AR374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -51813,6 +52189,7 @@
         <v>455655.48</v>
       </c>
       <c r="AQ375" t="inlineStr"/>
+      <c r="AR375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -51950,6 +52327,7 @@
         <v>23276.26</v>
       </c>
       <c r="AQ376" t="inlineStr"/>
+      <c r="AR376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -52087,6 +52465,7 @@
         <v>285169.71</v>
       </c>
       <c r="AQ377" t="inlineStr"/>
+      <c r="AR377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -52221,9 +52600,10 @@
         <v>136324.79</v>
       </c>
       <c r="AP378" t="n">
-        <v>136461.06</v>
+        <v>133428.59</v>
       </c>
       <c r="AQ378" t="inlineStr"/>
+      <c r="AR378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -52361,6 +52741,7 @@
         <v>2406414.6</v>
       </c>
       <c r="AQ379" t="inlineStr"/>
+      <c r="AR379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -52498,6 +52879,7 @@
         <v>115975.73</v>
       </c>
       <c r="AQ380" t="inlineStr"/>
+      <c r="AR380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -52635,6 +53017,7 @@
         <v>634410.4300000001</v>
       </c>
       <c r="AQ381" t="inlineStr"/>
+      <c r="AR381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -52772,6 +53155,7 @@
         <v>868305.6899999999</v>
       </c>
       <c r="AQ382" t="inlineStr"/>
+      <c r="AR382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -52909,6 +53293,7 @@
         <v>608235</v>
       </c>
       <c r="AQ383" t="inlineStr"/>
+      <c r="AR383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -53043,9 +53428,10 @@
         <v>404116.17</v>
       </c>
       <c r="AP384" t="n">
-        <v>371721.17</v>
+        <v>404520.1</v>
       </c>
       <c r="AQ384" t="inlineStr"/>
+      <c r="AR384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -53183,6 +53569,7 @@
         <v>251198.42</v>
       </c>
       <c r="AQ385" t="inlineStr"/>
+      <c r="AR385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -53317,9 +53704,10 @@
         <v>927139.64</v>
       </c>
       <c r="AP386" t="n">
-        <v>906483.41</v>
+        <v>928066.35</v>
       </c>
       <c r="AQ386" t="inlineStr"/>
+      <c r="AR386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -53457,6 +53845,7 @@
         <v>331502.57</v>
       </c>
       <c r="AQ387" t="inlineStr"/>
+      <c r="AR387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -53594,6 +53983,7 @@
         <v>89900.53</v>
       </c>
       <c r="AQ388" t="inlineStr"/>
+      <c r="AR388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -53731,6 +54121,7 @@
         <v>7541960.3</v>
       </c>
       <c r="AQ389" t="inlineStr"/>
+      <c r="AR389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -53865,9 +54256,10 @@
         <v>6302818.04</v>
       </c>
       <c r="AP390" t="n">
-        <v>6309117.96</v>
+        <v>6091562.17</v>
       </c>
       <c r="AQ390" t="inlineStr"/>
+      <c r="AR390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -54005,6 +54397,7 @@
         <v>36434.86</v>
       </c>
       <c r="AQ391" t="inlineStr"/>
+      <c r="AR391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -54142,6 +54535,7 @@
         <v>246935.88</v>
       </c>
       <c r="AQ392" t="inlineStr"/>
+      <c r="AR392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -54275,6 +54669,7 @@
         <v>77789.78</v>
       </c>
       <c r="AQ393" t="inlineStr"/>
+      <c r="AR393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -54412,6 +54807,7 @@
         <v>117652.69</v>
       </c>
       <c r="AQ394" t="inlineStr"/>
+      <c r="AR394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -54549,6 +54945,7 @@
         <v>99126.60000000001</v>
       </c>
       <c r="AQ395" t="inlineStr"/>
+      <c r="AR395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -54686,6 +55083,7 @@
         <v>19331.08</v>
       </c>
       <c r="AQ396" t="inlineStr"/>
+      <c r="AR396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -54820,9 +55218,10 @@
         <v>13425363.81</v>
       </c>
       <c r="AP397" t="n">
-        <v>13438783</v>
+        <v>13326793.14</v>
       </c>
       <c r="AQ397" t="inlineStr"/>
+      <c r="AR397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -54957,9 +55356,10 @@
         <v>93198.98</v>
       </c>
       <c r="AP398" t="n">
-        <v>78939.5</v>
+        <v>93292.14</v>
       </c>
       <c r="AQ398" t="inlineStr"/>
+      <c r="AR398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -55097,6 +55497,7 @@
         <v>114326.63</v>
       </c>
       <c r="AQ399" t="inlineStr"/>
+      <c r="AR399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -55234,6 +55635,7 @@
         <v>105953.87</v>
       </c>
       <c r="AQ400" t="inlineStr"/>
+      <c r="AR400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -55368,9 +55770,10 @@
         <v>293799.09</v>
       </c>
       <c r="AP401" t="n">
-        <v>294092.75</v>
+        <v>265632.16</v>
       </c>
       <c r="AQ401" t="inlineStr"/>
+      <c r="AR401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -55508,6 +55911,7 @@
         <v>767846.64</v>
       </c>
       <c r="AQ402" t="inlineStr"/>
+      <c r="AR402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -55645,6 +56049,7 @@
         <v>383530.22</v>
       </c>
       <c r="AQ403" t="inlineStr"/>
+      <c r="AR403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -55779,9 +56184,10 @@
         <v>494464.91</v>
       </c>
       <c r="AP404" t="n">
-        <v>494959.15</v>
+        <v>478460.51</v>
       </c>
       <c r="AQ404" t="inlineStr"/>
+      <c r="AR404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -55919,6 +56325,7 @@
         <v>2814767.33</v>
       </c>
       <c r="AQ405" t="inlineStr"/>
+      <c r="AR405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -56053,9 +56460,10 @@
         <v>-6739.01</v>
       </c>
       <c r="AP406" t="n">
-        <v>-16864.37</v>
+        <v>-10118.62</v>
       </c>
       <c r="AQ406" t="inlineStr"/>
+      <c r="AR406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -56190,9 +56598,10 @@
         <v>0</v>
       </c>
       <c r="AP407" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ407" t="inlineStr"/>
+      <c r="AR407" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/base_datos/inventario/monetized_stock.xlsx
+++ b/base_datos/inventario/monetized_stock.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR407"/>
+  <dimension ref="A1:AQ407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,9 +579,6 @@
       <c r="AQ1" s="2" t="n">
         <v>45597</v>
       </c>
-      <c r="AR1" s="2" t="n">
-        <v>45598</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -718,8 +715,9 @@
       <c r="AP2" t="n">
         <v>7843.47</v>
       </c>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
+      <c r="AQ2" t="n">
+        <v>7855.4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -856,8 +854,9 @@
       <c r="AP3" t="n">
         <v>12829.55</v>
       </c>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
+      <c r="AQ3" t="n">
+        <v>12849.06</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -994,8 +993,9 @@
       <c r="AP4" t="n">
         <v>6414.78</v>
       </c>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
+      <c r="AQ4" t="n">
+        <v>6424.53</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1132,8 +1132,9 @@
       <c r="AP5" t="n">
         <v>-712.75</v>
       </c>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
+      <c r="AQ5" t="n">
+        <v>-713.84</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1270,8 +1271,9 @@
       <c r="AP6" t="n">
         <v>1067.71</v>
       </c>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
+      <c r="AQ6" t="n">
+        <v>1069.34</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1408,8 +1410,9 @@
       <c r="AP7" t="n">
         <v>15532.26</v>
       </c>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
+      <c r="AQ7" t="n">
+        <v>15555.88</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1546,8 +1549,9 @@
       <c r="AP8" t="n">
         <v>1827.32</v>
       </c>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1684,8 +1688,9 @@
       <c r="AP9" t="n">
         <v>14922.8</v>
       </c>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
+      <c r="AQ9" t="n">
+        <v>14945.49</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1822,8 +1827,9 @@
       <c r="AP10" t="n">
         <v>10943.38</v>
       </c>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
+      <c r="AQ10" t="n">
+        <v>7970.93</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1960,8 +1966,9 @@
       <c r="AP11" t="n">
         <v>2961451.17</v>
       </c>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
+      <c r="AQ11" t="n">
+        <v>2965954.68</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2098,8 +2105,9 @@
       <c r="AP12" t="n">
         <v>5922902.33</v>
       </c>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
+      <c r="AQ12" t="n">
+        <v>1482977.34</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2236,8 +2244,9 @@
       <c r="AP13" t="n">
         <v>10365079.08</v>
       </c>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
+      <c r="AQ13" t="n">
+        <v>8897864.039999999</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2374,8 +2383,9 @@
       <c r="AP14" t="n">
         <v>311972.64</v>
       </c>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
+      <c r="AQ14" t="n">
+        <v>302368.12</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2512,8 +2522,9 @@
       <c r="AP15" t="n">
         <v>12139.02</v>
       </c>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
+      <c r="AQ15" t="n">
+        <v>12157.48</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2650,8 +2661,9 @@
       <c r="AP16" t="n">
         <v>47818.67</v>
       </c>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
+      <c r="AQ16" t="n">
+        <v>47891.39</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2788,8 +2800,9 @@
       <c r="AP17" t="n">
         <v>13041.46</v>
       </c>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
+      <c r="AQ17" t="n">
+        <v>13061.29</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2926,8 +2939,9 @@
       <c r="AP18" t="n">
         <v>0</v>
       </c>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3064,8 +3078,9 @@
       <c r="AP19" t="n">
         <v>23525.94</v>
       </c>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
+      <c r="AQ19" t="n">
+        <v>23561.72</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3202,8 +3217,9 @@
       <c r="AP20" t="n">
         <v>21565.45</v>
       </c>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
+      <c r="AQ20" t="n">
+        <v>21598.24</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3340,8 +3356,9 @@
       <c r="AP21" t="n">
         <v>9802.48</v>
       </c>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
+      <c r="AQ21" t="n">
+        <v>9817.379999999999</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3478,8 +3495,9 @@
       <c r="AP22" t="n">
         <v>52108.08</v>
       </c>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
+      <c r="AQ22" t="n">
+        <v>52187.32</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3616,8 +3634,9 @@
       <c r="AP23" t="n">
         <v>55089.45</v>
       </c>
-      <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="inlineStr"/>
+      <c r="AQ23" t="n">
+        <v>55173.22</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3754,8 +3773,9 @@
       <c r="AP24" t="n">
         <v>1112.51</v>
       </c>
-      <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
+      <c r="AQ24" t="n">
+        <v>636.6799999999999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3892,8 +3912,9 @@
       <c r="AP25" t="n">
         <v>35199.14</v>
       </c>
-      <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
+      <c r="AQ25" t="n">
+        <v>35252.67</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4030,8 +4051,9 @@
       <c r="AP26" t="n">
         <v>103563.75</v>
       </c>
-      <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="inlineStr"/>
+      <c r="AQ26" t="n">
+        <v>79785.57000000001</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4168,8 +4190,9 @@
       <c r="AP27" t="n">
         <v>0</v>
       </c>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4306,8 +4329,9 @@
       <c r="AP28" t="n">
         <v>30278.72</v>
       </c>
-      <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
+      <c r="AQ28" t="n">
+        <v>30324.77</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4444,8 +4468,9 @@
       <c r="AP29" t="n">
         <v>108021.98</v>
       </c>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
+      <c r="AQ29" t="n">
+        <v>100072.28</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4582,8 +4607,9 @@
       <c r="AP30" t="n">
         <v>241536.27</v>
       </c>
-      <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="inlineStr"/>
+      <c r="AQ30" t="n">
+        <v>241903.57</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4720,8 +4746,9 @@
       <c r="AP31" t="n">
         <v>167051.45</v>
       </c>
-      <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
+      <c r="AQ31" t="n">
+        <v>159523.83</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4858,8 +4885,9 @@
       <c r="AP32" t="n">
         <v>716196.28</v>
       </c>
-      <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
+      <c r="AQ32" t="n">
+        <v>717285.41</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4996,8 +5024,9 @@
       <c r="AP33" t="n">
         <v>18196.13</v>
       </c>
-      <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
+      <c r="AQ33" t="n">
+        <v>18223.8</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5134,8 +5163,9 @@
       <c r="AP34" t="n">
         <v>16419.92</v>
       </c>
-      <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="inlineStr"/>
+      <c r="AQ34" t="n">
+        <v>14949.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5272,8 +5302,9 @@
       <c r="AP35" t="n">
         <v>9679.92</v>
       </c>
-      <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="inlineStr"/>
+      <c r="AQ35" t="n">
+        <v>9694.639999999999</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5410,8 +5441,9 @@
       <c r="AP36" t="n">
         <v>19559.35</v>
       </c>
-      <c r="AQ36" t="inlineStr"/>
-      <c r="AR36" t="inlineStr"/>
+      <c r="AQ36" t="n">
+        <v>19589.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5548,8 +5580,9 @@
       <c r="AP37" t="n">
         <v>168291.68</v>
       </c>
-      <c r="AQ37" t="inlineStr"/>
-      <c r="AR37" t="inlineStr"/>
+      <c r="AQ37" t="n">
+        <v>168547.6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5686,8 +5719,9 @@
       <c r="AP38" t="n">
         <v>0</v>
       </c>
-      <c r="AQ38" t="inlineStr"/>
-      <c r="AR38" t="inlineStr"/>
+      <c r="AQ38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5824,8 +5858,9 @@
       <c r="AP39" t="n">
         <v>0</v>
       </c>
-      <c r="AQ39" t="inlineStr"/>
-      <c r="AR39" t="inlineStr"/>
+      <c r="AQ39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5962,8 +5997,9 @@
       <c r="AP40" t="n">
         <v>7643.87</v>
       </c>
-      <c r="AQ40" t="inlineStr"/>
-      <c r="AR40" t="inlineStr"/>
+      <c r="AQ40" t="n">
+        <v>6561.85</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6100,8 +6136,9 @@
       <c r="AP41" t="n">
         <v>10278.52</v>
       </c>
-      <c r="AQ41" t="inlineStr"/>
-      <c r="AR41" t="inlineStr"/>
+      <c r="AQ41" t="n">
+        <v>10294.15</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6238,8 +6275,9 @@
       <c r="AP42" t="n">
         <v>6041.24</v>
       </c>
-      <c r="AQ42" t="inlineStr"/>
-      <c r="AR42" t="inlineStr"/>
+      <c r="AQ42" t="n">
+        <v>6050.43</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6376,8 +6414,9 @@
       <c r="AP43" t="n">
         <v>12273.87</v>
       </c>
-      <c r="AQ43" t="inlineStr"/>
-      <c r="AR43" t="inlineStr"/>
+      <c r="AQ43" t="n">
+        <v>12292.54</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6514,8 +6553,9 @@
       <c r="AP44" t="n">
         <v>28700.73</v>
       </c>
-      <c r="AQ44" t="inlineStr"/>
-      <c r="AR44" t="inlineStr"/>
+      <c r="AQ44" t="n">
+        <v>28744.38</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6652,8 +6692,9 @@
       <c r="AP45" t="n">
         <v>175303.83</v>
       </c>
-      <c r="AQ45" t="inlineStr"/>
-      <c r="AR45" t="inlineStr"/>
+      <c r="AQ45" t="n">
+        <v>175570.42</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6790,8 +6831,9 @@
       <c r="AP46" t="n">
         <v>27541.32</v>
       </c>
-      <c r="AQ46" t="inlineStr"/>
-      <c r="AR46" t="inlineStr"/>
+      <c r="AQ46" t="n">
+        <v>27583.21</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6928,8 +6970,9 @@
       <c r="AP47" t="n">
         <v>1247.86</v>
       </c>
-      <c r="AQ47" t="inlineStr"/>
-      <c r="AR47" t="inlineStr"/>
+      <c r="AQ47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7066,8 +7109,9 @@
       <c r="AP48" t="n">
         <v>66273.33</v>
       </c>
-      <c r="AQ48" t="inlineStr"/>
-      <c r="AR48" t="inlineStr"/>
+      <c r="AQ48" t="n">
+        <v>66374.11</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7204,8 +7248,9 @@
       <c r="AP49" t="n">
         <v>24596.36</v>
       </c>
-      <c r="AQ49" t="inlineStr"/>
-      <c r="AR49" t="inlineStr"/>
+      <c r="AQ49" t="n">
+        <v>24633.77</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7342,8 +7387,9 @@
       <c r="AP50" t="n">
         <v>9410.309999999999</v>
       </c>
-      <c r="AQ50" t="inlineStr"/>
-      <c r="AR50" t="inlineStr"/>
+      <c r="AQ50" t="n">
+        <v>9424.620000000001</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7480,8 +7526,9 @@
       <c r="AP51" t="n">
         <v>73016.57000000001</v>
       </c>
-      <c r="AQ51" t="inlineStr"/>
-      <c r="AR51" t="inlineStr"/>
+      <c r="AQ51" t="n">
+        <v>73127.61</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7618,8 +7665,9 @@
       <c r="AP52" t="n">
         <v>140909.54</v>
       </c>
-      <c r="AQ52" t="inlineStr"/>
-      <c r="AR52" t="inlineStr"/>
+      <c r="AQ52" t="n">
+        <v>141123.83</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7756,8 +7804,9 @@
       <c r="AP53" t="n">
         <v>50846.04</v>
       </c>
-      <c r="AQ53" t="inlineStr"/>
-      <c r="AR53" t="inlineStr"/>
+      <c r="AQ53" t="n">
+        <v>50923.36</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7894,8 +7943,9 @@
       <c r="AP54" t="n">
         <v>30870.81</v>
       </c>
-      <c r="AQ54" t="inlineStr"/>
-      <c r="AR54" t="inlineStr"/>
+      <c r="AQ54" t="n">
+        <v>30917.76</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8032,8 +8082,9 @@
       <c r="AP55" t="n">
         <v>45398.25</v>
       </c>
-      <c r="AQ55" t="inlineStr"/>
-      <c r="AR55" t="inlineStr"/>
+      <c r="AQ55" t="n">
+        <v>45467.29</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8170,8 +8221,9 @@
       <c r="AP56" t="n">
         <v>53109.58</v>
       </c>
-      <c r="AQ56" t="inlineStr"/>
-      <c r="AR56" t="inlineStr"/>
+      <c r="AQ56" t="n">
+        <v>53190.35</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8308,8 +8360,9 @@
       <c r="AP57" t="n">
         <v>115072.41</v>
       </c>
-      <c r="AQ57" t="inlineStr"/>
-      <c r="AR57" t="inlineStr"/>
+      <c r="AQ57" t="n">
+        <v>115247.4</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8446,8 +8499,9 @@
       <c r="AP58" t="n">
         <v>47161.87</v>
       </c>
-      <c r="AQ58" t="inlineStr"/>
-      <c r="AR58" t="inlineStr"/>
+      <c r="AQ58" t="n">
+        <v>47233.59</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8584,8 +8638,9 @@
       <c r="AP59" t="n">
         <v>36064.96</v>
       </c>
-      <c r="AQ59" t="inlineStr"/>
-      <c r="AR59" t="inlineStr"/>
+      <c r="AQ59" t="n">
+        <v>36119.8</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8722,8 +8777,9 @@
       <c r="AP60" t="n">
         <v>29669.82</v>
       </c>
-      <c r="AQ60" t="inlineStr"/>
-      <c r="AR60" t="inlineStr"/>
+      <c r="AQ60" t="n">
+        <v>23111.62</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8860,8 +8916,9 @@
       <c r="AP61" t="n">
         <v>25162.77</v>
       </c>
-      <c r="AQ61" t="inlineStr"/>
-      <c r="AR61" t="inlineStr"/>
+      <c r="AQ61" t="n">
+        <v>25201.03</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8998,8 +9055,9 @@
       <c r="AP62" t="n">
         <v>43484.11</v>
       </c>
-      <c r="AQ62" t="inlineStr"/>
-      <c r="AR62" t="inlineStr"/>
+      <c r="AQ62" t="n">
+        <v>43550.24</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9136,8 +9194,9 @@
       <c r="AP63" t="n">
         <v>16115.07</v>
       </c>
-      <c r="AQ63" t="inlineStr"/>
-      <c r="AR63" t="inlineStr"/>
+      <c r="AQ63" t="n">
+        <v>16139.57</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9274,8 +9333,9 @@
       <c r="AP64" t="n">
         <v>82569.95</v>
       </c>
-      <c r="AQ64" t="inlineStr"/>
-      <c r="AR64" t="inlineStr"/>
+      <c r="AQ64" t="n">
+        <v>82695.52</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9412,8 +9472,9 @@
       <c r="AP65" t="n">
         <v>32824.61</v>
       </c>
-      <c r="AQ65" t="inlineStr"/>
-      <c r="AR65" t="inlineStr"/>
+      <c r="AQ65" t="n">
+        <v>30882.13</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9550,8 +9611,9 @@
       <c r="AP66" t="n">
         <v>16146.86</v>
       </c>
-      <c r="AQ66" t="inlineStr"/>
-      <c r="AR66" t="inlineStr"/>
+      <c r="AQ66" t="n">
+        <v>16171.41</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9688,8 +9750,9 @@
       <c r="AP67" t="n">
         <v>23077.89</v>
       </c>
-      <c r="AQ67" t="inlineStr"/>
-      <c r="AR67" t="inlineStr"/>
+      <c r="AQ67" t="n">
+        <v>22256.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9826,8 +9889,9 @@
       <c r="AP68" t="n">
         <v>73010.17999999999</v>
       </c>
-      <c r="AQ68" t="inlineStr"/>
-      <c r="AR68" t="inlineStr"/>
+      <c r="AQ68" t="n">
+        <v>73121.21000000001</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9964,8 +10028,9 @@
       <c r="AP69" t="n">
         <v>42713.97</v>
       </c>
-      <c r="AQ69" t="inlineStr"/>
-      <c r="AR69" t="inlineStr"/>
+      <c r="AQ69" t="n">
+        <v>42778.92</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -10102,8 +10167,9 @@
       <c r="AP70" t="n">
         <v>13089.76</v>
       </c>
-      <c r="AQ70" t="inlineStr"/>
-      <c r="AR70" t="inlineStr"/>
+      <c r="AQ70" t="n">
+        <v>13109.67</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -10240,8 +10306,9 @@
       <c r="AP71" t="n">
         <v>34112.01</v>
       </c>
-      <c r="AQ71" t="inlineStr"/>
-      <c r="AR71" t="inlineStr"/>
+      <c r="AQ71" t="n">
+        <v>34163.88</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -10378,8 +10445,9 @@
       <c r="AP72" t="n">
         <v>29133.35</v>
       </c>
-      <c r="AQ72" t="inlineStr"/>
-      <c r="AR72" t="inlineStr"/>
+      <c r="AQ72" t="n">
+        <v>29177.66</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -10516,8 +10584,9 @@
       <c r="AP73" t="n">
         <v>30761.59</v>
       </c>
-      <c r="AQ73" t="inlineStr"/>
-      <c r="AR73" t="inlineStr"/>
+      <c r="AQ73" t="n">
+        <v>30808.36</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10654,8 +10723,9 @@
       <c r="AP74" t="n">
         <v>38807.08</v>
       </c>
-      <c r="AQ74" t="inlineStr"/>
-      <c r="AR74" t="inlineStr"/>
+      <c r="AQ74" t="n">
+        <v>38866.09</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10792,8 +10862,9 @@
       <c r="AP75" t="n">
         <v>9085.84</v>
       </c>
-      <c r="AQ75" t="inlineStr"/>
-      <c r="AR75" t="inlineStr"/>
+      <c r="AQ75" t="n">
+        <v>6369.76</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10930,8 +11001,9 @@
       <c r="AP76" t="n">
         <v>0</v>
       </c>
-      <c r="AQ76" t="inlineStr"/>
-      <c r="AR76" t="inlineStr"/>
+      <c r="AQ76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -11068,8 +11140,9 @@
       <c r="AP77" t="n">
         <v>62215.76</v>
       </c>
-      <c r="AQ77" t="inlineStr"/>
-      <c r="AR77" t="inlineStr"/>
+      <c r="AQ77" t="n">
+        <v>62310.37</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -11206,8 +11279,9 @@
       <c r="AP78" t="n">
         <v>22773.02</v>
       </c>
-      <c r="AQ78" t="inlineStr"/>
-      <c r="AR78" t="inlineStr"/>
+      <c r="AQ78" t="n">
+        <v>22807.66</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -11344,8 +11418,9 @@
       <c r="AP79" t="n">
         <v>990.13</v>
       </c>
-      <c r="AQ79" t="inlineStr"/>
-      <c r="AR79" t="inlineStr"/>
+      <c r="AQ79" t="n">
+        <v>991.64</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -11482,8 +11557,9 @@
       <c r="AP80" t="n">
         <v>59925.69</v>
       </c>
-      <c r="AQ80" t="inlineStr"/>
-      <c r="AR80" t="inlineStr"/>
+      <c r="AQ80" t="n">
+        <v>60016.82</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -11620,8 +11696,9 @@
       <c r="AP81" t="n">
         <v>47214.18</v>
       </c>
-      <c r="AQ81" t="inlineStr"/>
-      <c r="AR81" t="inlineStr"/>
+      <c r="AQ81" t="n">
+        <v>47285.98</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -11758,8 +11835,9 @@
       <c r="AP82" t="n">
         <v>38111.18</v>
       </c>
-      <c r="AQ82" t="inlineStr"/>
-      <c r="AR82" t="inlineStr"/>
+      <c r="AQ82" t="n">
+        <v>38169.13</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -11896,8 +11974,9 @@
       <c r="AP83" t="n">
         <v>63287.79</v>
       </c>
-      <c r="AQ83" t="inlineStr"/>
-      <c r="AR83" t="inlineStr"/>
+      <c r="AQ83" t="n">
+        <v>63384.03</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -12034,8 +12113,9 @@
       <c r="AP84" t="n">
         <v>46819.74</v>
       </c>
-      <c r="AQ84" t="inlineStr"/>
-      <c r="AR84" t="inlineStr"/>
+      <c r="AQ84" t="n">
+        <v>46890.94</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -12172,8 +12252,9 @@
       <c r="AP85" t="n">
         <v>66310.91</v>
       </c>
-      <c r="AQ85" t="inlineStr"/>
-      <c r="AR85" t="inlineStr"/>
+      <c r="AQ85" t="n">
+        <v>61492.36</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -12310,8 +12391,9 @@
       <c r="AP86" t="n">
         <v>0</v>
       </c>
-      <c r="AQ86" t="inlineStr"/>
-      <c r="AR86" t="inlineStr"/>
+      <c r="AQ86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -12448,8 +12530,9 @@
       <c r="AP87" t="n">
         <v>979015.14</v>
       </c>
-      <c r="AQ87" t="inlineStr"/>
-      <c r="AR87" t="inlineStr"/>
+      <c r="AQ87" t="n">
+        <v>980503.9399999999</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -12586,8 +12669,9 @@
       <c r="AP88" t="n">
         <v>35977.97</v>
       </c>
-      <c r="AQ88" t="inlineStr"/>
-      <c r="AR88" t="inlineStr"/>
+      <c r="AQ88" t="n">
+        <v>36032.69</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -12724,8 +12808,9 @@
       <c r="AP89" t="n">
         <v>38547.83</v>
       </c>
-      <c r="AQ89" t="inlineStr"/>
-      <c r="AR89" t="inlineStr"/>
+      <c r="AQ89" t="n">
+        <v>38606.45</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -12862,8 +12947,9 @@
       <c r="AP90" t="n">
         <v>65726.67</v>
       </c>
-      <c r="AQ90" t="inlineStr"/>
-      <c r="AR90" t="inlineStr"/>
+      <c r="AQ90" t="n">
+        <v>65826.62</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -13000,8 +13086,9 @@
       <c r="AP91" t="n">
         <v>17229.98</v>
       </c>
-      <c r="AQ91" t="inlineStr"/>
-      <c r="AR91" t="inlineStr"/>
+      <c r="AQ91" t="n">
+        <v>17256.19</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -13138,8 +13225,9 @@
       <c r="AP92" t="n">
         <v>31772.8</v>
       </c>
-      <c r="AQ92" t="inlineStr"/>
-      <c r="AR92" t="inlineStr"/>
+      <c r="AQ92" t="n">
+        <v>31821.11</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -13276,8 +13364,9 @@
       <c r="AP93" t="n">
         <v>-29015.09</v>
       </c>
-      <c r="AQ93" t="inlineStr"/>
-      <c r="AR93" t="inlineStr"/>
+      <c r="AQ93" t="n">
+        <v>-29059.22</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -13414,8 +13503,9 @@
       <c r="AP94" t="n">
         <v>0</v>
       </c>
-      <c r="AQ94" t="inlineStr"/>
-      <c r="AR94" t="inlineStr"/>
+      <c r="AQ94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -13552,8 +13642,9 @@
       <c r="AP95" t="n">
         <v>71559.42</v>
       </c>
-      <c r="AQ95" t="inlineStr"/>
-      <c r="AR95" t="inlineStr"/>
+      <c r="AQ95" t="n">
+        <v>71668.24000000001</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -13690,8 +13781,9 @@
       <c r="AP96" t="n">
         <v>405547.81</v>
       </c>
-      <c r="AQ96" t="inlineStr"/>
-      <c r="AR96" t="inlineStr"/>
+      <c r="AQ96" t="n">
+        <v>406164.53</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -13828,8 +13920,9 @@
       <c r="AP97" t="n">
         <v>142690.35</v>
       </c>
-      <c r="AQ97" t="inlineStr"/>
-      <c r="AR97" t="inlineStr"/>
+      <c r="AQ97" t="n">
+        <v>103932.61</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -13966,8 +14059,9 @@
       <c r="AP98" t="n">
         <v>133300.69</v>
       </c>
-      <c r="AQ98" t="inlineStr"/>
-      <c r="AR98" t="inlineStr"/>
+      <c r="AQ98" t="n">
+        <v>112423.91</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -14104,8 +14198,9 @@
       <c r="AP99" t="n">
         <v>12809.28</v>
       </c>
-      <c r="AQ99" t="inlineStr"/>
-      <c r="AR99" t="inlineStr"/>
+      <c r="AQ99" t="n">
+        <v>12828.76</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -14242,8 +14337,9 @@
       <c r="AP100" t="n">
         <v>24357.95</v>
       </c>
-      <c r="AQ100" t="inlineStr"/>
-      <c r="AR100" t="inlineStr"/>
+      <c r="AQ100" t="n">
+        <v>24394.99</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -14380,8 +14476,9 @@
       <c r="AP101" t="n">
         <v>93514.83</v>
       </c>
-      <c r="AQ101" t="inlineStr"/>
-      <c r="AR101" t="inlineStr"/>
+      <c r="AQ101" t="n">
+        <v>72844.36</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -14518,8 +14615,9 @@
       <c r="AP102" t="n">
         <v>36918.46</v>
       </c>
-      <c r="AQ102" t="inlineStr"/>
-      <c r="AR102" t="inlineStr"/>
+      <c r="AQ102" t="n">
+        <v>36974.6</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -14656,8 +14754,9 @@
       <c r="AP103" t="n">
         <v>34217.3</v>
       </c>
-      <c r="AQ103" t="inlineStr"/>
-      <c r="AR103" t="inlineStr"/>
+      <c r="AQ103" t="n">
+        <v>34269.33</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -14794,8 +14893,9 @@
       <c r="AP104" t="n">
         <v>18694.23</v>
       </c>
-      <c r="AQ104" t="inlineStr"/>
-      <c r="AR104" t="inlineStr"/>
+      <c r="AQ104" t="n">
+        <v>18722.66</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -14932,8 +15032,9 @@
       <c r="AP105" t="n">
         <v>10120.99</v>
       </c>
-      <c r="AQ105" t="inlineStr"/>
-      <c r="AR105" t="inlineStr"/>
+      <c r="AQ105" t="n">
+        <v>10136.38</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -15070,8 +15171,9 @@
       <c r="AP106" t="n">
         <v>53200.8</v>
       </c>
-      <c r="AQ106" t="inlineStr"/>
-      <c r="AR106" t="inlineStr"/>
+      <c r="AQ106" t="n">
+        <v>53281.71</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -15208,8 +15310,9 @@
       <c r="AP107" t="n">
         <v>23275.35</v>
       </c>
-      <c r="AQ107" t="inlineStr"/>
-      <c r="AR107" t="inlineStr"/>
+      <c r="AQ107" t="n">
+        <v>23310.75</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -15346,8 +15449,9 @@
       <c r="AP108" t="n">
         <v>150528.14</v>
       </c>
-      <c r="AQ108" t="inlineStr"/>
-      <c r="AR108" t="inlineStr"/>
+      <c r="AQ108" t="n">
+        <v>150757.05</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -15484,8 +15588,9 @@
       <c r="AP109" t="n">
         <v>44470.53</v>
       </c>
-      <c r="AQ109" t="inlineStr"/>
-      <c r="AR109" t="inlineStr"/>
+      <c r="AQ109" t="n">
+        <v>38175.56</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -15622,8 +15727,9 @@
       <c r="AP110" t="n">
         <v>17456.37</v>
       </c>
-      <c r="AQ110" t="inlineStr"/>
-      <c r="AR110" t="inlineStr"/>
+      <c r="AQ110" t="n">
+        <v>15893.56</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -15760,8 +15866,9 @@
       <c r="AP111" t="n">
         <v>16704.06</v>
       </c>
-      <c r="AQ111" t="inlineStr"/>
-      <c r="AR111" t="inlineStr"/>
+      <c r="AQ111" t="n">
+        <v>16729.46</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -15898,8 +16005,9 @@
       <c r="AP112" t="n">
         <v>39699.27</v>
       </c>
-      <c r="AQ112" t="inlineStr"/>
-      <c r="AR112" t="inlineStr"/>
+      <c r="AQ112" t="n">
+        <v>39759.64</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -16036,8 +16144,9 @@
       <c r="AP113" t="n">
         <v>26913.16</v>
       </c>
-      <c r="AQ113" t="inlineStr"/>
-      <c r="AR113" t="inlineStr"/>
+      <c r="AQ113" t="n">
+        <v>26954.09</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -16174,8 +16283,9 @@
       <c r="AP114" t="n">
         <v>35977.97</v>
       </c>
-      <c r="AQ114" t="inlineStr"/>
-      <c r="AR114" t="inlineStr"/>
+      <c r="AQ114" t="n">
+        <v>36032.69</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -16312,8 +16422,9 @@
       <c r="AP115" t="n">
         <v>15879.71</v>
       </c>
-      <c r="AQ115" t="inlineStr"/>
-      <c r="AR115" t="inlineStr"/>
+      <c r="AQ115" t="n">
+        <v>15903.86</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -16450,8 +16561,9 @@
       <c r="AP116" t="n">
         <v>68812.07000000001</v>
       </c>
-      <c r="AQ116" t="inlineStr"/>
-      <c r="AR116" t="inlineStr"/>
+      <c r="AQ116" t="n">
+        <v>68916.72</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -16588,8 +16700,9 @@
       <c r="AP117" t="n">
         <v>42361.12</v>
       </c>
-      <c r="AQ117" t="inlineStr"/>
-      <c r="AR117" t="inlineStr"/>
+      <c r="AQ117" t="n">
+        <v>42425.53</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -16726,8 +16839,9 @@
       <c r="AP118" t="n">
         <v>-11147.66</v>
       </c>
-      <c r="AQ118" t="inlineStr"/>
-      <c r="AR118" t="inlineStr"/>
+      <c r="AQ118" t="n">
+        <v>-11164.61</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -16864,8 +16978,9 @@
       <c r="AP119" t="n">
         <v>77671.95</v>
       </c>
-      <c r="AQ119" t="inlineStr"/>
-      <c r="AR119" t="inlineStr"/>
+      <c r="AQ119" t="n">
+        <v>77790.06</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -17002,8 +17117,9 @@
       <c r="AP120" t="n">
         <v>12166.53</v>
       </c>
-      <c r="AQ120" t="inlineStr"/>
-      <c r="AR120" t="inlineStr"/>
+      <c r="AQ120" t="n">
+        <v>10444.31</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -17140,8 +17256,9 @@
       <c r="AP121" t="n">
         <v>71441.69</v>
       </c>
-      <c r="AQ121" t="inlineStr"/>
-      <c r="AR121" t="inlineStr"/>
+      <c r="AQ121" t="n">
+        <v>71550.34</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -17278,8 +17395,9 @@
       <c r="AP122" t="n">
         <v>10716.25</v>
       </c>
-      <c r="AQ122" t="inlineStr"/>
-      <c r="AR122" t="inlineStr"/>
+      <c r="AQ122" t="n">
+        <v>10732.55</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -17416,8 +17534,9 @@
       <c r="AP123" t="n">
         <v>127829.39</v>
       </c>
-      <c r="AQ123" t="inlineStr"/>
-      <c r="AR123" t="inlineStr"/>
+      <c r="AQ123" t="n">
+        <v>128023.78</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -17554,8 +17673,9 @@
       <c r="AP124" t="n">
         <v>60652.45</v>
       </c>
-      <c r="AQ124" t="inlineStr"/>
-      <c r="AR124" t="inlineStr"/>
+      <c r="AQ124" t="n">
+        <v>60744.69</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -17692,8 +17812,9 @@
       <c r="AP125" t="n">
         <v>36661.39</v>
       </c>
-      <c r="AQ125" t="inlineStr"/>
-      <c r="AR125" t="inlineStr"/>
+      <c r="AQ125" t="n">
+        <v>36717.14</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -17830,8 +17951,9 @@
       <c r="AP126" t="n">
         <v>4888.19</v>
       </c>
-      <c r="AQ126" t="inlineStr"/>
-      <c r="AR126" t="inlineStr"/>
+      <c r="AQ126" t="n">
+        <v>4895.62</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -17968,8 +18090,9 @@
       <c r="AP127" t="n">
         <v>42729.66</v>
       </c>
-      <c r="AQ127" t="inlineStr"/>
-      <c r="AR127" t="inlineStr"/>
+      <c r="AQ127" t="n">
+        <v>42794.64</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -18106,8 +18229,9 @@
       <c r="AP128" t="n">
         <v>26706.04</v>
       </c>
-      <c r="AQ128" t="inlineStr"/>
-      <c r="AR128" t="inlineStr"/>
+      <c r="AQ128" t="n">
+        <v>26746.65</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -18244,8 +18368,9 @@
       <c r="AP129" t="n">
         <v>0</v>
       </c>
-      <c r="AQ129" t="inlineStr"/>
-      <c r="AR129" t="inlineStr"/>
+      <c r="AQ129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -18382,8 +18507,9 @@
       <c r="AP130" t="n">
         <v>43225.79</v>
       </c>
-      <c r="AQ130" t="inlineStr"/>
-      <c r="AR130" t="inlineStr"/>
+      <c r="AQ130" t="n">
+        <v>39961.41</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -18520,8 +18646,9 @@
       <c r="AP131" t="n">
         <v>1051936.97</v>
       </c>
-      <c r="AQ131" t="inlineStr"/>
-      <c r="AR131" t="inlineStr"/>
+      <c r="AQ131" t="n">
+        <v>1053536.66</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -18658,8 +18785,9 @@
       <c r="AP132" t="n">
         <v>262984.24</v>
       </c>
-      <c r="AQ132" t="inlineStr"/>
-      <c r="AR132" t="inlineStr"/>
+      <c r="AQ132" t="n">
+        <v>263384.16</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -18796,8 +18924,9 @@
       <c r="AP133" t="n">
         <v>95599.85000000001</v>
       </c>
-      <c r="AQ133" t="inlineStr"/>
-      <c r="AR133" t="inlineStr"/>
+      <c r="AQ133" t="n">
+        <v>86170.71000000001</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -18932,10 +19061,11 @@
         <v>0</v>
       </c>
       <c r="AP134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ134" t="n">
         <v>-0</v>
       </c>
-      <c r="AQ134" t="inlineStr"/>
-      <c r="AR134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -19072,8 +19202,9 @@
       <c r="AP135" t="n">
         <v>0</v>
       </c>
-      <c r="AQ135" t="inlineStr"/>
-      <c r="AR135" t="inlineStr"/>
+      <c r="AQ135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -19210,8 +19341,9 @@
       <c r="AP136" t="n">
         <v>24159.79</v>
       </c>
-      <c r="AQ136" t="inlineStr"/>
-      <c r="AR136" t="inlineStr"/>
+      <c r="AQ136" t="n">
+        <v>20473.99</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -19348,8 +19480,9 @@
       <c r="AP137" t="n">
         <v>0</v>
       </c>
-      <c r="AQ137" t="inlineStr"/>
-      <c r="AR137" t="inlineStr"/>
+      <c r="AQ137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -19486,8 +19619,9 @@
       <c r="AP138" t="n">
         <v>21542.8</v>
       </c>
-      <c r="AQ138" t="inlineStr"/>
-      <c r="AR138" t="inlineStr"/>
+      <c r="AQ138" t="n">
+        <v>21575.57</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -19624,8 +19758,9 @@
       <c r="AP139" t="n">
         <v>0</v>
       </c>
-      <c r="AQ139" t="inlineStr"/>
-      <c r="AR139" t="inlineStr"/>
+      <c r="AQ139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -19762,8 +19897,9 @@
       <c r="AP140" t="n">
         <v>27442.3</v>
       </c>
-      <c r="AQ140" t="inlineStr"/>
-      <c r="AR140" t="inlineStr"/>
+      <c r="AQ140" t="n">
+        <v>18322.68</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -19900,8 +20036,9 @@
       <c r="AP141" t="n">
         <v>0</v>
       </c>
-      <c r="AQ141" t="inlineStr"/>
-      <c r="AR141" t="inlineStr"/>
+      <c r="AQ141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -20038,8 +20175,9 @@
       <c r="AP142" t="n">
         <v>36195.67</v>
       </c>
-      <c r="AQ142" t="inlineStr"/>
-      <c r="AR142" t="inlineStr"/>
+      <c r="AQ142" t="n">
+        <v>36250.72</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -20176,8 +20314,9 @@
       <c r="AP143" t="n">
         <v>0</v>
       </c>
-      <c r="AQ143" t="inlineStr"/>
-      <c r="AR143" t="inlineStr"/>
+      <c r="AQ143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -20314,8 +20453,9 @@
       <c r="AP144" t="n">
         <v>327349.49</v>
       </c>
-      <c r="AQ144" t="inlineStr"/>
-      <c r="AR144" t="inlineStr"/>
+      <c r="AQ144" t="n">
+        <v>327847.3</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -20452,8 +20592,9 @@
       <c r="AP145" t="n">
         <v>1702364.75</v>
       </c>
-      <c r="AQ145" t="inlineStr"/>
-      <c r="AR145" t="inlineStr"/>
+      <c r="AQ145" t="n">
+        <v>1704953.55</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -20590,8 +20731,9 @@
       <c r="AP146" t="n">
         <v>0</v>
       </c>
-      <c r="AQ146" t="inlineStr"/>
-      <c r="AR146" t="inlineStr"/>
+      <c r="AQ146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -20728,8 +20870,9 @@
       <c r="AP147" t="n">
         <v>321246.31</v>
       </c>
-      <c r="AQ147" t="inlineStr"/>
-      <c r="AR147" t="inlineStr"/>
+      <c r="AQ147" t="n">
+        <v>321734.84</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -20866,8 +21009,9 @@
       <c r="AP148" t="n">
         <v>262457.99</v>
       </c>
-      <c r="AQ148" t="inlineStr"/>
-      <c r="AR148" t="inlineStr"/>
+      <c r="AQ148" t="n">
+        <v>262857.12</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -21004,8 +21148,9 @@
       <c r="AP149" t="n">
         <v>40418.97</v>
       </c>
-      <c r="AQ149" t="inlineStr"/>
-      <c r="AR149" t="inlineStr"/>
+      <c r="AQ149" t="n">
+        <v>40480.44</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -21142,8 +21287,9 @@
       <c r="AP150" t="n">
         <v>0</v>
       </c>
-      <c r="AQ150" t="inlineStr"/>
-      <c r="AR150" t="inlineStr"/>
+      <c r="AQ150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -21280,8 +21426,9 @@
       <c r="AP151" t="n">
         <v>18798.52</v>
       </c>
-      <c r="AQ151" t="inlineStr"/>
-      <c r="AR151" t="inlineStr"/>
+      <c r="AQ151" t="n">
+        <v>10758.35</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -21418,8 +21565,9 @@
       <c r="AP152" t="n">
         <v>7378.4</v>
       </c>
-      <c r="AQ152" t="inlineStr"/>
-      <c r="AR152" t="inlineStr"/>
+      <c r="AQ152" t="n">
+        <v>7389.62</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -21556,8 +21704,9 @@
       <c r="AP153" t="n">
         <v>26506.16</v>
       </c>
-      <c r="AQ153" t="inlineStr"/>
-      <c r="AR153" t="inlineStr"/>
+      <c r="AQ153" t="n">
+        <v>26546.47</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -21694,8 +21843,9 @@
       <c r="AP154" t="n">
         <v>105481.96</v>
       </c>
-      <c r="AQ154" t="inlineStr"/>
-      <c r="AR154" t="inlineStr"/>
+      <c r="AQ154" t="n">
+        <v>105642.37</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -21832,8 +21982,9 @@
       <c r="AP155" t="n">
         <v>139941.64</v>
       </c>
-      <c r="AQ155" t="inlineStr"/>
-      <c r="AR155" t="inlineStr"/>
+      <c r="AQ155" t="n">
+        <v>140154.45</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -21970,8 +22121,9 @@
       <c r="AP156" t="n">
         <v>2285.15</v>
       </c>
-      <c r="AQ156" t="inlineStr"/>
-      <c r="AR156" t="inlineStr"/>
+      <c r="AQ156" t="n">
+        <v>2288.63</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -22108,8 +22260,9 @@
       <c r="AP157" t="n">
         <v>18281.39</v>
       </c>
-      <c r="AQ157" t="inlineStr"/>
-      <c r="AR157" t="inlineStr"/>
+      <c r="AQ157" t="n">
+        <v>18309.19</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -22246,8 +22399,9 @@
       <c r="AP158" t="n">
         <v>47988.21</v>
       </c>
-      <c r="AQ158" t="inlineStr"/>
-      <c r="AR158" t="inlineStr"/>
+      <c r="AQ158" t="n">
+        <v>48061.19</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -22384,8 +22538,9 @@
       <c r="AP159" t="n">
         <v>0</v>
       </c>
-      <c r="AQ159" t="inlineStr"/>
-      <c r="AR159" t="inlineStr"/>
+      <c r="AQ159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -22522,8 +22677,9 @@
       <c r="AP160" t="n">
         <v>82169.60000000001</v>
       </c>
-      <c r="AQ160" t="inlineStr"/>
-      <c r="AR160" t="inlineStr"/>
+      <c r="AQ160" t="n">
+        <v>82294.56</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -22660,8 +22816,9 @@
       <c r="AP161" t="n">
         <v>2713.04</v>
       </c>
-      <c r="AQ161" t="inlineStr"/>
-      <c r="AR161" t="inlineStr"/>
+      <c r="AQ161" t="n">
+        <v>2717.16</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -22798,8 +22955,9 @@
       <c r="AP162" t="n">
         <v>23531.17</v>
       </c>
-      <c r="AQ162" t="inlineStr"/>
-      <c r="AR162" t="inlineStr"/>
+      <c r="AQ162" t="n">
+        <v>23566.95</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -22936,8 +23094,9 @@
       <c r="AP163" t="n">
         <v>0</v>
       </c>
-      <c r="AQ163" t="inlineStr"/>
-      <c r="AR163" t="inlineStr"/>
+      <c r="AQ163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -23074,8 +23233,9 @@
       <c r="AP164" t="n">
         <v>13331.3</v>
       </c>
-      <c r="AQ164" t="inlineStr"/>
-      <c r="AR164" t="inlineStr"/>
+      <c r="AQ164" t="n">
+        <v>11682.63</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -23212,8 +23372,9 @@
       <c r="AP165" t="n">
         <v>37896.67</v>
       </c>
-      <c r="AQ165" t="inlineStr"/>
-      <c r="AR165" t="inlineStr"/>
+      <c r="AQ165" t="n">
+        <v>37954.3</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -23350,8 +23511,9 @@
       <c r="AP166" t="n">
         <v>64770.44</v>
       </c>
-      <c r="AQ166" t="inlineStr"/>
-      <c r="AR166" t="inlineStr"/>
+      <c r="AQ166" t="n">
+        <v>64868.94</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -23488,8 +23650,9 @@
       <c r="AP167" t="n">
         <v>13687.31</v>
       </c>
-      <c r="AQ167" t="inlineStr"/>
-      <c r="AR167" t="inlineStr"/>
+      <c r="AQ167" t="n">
+        <v>9969.540000000001</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -23626,8 +23789,9 @@
       <c r="AP168" t="n">
         <v>35837</v>
       </c>
-      <c r="AQ168" t="inlineStr"/>
-      <c r="AR168" t="inlineStr"/>
+      <c r="AQ168" t="n">
+        <v>35891.5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -23764,8 +23928,9 @@
       <c r="AP169" t="n">
         <v>875725.92</v>
       </c>
-      <c r="AQ169" t="inlineStr"/>
-      <c r="AR169" t="inlineStr"/>
+      <c r="AQ169" t="n">
+        <v>877057.64</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -23902,8 +24067,9 @@
       <c r="AP170" t="n">
         <v>998632376.89</v>
       </c>
-      <c r="AQ170" t="inlineStr"/>
-      <c r="AR170" t="inlineStr"/>
+      <c r="AQ170" t="n">
+        <v>1000151008.45</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -24040,8 +24206,9 @@
       <c r="AP171" t="n">
         <v>255284337.01</v>
       </c>
-      <c r="AQ171" t="inlineStr"/>
-      <c r="AR171" t="inlineStr"/>
+      <c r="AQ171" t="n">
+        <v>255069549.49</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -24178,8 +24345,9 @@
       <c r="AP172" t="n">
         <v>0</v>
       </c>
-      <c r="AQ172" t="inlineStr"/>
-      <c r="AR172" t="inlineStr"/>
+      <c r="AQ172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -24316,8 +24484,9 @@
       <c r="AP173" t="n">
         <v>583760.11</v>
       </c>
-      <c r="AQ173" t="inlineStr"/>
-      <c r="AR173" t="inlineStr"/>
+      <c r="AQ173" t="n">
+        <v>584647.85</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -24454,8 +24623,9 @@
       <c r="AP174" t="n">
         <v>16392.1</v>
       </c>
-      <c r="AQ174" t="inlineStr"/>
-      <c r="AR174" t="inlineStr"/>
+      <c r="AQ174" t="n">
+        <v>16417.03</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -24590,10 +24760,11 @@
         <v>0</v>
       </c>
       <c r="AP175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ175" t="n">
         <v>-0</v>
       </c>
-      <c r="AQ175" t="inlineStr"/>
-      <c r="AR175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -24730,8 +24901,9 @@
       <c r="AP176" t="n">
         <v>13125.65</v>
       </c>
-      <c r="AQ176" t="inlineStr"/>
-      <c r="AR176" t="inlineStr"/>
+      <c r="AQ176" t="n">
+        <v>13145.61</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -24868,8 +25040,9 @@
       <c r="AP177" t="n">
         <v>18359.01</v>
       </c>
-      <c r="AQ177" t="inlineStr"/>
-      <c r="AR177" t="inlineStr"/>
+      <c r="AQ177" t="n">
+        <v>17073.58</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -25006,8 +25179,9 @@
       <c r="AP178" t="n">
         <v>0</v>
       </c>
-      <c r="AQ178" t="inlineStr"/>
-      <c r="AR178" t="inlineStr"/>
+      <c r="AQ178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -25144,8 +25318,9 @@
       <c r="AP179" t="n">
         <v>4984.34</v>
       </c>
-      <c r="AQ179" t="inlineStr"/>
-      <c r="AR179" t="inlineStr"/>
+      <c r="AQ179" t="n">
+        <v>4991.92</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -25282,8 +25457,9 @@
       <c r="AP180" t="n">
         <v>85573.14999999999</v>
       </c>
-      <c r="AQ180" t="inlineStr"/>
-      <c r="AR180" t="inlineStr"/>
+      <c r="AQ180" t="n">
+        <v>85703.28</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -25420,8 +25596,9 @@
       <c r="AP181" t="n">
         <v>32839.22</v>
       </c>
-      <c r="AQ181" t="inlineStr"/>
-      <c r="AR181" t="inlineStr"/>
+      <c r="AQ181" t="n">
+        <v>32889.16</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -25558,8 +25735,9 @@
       <c r="AP182" t="n">
         <v>41729.04</v>
       </c>
-      <c r="AQ182" t="inlineStr"/>
-      <c r="AR182" t="inlineStr"/>
+      <c r="AQ182" t="n">
+        <v>41792.5</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -25696,8 +25874,9 @@
       <c r="AP183" t="n">
         <v>14508.05</v>
       </c>
-      <c r="AQ183" t="inlineStr"/>
-      <c r="AR183" t="inlineStr"/>
+      <c r="AQ183" t="n">
+        <v>14530.11</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -25834,8 +26013,9 @@
       <c r="AP184" t="n">
         <v>196047.84</v>
       </c>
-      <c r="AQ184" t="inlineStr"/>
-      <c r="AR184" t="inlineStr"/>
+      <c r="AQ184" t="n">
+        <v>196345.98</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -25972,8 +26152,9 @@
       <c r="AP185" t="n">
         <v>73517.94</v>
       </c>
-      <c r="AQ185" t="inlineStr"/>
-      <c r="AR185" t="inlineStr"/>
+      <c r="AQ185" t="n">
+        <v>73629.74000000001</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -26110,8 +26291,9 @@
       <c r="AP186" t="n">
         <v>30102.62</v>
       </c>
-      <c r="AQ186" t="inlineStr"/>
-      <c r="AR186" t="inlineStr"/>
+      <c r="AQ186" t="n">
+        <v>30148.39</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -26248,8 +26430,9 @@
       <c r="AP187" t="n">
         <v>0</v>
       </c>
-      <c r="AQ187" t="inlineStr"/>
-      <c r="AR187" t="inlineStr"/>
+      <c r="AQ187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -26386,8 +26569,9 @@
       <c r="AP188" t="n">
         <v>5054364.75</v>
       </c>
-      <c r="AQ188" t="inlineStr"/>
-      <c r="AR188" t="inlineStr"/>
+      <c r="AQ188" t="n">
+        <v>5062050.98</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -26524,8 +26708,9 @@
       <c r="AP189" t="n">
         <v>2371107.05</v>
       </c>
-      <c r="AQ189" t="inlineStr"/>
-      <c r="AR189" t="inlineStr"/>
+      <c r="AQ189" t="n">
+        <v>2216398.64</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -26662,8 +26847,9 @@
       <c r="AP190" t="n">
         <v>363904.23</v>
       </c>
-      <c r="AQ190" t="inlineStr"/>
-      <c r="AR190" t="inlineStr"/>
+      <c r="AQ190" t="n">
+        <v>364457.62</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -26798,10 +26984,11 @@
         <v>0</v>
       </c>
       <c r="AP191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ191" t="n">
         <v>-0</v>
       </c>
-      <c r="AQ191" t="inlineStr"/>
-      <c r="AR191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -26938,8 +27125,9 @@
       <c r="AP192" t="n">
         <v>76292.36</v>
       </c>
-      <c r="AQ192" t="inlineStr"/>
-      <c r="AR192" t="inlineStr"/>
+      <c r="AQ192" t="n">
+        <v>76408.38</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -27076,8 +27264,9 @@
       <c r="AP193" t="n">
         <v>3320163.97</v>
       </c>
-      <c r="AQ193" t="inlineStr"/>
-      <c r="AR193" t="inlineStr"/>
+      <c r="AQ193" t="n">
+        <v>3166869.5</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -27214,8 +27403,9 @@
       <c r="AP194" t="n">
         <v>0</v>
       </c>
-      <c r="AQ194" t="inlineStr"/>
-      <c r="AR194" t="inlineStr"/>
+      <c r="AQ194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -27352,8 +27542,9 @@
       <c r="AP195" t="n">
         <v>0</v>
       </c>
-      <c r="AQ195" t="inlineStr"/>
-      <c r="AR195" t="inlineStr"/>
+      <c r="AQ195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -27490,8 +27681,9 @@
       <c r="AP196" t="n">
         <v>0</v>
       </c>
-      <c r="AQ196" t="inlineStr"/>
-      <c r="AR196" t="inlineStr"/>
+      <c r="AQ196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -27628,8 +27820,9 @@
       <c r="AP197" t="n">
         <v>7674.44</v>
       </c>
-      <c r="AQ197" t="inlineStr"/>
-      <c r="AR197" t="inlineStr"/>
+      <c r="AQ197" t="n">
+        <v>7686.11</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -27766,8 +27959,9 @@
       <c r="AP198" t="n">
         <v>56371.2</v>
       </c>
-      <c r="AQ198" t="inlineStr"/>
-      <c r="AR198" t="inlineStr"/>
+      <c r="AQ198" t="n">
+        <v>56456.93</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -27904,8 +28098,9 @@
       <c r="AP199" t="n">
         <v>16579.77</v>
       </c>
-      <c r="AQ199" t="inlineStr"/>
-      <c r="AR199" t="inlineStr"/>
+      <c r="AQ199" t="n">
+        <v>16604.98</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -28042,8 +28237,9 @@
       <c r="AP200" t="n">
         <v>8348.27</v>
       </c>
-      <c r="AQ200" t="inlineStr"/>
-      <c r="AR200" t="inlineStr"/>
+      <c r="AQ200" t="n">
+        <v>8360.969999999999</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -28180,8 +28376,9 @@
       <c r="AP201" t="n">
         <v>0</v>
       </c>
-      <c r="AQ201" t="inlineStr"/>
-      <c r="AR201" t="inlineStr"/>
+      <c r="AQ201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -28318,8 +28515,9 @@
       <c r="AP202" t="n">
         <v>19079.28</v>
       </c>
-      <c r="AQ202" t="inlineStr"/>
-      <c r="AR202" t="inlineStr"/>
+      <c r="AQ202" t="n">
+        <v>19108.29</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -28456,8 +28654,9 @@
       <c r="AP203" t="n">
         <v>14539.4</v>
       </c>
-      <c r="AQ203" t="inlineStr"/>
-      <c r="AR203" t="inlineStr"/>
+      <c r="AQ203" t="n">
+        <v>14561.51</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -28594,8 +28793,9 @@
       <c r="AP204" t="n">
         <v>12581.64</v>
       </c>
-      <c r="AQ204" t="inlineStr"/>
-      <c r="AR204" t="inlineStr"/>
+      <c r="AQ204" t="n">
+        <v>12600.77</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -28732,8 +28932,9 @@
       <c r="AP205" t="n">
         <v>28965.07</v>
       </c>
-      <c r="AQ205" t="inlineStr"/>
-      <c r="AR205" t="inlineStr"/>
+      <c r="AQ205" t="n">
+        <v>29009.11</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -28870,8 +29071,9 @@
       <c r="AP206" t="n">
         <v>30327.1</v>
       </c>
-      <c r="AQ206" t="inlineStr"/>
-      <c r="AR206" t="inlineStr"/>
+      <c r="AQ206" t="n">
+        <v>30373.22</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -29008,8 +29210,9 @@
       <c r="AP207" t="n">
         <v>6235.48</v>
       </c>
-      <c r="AQ207" t="inlineStr"/>
-      <c r="AR207" t="inlineStr"/>
+      <c r="AQ207" t="n">
+        <v>4803.82</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -29146,8 +29349,9 @@
       <c r="AP208" t="n">
         <v>28586.16</v>
       </c>
-      <c r="AQ208" t="inlineStr"/>
-      <c r="AR208" t="inlineStr"/>
+      <c r="AQ208" t="n">
+        <v>28629.63</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -29284,8 +29488,9 @@
       <c r="AP209" t="n">
         <v>11631.02</v>
       </c>
-      <c r="AQ209" t="inlineStr"/>
-      <c r="AR209" t="inlineStr"/>
+      <c r="AQ209" t="n">
+        <v>10354.4</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -29422,8 +29627,9 @@
       <c r="AP210" t="n">
         <v>24211.76</v>
       </c>
-      <c r="AQ210" t="inlineStr"/>
-      <c r="AR210" t="inlineStr"/>
+      <c r="AQ210" t="n">
+        <v>18652.75</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -29560,8 +29766,9 @@
       <c r="AP211" t="n">
         <v>26211.74</v>
       </c>
-      <c r="AQ211" t="inlineStr"/>
-      <c r="AR211" t="inlineStr"/>
+      <c r="AQ211" t="n">
+        <v>26251.6</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -29698,8 +29905,9 @@
       <c r="AP212" t="n">
         <v>23172.05</v>
       </c>
-      <c r="AQ212" t="inlineStr"/>
-      <c r="AR212" t="inlineStr"/>
+      <c r="AQ212" t="n">
+        <v>23207.29</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -29836,8 +30044,9 @@
       <c r="AP213" t="n">
         <v>8476.32</v>
       </c>
-      <c r="AQ213" t="inlineStr"/>
-      <c r="AR213" t="inlineStr"/>
+      <c r="AQ213" t="n">
+        <v>8489.209999999999</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -29974,8 +30183,9 @@
       <c r="AP214" t="n">
         <v>82893.46000000001</v>
       </c>
-      <c r="AQ214" t="inlineStr"/>
-      <c r="AR214" t="inlineStr"/>
+      <c r="AQ214" t="n">
+        <v>75472.28999999999</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -30112,8 +30322,9 @@
       <c r="AP215" t="n">
         <v>2364.8</v>
       </c>
-      <c r="AQ215" t="inlineStr"/>
-      <c r="AR215" t="inlineStr"/>
+      <c r="AQ215" t="n">
+        <v>2368.4</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -30250,8 +30461,9 @@
       <c r="AP216" t="n">
         <v>11302.9</v>
       </c>
-      <c r="AQ216" t="inlineStr"/>
-      <c r="AR216" t="inlineStr"/>
+      <c r="AQ216" t="n">
+        <v>5660.04</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -30388,8 +30600,9 @@
       <c r="AP217" t="n">
         <v>0</v>
       </c>
-      <c r="AQ217" t="inlineStr"/>
-      <c r="AR217" t="inlineStr"/>
+      <c r="AQ217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -30526,8 +30739,9 @@
       <c r="AP218" t="n">
         <v>62142.39</v>
       </c>
-      <c r="AQ218" t="inlineStr"/>
-      <c r="AR218" t="inlineStr"/>
+      <c r="AQ218" t="n">
+        <v>62236.89</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -30664,8 +30878,9 @@
       <c r="AP219" t="n">
         <v>78916.39999999999</v>
       </c>
-      <c r="AQ219" t="inlineStr"/>
-      <c r="AR219" t="inlineStr"/>
+      <c r="AQ219" t="n">
+        <v>79036.39999999999</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -30802,8 +31017,9 @@
       <c r="AP220" t="n">
         <v>44110.83</v>
       </c>
-      <c r="AQ220" t="inlineStr"/>
-      <c r="AR220" t="inlineStr"/>
+      <c r="AQ220" t="n">
+        <v>44177.91</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -30940,8 +31156,9 @@
       <c r="AP221" t="n">
         <v>118234.75</v>
       </c>
-      <c r="AQ221" t="inlineStr"/>
-      <c r="AR221" t="inlineStr"/>
+      <c r="AQ221" t="n">
+        <v>118414.55</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -31078,8 +31295,9 @@
       <c r="AP222" t="n">
         <v>0</v>
       </c>
-      <c r="AQ222" t="inlineStr"/>
-      <c r="AR222" t="inlineStr"/>
+      <c r="AQ222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -31216,8 +31434,9 @@
       <c r="AP223" t="n">
         <v>50921.29</v>
       </c>
-      <c r="AQ223" t="inlineStr"/>
-      <c r="AR223" t="inlineStr"/>
+      <c r="AQ223" t="n">
+        <v>50998.73</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -31354,8 +31573,9 @@
       <c r="AP224" t="n">
         <v>0</v>
       </c>
-      <c r="AQ224" t="inlineStr"/>
-      <c r="AR224" t="inlineStr"/>
+      <c r="AQ224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -31492,8 +31712,9 @@
       <c r="AP225" t="n">
         <v>0</v>
       </c>
-      <c r="AQ225" t="inlineStr"/>
-      <c r="AR225" t="inlineStr"/>
+      <c r="AQ225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -31630,8 +31851,9 @@
       <c r="AP226" t="n">
         <v>0</v>
       </c>
-      <c r="AQ226" t="inlineStr"/>
-      <c r="AR226" t="inlineStr"/>
+      <c r="AQ226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -31768,8 +31990,9 @@
       <c r="AP227" t="n">
         <v>0</v>
       </c>
-      <c r="AQ227" t="inlineStr"/>
-      <c r="AR227" t="inlineStr"/>
+      <c r="AQ227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -31906,8 +32129,9 @@
       <c r="AP228" t="n">
         <v>76976.8</v>
       </c>
-      <c r="AQ228" t="inlineStr"/>
-      <c r="AR228" t="inlineStr"/>
+      <c r="AQ228" t="n">
+        <v>71587.16</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -32044,8 +32268,9 @@
       <c r="AP229" t="n">
         <v>103900.87</v>
       </c>
-      <c r="AQ229" t="inlineStr"/>
-      <c r="AR229" t="inlineStr"/>
+      <c r="AQ229" t="n">
+        <v>104058.88</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -32182,8 +32407,9 @@
       <c r="AP230" t="n">
         <v>103715.12</v>
       </c>
-      <c r="AQ230" t="inlineStr"/>
-      <c r="AR230" t="inlineStr"/>
+      <c r="AQ230" t="n">
+        <v>96453.35000000001</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -32320,8 +32546,9 @@
       <c r="AP231" t="n">
         <v>59096.52</v>
       </c>
-      <c r="AQ231" t="inlineStr"/>
-      <c r="AR231" t="inlineStr"/>
+      <c r="AQ231" t="n">
+        <v>59186.38</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -32458,8 +32685,9 @@
       <c r="AP232" t="n">
         <v>10975.41</v>
       </c>
-      <c r="AQ232" t="inlineStr"/>
-      <c r="AR232" t="inlineStr"/>
+      <c r="AQ232" t="n">
+        <v>10992.1</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -32596,8 +32824,9 @@
       <c r="AP233" t="n">
         <v>138581.22</v>
       </c>
-      <c r="AQ233" t="inlineStr"/>
-      <c r="AR233" t="inlineStr"/>
+      <c r="AQ233" t="n">
+        <v>138791.96</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -32734,8 +32963,9 @@
       <c r="AP234" t="n">
         <v>308775.48</v>
       </c>
-      <c r="AQ234" t="inlineStr"/>
-      <c r="AR234" t="inlineStr"/>
+      <c r="AQ234" t="n">
+        <v>257704.2</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -32872,8 +33102,9 @@
       <c r="AP235" t="n">
         <v>207279.98</v>
       </c>
-      <c r="AQ235" t="inlineStr"/>
-      <c r="AR235" t="inlineStr"/>
+      <c r="AQ235" t="n">
+        <v>207595.19</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -33010,8 +33241,9 @@
       <c r="AP236" t="n">
         <v>23499.7</v>
       </c>
-      <c r="AQ236" t="inlineStr"/>
-      <c r="AR236" t="inlineStr"/>
+      <c r="AQ236" t="n">
+        <v>23535.44</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -33148,8 +33380,9 @@
       <c r="AP237" t="n">
         <v>128803.55</v>
       </c>
-      <c r="AQ237" t="inlineStr"/>
-      <c r="AR237" t="inlineStr"/>
+      <c r="AQ237" t="n">
+        <v>128999.43</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -33286,8 +33519,9 @@
       <c r="AP238" t="n">
         <v>16952.65</v>
       </c>
-      <c r="AQ238" t="inlineStr"/>
-      <c r="AR238" t="inlineStr"/>
+      <c r="AQ238" t="n">
+        <v>16978.43</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -33424,8 +33658,9 @@
       <c r="AP239" t="n">
         <v>53704.44</v>
       </c>
-      <c r="AQ239" t="inlineStr"/>
-      <c r="AR239" t="inlineStr"/>
+      <c r="AQ239" t="n">
+        <v>51931.42</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -33562,8 +33797,9 @@
       <c r="AP240" t="n">
         <v>64982.98</v>
       </c>
-      <c r="AQ240" t="inlineStr"/>
-      <c r="AR240" t="inlineStr"/>
+      <c r="AQ240" t="n">
+        <v>65081.8</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -33700,8 +33936,9 @@
       <c r="AP241" t="n">
         <v>6592.48</v>
       </c>
-      <c r="AQ241" t="inlineStr"/>
-      <c r="AR241" t="inlineStr"/>
+      <c r="AQ241" t="n">
+        <v>4716.07</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -33838,8 +34075,9 @@
       <c r="AP242" t="n">
         <v>39541.63</v>
       </c>
-      <c r="AQ242" t="inlineStr"/>
-      <c r="AR242" t="inlineStr"/>
+      <c r="AQ242" t="n">
+        <v>39601.77</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -33976,8 +34214,9 @@
       <c r="AP243" t="n">
         <v>45560.05</v>
       </c>
-      <c r="AQ243" t="inlineStr"/>
-      <c r="AR243" t="inlineStr"/>
+      <c r="AQ243" t="n">
+        <v>45629.33</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -34114,8 +34353,9 @@
       <c r="AP244" t="n">
         <v>27845.52</v>
       </c>
-      <c r="AQ244" t="inlineStr"/>
-      <c r="AR244" t="inlineStr"/>
+      <c r="AQ244" t="n">
+        <v>27887.87</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -34252,8 +34492,9 @@
       <c r="AP245" t="n">
         <v>130675.45</v>
       </c>
-      <c r="AQ245" t="inlineStr"/>
-      <c r="AR245" t="inlineStr"/>
+      <c r="AQ245" t="n">
+        <v>130874.17</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -34390,8 +34631,9 @@
       <c r="AP246" t="n">
         <v>47744.89</v>
       </c>
-      <c r="AQ246" t="inlineStr"/>
-      <c r="AR246" t="inlineStr"/>
+      <c r="AQ246" t="n">
+        <v>47817.5</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -34528,8 +34770,9 @@
       <c r="AP247" t="n">
         <v>110298.63</v>
       </c>
-      <c r="AQ247" t="inlineStr"/>
-      <c r="AR247" t="inlineStr"/>
+      <c r="AQ247" t="n">
+        <v>104329.34</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -34666,8 +34909,9 @@
       <c r="AP248" t="n">
         <v>120729.13</v>
       </c>
-      <c r="AQ248" t="inlineStr"/>
-      <c r="AR248" t="inlineStr"/>
+      <c r="AQ248" t="n">
+        <v>120912.73</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -34804,8 +35048,9 @@
       <c r="AP249" t="n">
         <v>73093.35000000001</v>
       </c>
-      <c r="AQ249" t="inlineStr"/>
-      <c r="AR249" t="inlineStr"/>
+      <c r="AQ249" t="n">
+        <v>65498.77</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -34942,8 +35187,9 @@
       <c r="AP250" t="n">
         <v>233769.66</v>
       </c>
-      <c r="AQ250" t="inlineStr"/>
-      <c r="AR250" t="inlineStr"/>
+      <c r="AQ250" t="n">
+        <v>234125.16</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -35080,8 +35326,9 @@
       <c r="AP251" t="n">
         <v>236764.05</v>
       </c>
-      <c r="AQ251" t="inlineStr"/>
-      <c r="AR251" t="inlineStr"/>
+      <c r="AQ251" t="n">
+        <v>237124.09</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -35218,8 +35465,9 @@
       <c r="AP252" t="n">
         <v>167879.36</v>
       </c>
-      <c r="AQ252" t="inlineStr"/>
-      <c r="AR252" t="inlineStr"/>
+      <c r="AQ252" t="n">
+        <v>168134.66</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -35356,8 +35604,9 @@
       <c r="AP253" t="n">
         <v>682009.92</v>
       </c>
-      <c r="AQ253" t="inlineStr"/>
-      <c r="AR253" t="inlineStr"/>
+      <c r="AQ253" t="n">
+        <v>683047.0600000001</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -35494,8 +35743,9 @@
       <c r="AP254" t="n">
         <v>0</v>
       </c>
-      <c r="AQ254" t="inlineStr"/>
-      <c r="AR254" t="inlineStr"/>
+      <c r="AQ254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -35632,8 +35882,9 @@
       <c r="AP255" t="n">
         <v>0</v>
       </c>
-      <c r="AQ255" t="inlineStr"/>
-      <c r="AR255" t="inlineStr"/>
+      <c r="AQ255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -35770,8 +36021,9 @@
       <c r="AP256" t="n">
         <v>36768.85</v>
       </c>
-      <c r="AQ256" t="inlineStr"/>
-      <c r="AR256" t="inlineStr"/>
+      <c r="AQ256" t="n">
+        <v>36824.77</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -35908,8 +36160,9 @@
       <c r="AP257" t="n">
         <v>70499.63</v>
       </c>
-      <c r="AQ257" t="inlineStr"/>
-      <c r="AR257" t="inlineStr"/>
+      <c r="AQ257" t="n">
+        <v>70606.84</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -36046,8 +36299,9 @@
       <c r="AP258" t="n">
         <v>12058.88</v>
       </c>
-      <c r="AQ258" t="inlineStr"/>
-      <c r="AR258" t="inlineStr"/>
+      <c r="AQ258" t="n">
+        <v>12077.22</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -36184,8 +36438,9 @@
       <c r="AP259" t="n">
         <v>0</v>
       </c>
-      <c r="AQ259" t="inlineStr"/>
-      <c r="AR259" t="inlineStr"/>
+      <c r="AQ259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -36322,8 +36577,9 @@
       <c r="AP260" t="n">
         <v>6883.22</v>
       </c>
-      <c r="AQ260" t="inlineStr"/>
-      <c r="AR260" t="inlineStr"/>
+      <c r="AQ260" t="n">
+        <v>6893.69</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -36460,8 +36716,9 @@
       <c r="AP261" t="n">
         <v>6128.44</v>
       </c>
-      <c r="AQ261" t="inlineStr"/>
-      <c r="AR261" t="inlineStr"/>
+      <c r="AQ261" t="n">
+        <v>6137.76</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -36598,8 +36855,9 @@
       <c r="AP262" t="n">
         <v>35022.15</v>
       </c>
-      <c r="AQ262" t="inlineStr"/>
-      <c r="AR262" t="inlineStr"/>
+      <c r="AQ262" t="n">
+        <v>29814.1</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -36736,8 +36994,9 @@
       <c r="AP263" t="n">
         <v>52650.33</v>
       </c>
-      <c r="AQ263" t="inlineStr"/>
-      <c r="AR263" t="inlineStr"/>
+      <c r="AQ263" t="n">
+        <v>52730.39</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -36874,8 +37133,9 @@
       <c r="AP264" t="n">
         <v>47530.01</v>
       </c>
-      <c r="AQ264" t="inlineStr"/>
-      <c r="AR264" t="inlineStr"/>
+      <c r="AQ264" t="n">
+        <v>47602.29</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -37012,8 +37272,9 @@
       <c r="AP265" t="n">
         <v>43956.4</v>
       </c>
-      <c r="AQ265" t="inlineStr"/>
-      <c r="AR265" t="inlineStr"/>
+      <c r="AQ265" t="n">
+        <v>44023.24</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -37150,8 +37411,9 @@
       <c r="AP266" t="n">
         <v>22762.76</v>
       </c>
-      <c r="AQ266" t="inlineStr"/>
-      <c r="AR266" t="inlineStr"/>
+      <c r="AQ266" t="n">
+        <v>19290.09</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -37288,8 +37550,9 @@
       <c r="AP267" t="n">
         <v>32115.24</v>
       </c>
-      <c r="AQ267" t="inlineStr"/>
-      <c r="AR267" t="inlineStr"/>
+      <c r="AQ267" t="n">
+        <v>32164.08</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -37426,8 +37689,9 @@
       <c r="AP268" t="n">
         <v>4942.34</v>
       </c>
-      <c r="AQ268" t="inlineStr"/>
-      <c r="AR268" t="inlineStr"/>
+      <c r="AQ268" t="n">
+        <v>4949.85</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -37564,8 +37828,9 @@
       <c r="AP269" t="n">
         <v>1412.1</v>
       </c>
-      <c r="AQ269" t="inlineStr"/>
-      <c r="AR269" t="inlineStr"/>
+      <c r="AQ269" t="n">
+        <v>1414.24</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -37702,8 +37967,9 @@
       <c r="AP270" t="n">
         <v>3530.24</v>
       </c>
-      <c r="AQ270" t="inlineStr"/>
-      <c r="AR270" t="inlineStr"/>
+      <c r="AQ270" t="n">
+        <v>3535.61</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -37840,8 +38106,9 @@
       <c r="AP271" t="n">
         <v>6603.01</v>
       </c>
-      <c r="AQ271" t="inlineStr"/>
-      <c r="AR271" t="inlineStr"/>
+      <c r="AQ271" t="n">
+        <v>6613.05</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -37978,8 +38245,9 @@
       <c r="AP272" t="n">
         <v>-660.3</v>
       </c>
-      <c r="AQ272" t="inlineStr"/>
-      <c r="AR272" t="inlineStr"/>
+      <c r="AQ272" t="n">
+        <v>-1983.92</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -38116,8 +38384,9 @@
       <c r="AP273" t="n">
         <v>10670.52</v>
       </c>
-      <c r="AQ273" t="inlineStr"/>
-      <c r="AR273" t="inlineStr"/>
+      <c r="AQ273" t="n">
+        <v>9261.84</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -38254,8 +38523,9 @@
       <c r="AP274" t="n">
         <v>13414.91</v>
       </c>
-      <c r="AQ274" t="inlineStr"/>
-      <c r="AR274" t="inlineStr"/>
+      <c r="AQ274" t="n">
+        <v>13435.31</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -38392,8 +38662,9 @@
       <c r="AP275" t="n">
         <v>5648.39</v>
       </c>
-      <c r="AQ275" t="inlineStr"/>
-      <c r="AR275" t="inlineStr"/>
+      <c r="AQ275" t="n">
+        <v>5656.97</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -38530,8 +38801,9 @@
       <c r="AP276" t="n">
         <v>16922.24</v>
       </c>
-      <c r="AQ276" t="inlineStr"/>
-      <c r="AR276" t="inlineStr"/>
+      <c r="AQ276" t="n">
+        <v>16947.97</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -38668,8 +38940,9 @@
       <c r="AP277" t="n">
         <v>0</v>
       </c>
-      <c r="AQ277" t="inlineStr"/>
-      <c r="AR277" t="inlineStr"/>
+      <c r="AQ277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -38806,8 +39079,9 @@
       <c r="AP278" t="n">
         <v>39556.18</v>
       </c>
-      <c r="AQ278" t="inlineStr"/>
-      <c r="AR278" t="inlineStr"/>
+      <c r="AQ278" t="n">
+        <v>39616.33</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -38944,8 +39218,9 @@
       <c r="AP279" t="n">
         <v>20383.16</v>
       </c>
-      <c r="AQ279" t="inlineStr"/>
-      <c r="AR279" t="inlineStr"/>
+      <c r="AQ279" t="n">
+        <v>20414.15</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -39082,8 +39357,9 @@
       <c r="AP280" t="n">
         <v>6412.41</v>
       </c>
-      <c r="AQ280" t="inlineStr"/>
-      <c r="AR280" t="inlineStr"/>
+      <c r="AQ280" t="n">
+        <v>6422.17</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -39220,8 +39496,9 @@
       <c r="AP281" t="n">
         <v>2337.83</v>
       </c>
-      <c r="AQ281" t="inlineStr"/>
-      <c r="AR281" t="inlineStr"/>
+      <c r="AQ281" t="n">
+        <v>2341.38</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -39358,8 +39635,9 @@
       <c r="AP282" t="n">
         <v>27353.21</v>
       </c>
-      <c r="AQ282" t="inlineStr"/>
-      <c r="AR282" t="inlineStr"/>
+      <c r="AQ282" t="n">
+        <v>27394.81</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -39496,8 +39774,9 @@
       <c r="AP283" t="n">
         <v>4884.5</v>
       </c>
-      <c r="AQ283" t="inlineStr"/>
-      <c r="AR283" t="inlineStr"/>
+      <c r="AQ283" t="n">
+        <v>3913.54</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -39634,8 +39913,9 @@
       <c r="AP284" t="n">
         <v>8792.1</v>
       </c>
-      <c r="AQ284" t="inlineStr"/>
-      <c r="AR284" t="inlineStr"/>
+      <c r="AQ284" t="n">
+        <v>8805.469999999999</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -39772,8 +40052,9 @@
       <c r="AP285" t="n">
         <v>1953.8</v>
       </c>
-      <c r="AQ285" t="inlineStr"/>
-      <c r="AR285" t="inlineStr"/>
+      <c r="AQ285" t="n">
+        <v>1956.77</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -39910,8 +40191,9 @@
       <c r="AP286" t="n">
         <v>3907.6</v>
       </c>
-      <c r="AQ286" t="inlineStr"/>
-      <c r="AR286" t="inlineStr"/>
+      <c r="AQ286" t="n">
+        <v>3913.54</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -40048,8 +40330,9 @@
       <c r="AP287" t="n">
         <v>95796.50999999999</v>
       </c>
-      <c r="AQ287" t="inlineStr"/>
-      <c r="AR287" t="inlineStr"/>
+      <c r="AQ287" t="n">
+        <v>95942.19</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -40186,8 +40469,9 @@
       <c r="AP288" t="n">
         <v>8059114.53</v>
       </c>
-      <c r="AQ288" t="inlineStr"/>
-      <c r="AR288" t="inlineStr"/>
+      <c r="AQ288" t="n">
+        <v>8071370.12</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -40324,8 +40608,9 @@
       <c r="AP289" t="n">
         <v>0</v>
       </c>
-      <c r="AQ289" t="inlineStr"/>
-      <c r="AR289" t="inlineStr"/>
+      <c r="AQ289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -40462,8 +40747,9 @@
       <c r="AP290" t="n">
         <v>876860613.48</v>
       </c>
-      <c r="AQ290" t="inlineStr"/>
-      <c r="AR290" t="inlineStr"/>
+      <c r="AQ290" t="n">
+        <v>878194065.34</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -40600,8 +40886,9 @@
       <c r="AP291" t="n">
         <v>41502.09</v>
       </c>
-      <c r="AQ291" t="inlineStr"/>
-      <c r="AR291" t="inlineStr"/>
+      <c r="AQ291" t="n">
+        <v>41565.2</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -40738,8 +41025,9 @@
       <c r="AP292" t="n">
         <v>242025.8</v>
       </c>
-      <c r="AQ292" t="inlineStr"/>
-      <c r="AR292" t="inlineStr"/>
+      <c r="AQ292" t="n">
+        <v>242393.86</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -40876,8 +41164,9 @@
       <c r="AP293" t="n">
         <v>141181.72</v>
       </c>
-      <c r="AQ293" t="inlineStr"/>
-      <c r="AR293" t="inlineStr"/>
+      <c r="AQ293" t="n">
+        <v>141396.42</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -41014,8 +41303,9 @@
       <c r="AP294" t="n">
         <v>-20168.82</v>
       </c>
-      <c r="AQ294" t="inlineStr"/>
-      <c r="AR294" t="inlineStr"/>
+      <c r="AQ294" t="n">
+        <v>-20199.49</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -41152,8 +41442,9 @@
       <c r="AP295" t="n">
         <v>-20168.82</v>
       </c>
-      <c r="AQ295" t="inlineStr"/>
-      <c r="AR295" t="inlineStr"/>
+      <c r="AQ295" t="n">
+        <v>-20199.49</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -41290,8 +41581,9 @@
       <c r="AP296" t="n">
         <v>8154.09</v>
       </c>
-      <c r="AQ296" t="inlineStr"/>
-      <c r="AR296" t="inlineStr"/>
+      <c r="AQ296" t="n">
+        <v>7205.73</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -41428,8 +41720,9 @@
       <c r="AP297" t="n">
         <v>94676.41</v>
       </c>
-      <c r="AQ297" t="inlineStr"/>
-      <c r="AR297" t="inlineStr"/>
+      <c r="AQ297" t="n">
+        <v>94820.38</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -41566,8 +41859,9 @@
       <c r="AP298" t="n">
         <v>0</v>
       </c>
-      <c r="AQ298" t="inlineStr"/>
-      <c r="AR298" t="inlineStr"/>
+      <c r="AQ298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -41704,8 +41998,9 @@
       <c r="AP299" t="n">
         <v>18650.35</v>
       </c>
-      <c r="AQ299" t="inlineStr"/>
-      <c r="AR299" t="inlineStr"/>
+      <c r="AQ299" t="n">
+        <v>18678.71</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -41842,8 +42137,9 @@
       <c r="AP300" t="n">
         <v>9944.84</v>
       </c>
-      <c r="AQ300" t="inlineStr"/>
-      <c r="AR300" t="inlineStr"/>
+      <c r="AQ300" t="n">
+        <v>9406.629999999999</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -41980,8 +42276,9 @@
       <c r="AP301" t="n">
         <v>44969.37</v>
       </c>
-      <c r="AQ301" t="inlineStr"/>
-      <c r="AR301" t="inlineStr"/>
+      <c r="AQ301" t="n">
+        <v>43236.25</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -42118,8 +42415,9 @@
       <c r="AP302" t="n">
         <v>225921.35</v>
       </c>
-      <c r="AQ302" t="inlineStr"/>
-      <c r="AR302" t="inlineStr"/>
+      <c r="AQ302" t="n">
+        <v>213457.46</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -42256,8 +42554,9 @@
       <c r="AP303" t="n">
         <v>4286.59</v>
       </c>
-      <c r="AQ303" t="inlineStr"/>
-      <c r="AR303" t="inlineStr"/>
+      <c r="AQ303" t="n">
+        <v>4293.11</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -42394,8 +42693,9 @@
       <c r="AP304" t="n">
         <v>4808.51</v>
       </c>
-      <c r="AQ304" t="inlineStr"/>
-      <c r="AR304" t="inlineStr"/>
+      <c r="AQ304" t="n">
+        <v>4815.82</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -42532,8 +42832,9 @@
       <c r="AP305" t="n">
         <v>24030.36</v>
       </c>
-      <c r="AQ305" t="inlineStr"/>
-      <c r="AR305" t="inlineStr"/>
+      <c r="AQ305" t="n">
+        <v>24066.9</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -42668,10 +42969,11 @@
         <v>0</v>
       </c>
       <c r="AP306" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ306" t="n">
         <v>-0</v>
       </c>
-      <c r="AQ306" t="inlineStr"/>
-      <c r="AR306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -42808,8 +43110,9 @@
       <c r="AP307" t="n">
         <v>47846799.07</v>
       </c>
-      <c r="AQ307" t="inlineStr"/>
-      <c r="AR307" t="inlineStr"/>
+      <c r="AQ307" t="n">
+        <v>47919560.24</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -42946,8 +43249,9 @@
       <c r="AP308" t="n">
         <v>348500.23</v>
       </c>
-      <c r="AQ308" t="inlineStr"/>
-      <c r="AR308" t="inlineStr"/>
+      <c r="AQ308" t="n">
+        <v>349030.19</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -43084,8 +43388,9 @@
       <c r="AP309" t="n">
         <v>252162.15</v>
       </c>
-      <c r="AQ309" t="inlineStr"/>
-      <c r="AR309" t="inlineStr"/>
+      <c r="AQ309" t="n">
+        <v>252545.62</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -43222,8 +43527,9 @@
       <c r="AP310" t="n">
         <v>31284971.57</v>
       </c>
-      <c r="AQ310" t="inlineStr"/>
-      <c r="AR310" t="inlineStr"/>
+      <c r="AQ310" t="n">
+        <v>31332546.98</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -43360,8 +43666,9 @@
       <c r="AP311" t="n">
         <v>10472678.9</v>
       </c>
-      <c r="AQ311" t="inlineStr"/>
-      <c r="AR311" t="inlineStr"/>
+      <c r="AQ311" t="n">
+        <v>10488604.82</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -43498,8 +43805,9 @@
       <c r="AP312" t="n">
         <v>10889511.34</v>
       </c>
-      <c r="AQ312" t="inlineStr"/>
-      <c r="AR312" t="inlineStr"/>
+      <c r="AQ312" t="n">
+        <v>10906071.15</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -43636,8 +43944,9 @@
       <c r="AP313" t="n">
         <v>86094.78999999999</v>
       </c>
-      <c r="AQ313" t="inlineStr"/>
-      <c r="AR313" t="inlineStr"/>
+      <c r="AQ313" t="n">
+        <v>86225.72</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -43774,8 +44083,9 @@
       <c r="AP314" t="n">
         <v>315364.64</v>
       </c>
-      <c r="AQ314" t="inlineStr"/>
-      <c r="AR314" t="inlineStr"/>
+      <c r="AQ314" t="n">
+        <v>315844.22</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -43912,8 +44222,9 @@
       <c r="AP315" t="n">
         <v>14574.87</v>
       </c>
-      <c r="AQ315" t="inlineStr"/>
-      <c r="AR315" t="inlineStr"/>
+      <c r="AQ315" t="n">
+        <v>14597.03</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -44050,8 +44361,9 @@
       <c r="AP316" t="n">
         <v>0</v>
       </c>
-      <c r="AQ316" t="inlineStr"/>
-      <c r="AR316" t="inlineStr"/>
+      <c r="AQ316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -44188,8 +44500,9 @@
       <c r="AP317" t="n">
         <v>19887.6</v>
       </c>
-      <c r="AQ317" t="inlineStr"/>
-      <c r="AR317" t="inlineStr"/>
+      <c r="AQ317" t="n">
+        <v>19917.84</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -44326,8 +44639,9 @@
       <c r="AP318" t="n">
         <v>15801835.62</v>
       </c>
-      <c r="AQ318" t="inlineStr"/>
-      <c r="AR318" t="inlineStr"/>
+      <c r="AQ318" t="n">
+        <v>15825865.65</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -44464,8 +44778,9 @@
       <c r="AP319" t="n">
         <v>1684778.21</v>
       </c>
-      <c r="AQ319" t="inlineStr"/>
-      <c r="AR319" t="inlineStr"/>
+      <c r="AQ319" t="n">
+        <v>1634610.89</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -44602,8 +44917,9 @@
       <c r="AP320" t="n">
         <v>445777.63</v>
       </c>
-      <c r="AQ320" t="inlineStr"/>
-      <c r="AR320" t="inlineStr"/>
+      <c r="AQ320" t="n">
+        <v>446455.53</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -44740,8 +45056,9 @@
       <c r="AP321" t="n">
         <v>52132.21</v>
       </c>
-      <c r="AQ321" t="inlineStr"/>
-      <c r="AR321" t="inlineStr"/>
+      <c r="AQ321" t="n">
+        <v>52211.49</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -44878,8 +45195,9 @@
       <c r="AP322" t="n">
         <v>114491.04</v>
       </c>
-      <c r="AQ322" t="inlineStr"/>
-      <c r="AR322" t="inlineStr"/>
+      <c r="AQ322" t="n">
+        <v>95554.28999999999</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -45016,8 +45334,9 @@
       <c r="AP323" t="n">
         <v>6033994.82</v>
       </c>
-      <c r="AQ323" t="inlineStr"/>
-      <c r="AR323" t="inlineStr"/>
+      <c r="AQ323" t="n">
+        <v>6043170.79</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -45154,8 +45473,9 @@
       <c r="AP324" t="n">
         <v>463392.5</v>
       </c>
-      <c r="AQ324" t="inlineStr"/>
-      <c r="AR324" t="inlineStr"/>
+      <c r="AQ324" t="n">
+        <v>464097.19</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -45292,8 +45612,9 @@
       <c r="AP325" t="n">
         <v>0</v>
       </c>
-      <c r="AQ325" t="inlineStr"/>
-      <c r="AR325" t="inlineStr"/>
+      <c r="AQ325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -45430,8 +45751,9 @@
       <c r="AP326" t="n">
         <v>28478.85</v>
       </c>
-      <c r="AQ326" t="inlineStr"/>
-      <c r="AR326" t="inlineStr"/>
+      <c r="AQ326" t="n">
+        <v>25166.61</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -45568,8 +45890,9 @@
       <c r="AP327" t="n">
         <v>343624.4</v>
       </c>
-      <c r="AQ327" t="inlineStr"/>
-      <c r="AR327" t="inlineStr"/>
+      <c r="AQ327" t="n">
+        <v>344146.96</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -45706,8 +46029,9 @@
       <c r="AP328" t="n">
         <v>9897853.08</v>
       </c>
-      <c r="AQ328" t="inlineStr"/>
-      <c r="AR328" t="inlineStr"/>
+      <c r="AQ328" t="n">
+        <v>9912904.859999999</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -45844,8 +46168,9 @@
       <c r="AP329" t="n">
         <v>0</v>
       </c>
-      <c r="AQ329" t="inlineStr"/>
-      <c r="AR329" t="inlineStr"/>
+      <c r="AQ329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -45982,8 +46307,9 @@
       <c r="AP330" t="n">
         <v>95818.72</v>
       </c>
-      <c r="AQ330" t="inlineStr"/>
-      <c r="AR330" t="inlineStr"/>
+      <c r="AQ330" t="n">
+        <v>95964.42999999999</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -46120,8 +46446,9 @@
       <c r="AP331" t="n">
         <v>1478248.49</v>
       </c>
-      <c r="AQ331" t="inlineStr"/>
-      <c r="AR331" t="inlineStr"/>
+      <c r="AQ331" t="n">
+        <v>1480496.47</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -46258,8 +46585,9 @@
       <c r="AP332" t="n">
         <v>0</v>
       </c>
-      <c r="AQ332" t="inlineStr"/>
-      <c r="AR332" t="inlineStr"/>
+      <c r="AQ332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -46396,8 +46724,9 @@
       <c r="AP333" t="n">
         <v>0</v>
       </c>
-      <c r="AQ333" t="inlineStr"/>
-      <c r="AR333" t="inlineStr"/>
+      <c r="AQ333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -46534,8 +46863,9 @@
       <c r="AP334" t="n">
         <v>0</v>
       </c>
-      <c r="AQ334" t="inlineStr"/>
-      <c r="AR334" t="inlineStr"/>
+      <c r="AQ334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -46672,8 +47002,9 @@
       <c r="AP335" t="n">
         <v>3378902.27</v>
       </c>
-      <c r="AQ335" t="inlineStr"/>
-      <c r="AR335" t="inlineStr"/>
+      <c r="AQ335" t="n">
+        <v>3384040.61</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -46810,8 +47141,9 @@
       <c r="AP336" t="n">
         <v>208574.21</v>
       </c>
-      <c r="AQ336" t="inlineStr"/>
-      <c r="AR336" t="inlineStr"/>
+      <c r="AQ336" t="n">
+        <v>208891.4</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -46948,8 +47280,9 @@
       <c r="AP337" t="n">
         <v>125144.53</v>
       </c>
-      <c r="AQ337" t="inlineStr"/>
-      <c r="AR337" t="inlineStr"/>
+      <c r="AQ337" t="n">
+        <v>83556.56</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -47086,8 +47419,9 @@
       <c r="AP338" t="n">
         <v>-166859.37</v>
       </c>
-      <c r="AQ338" t="inlineStr"/>
-      <c r="AR338" t="inlineStr"/>
+      <c r="AQ338" t="n">
+        <v>-167113.12</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -47224,8 +47558,9 @@
       <c r="AP339" t="n">
         <v>1429657.31</v>
       </c>
-      <c r="AQ339" t="inlineStr"/>
-      <c r="AR339" t="inlineStr"/>
+      <c r="AQ339" t="n">
+        <v>1431831.41</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -47362,8 +47697,9 @@
       <c r="AP340" t="n">
         <v>-89353.58</v>
       </c>
-      <c r="AQ340" t="inlineStr"/>
-      <c r="AR340" t="inlineStr"/>
+      <c r="AQ340" t="n">
+        <v>-89489.46000000001</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -47500,8 +47836,9 @@
       <c r="AP341" t="n">
         <v>1927234.12</v>
       </c>
-      <c r="AQ341" t="inlineStr"/>
-      <c r="AR341" t="inlineStr"/>
+      <c r="AQ341" t="n">
+        <v>1930164.89</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -47638,8 +47975,9 @@
       <c r="AP342" t="n">
         <v>90719.66</v>
       </c>
-      <c r="AQ342" t="inlineStr"/>
-      <c r="AR342" t="inlineStr"/>
+      <c r="AQ342" t="n">
+        <v>81122.87</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -47776,8 +48114,9 @@
       <c r="AP343" t="n">
         <v>5313.61</v>
       </c>
-      <c r="AQ343" t="inlineStr"/>
-      <c r="AR343" t="inlineStr"/>
+      <c r="AQ343" t="n">
+        <v>5321.69</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -47914,8 +48253,9 @@
       <c r="AP344" t="n">
         <v>69816.2</v>
       </c>
-      <c r="AQ344" t="inlineStr"/>
-      <c r="AR344" t="inlineStr"/>
+      <c r="AQ344" t="n">
+        <v>55937.9</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -48052,8 +48392,9 @@
       <c r="AP345" t="n">
         <v>-12264.22</v>
       </c>
-      <c r="AQ345" t="inlineStr"/>
-      <c r="AR345" t="inlineStr"/>
+      <c r="AQ345" t="n">
+        <v>-19652.59</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -48190,8 +48531,9 @@
       <c r="AP346" t="n">
         <v>91856.41</v>
       </c>
-      <c r="AQ346" t="inlineStr"/>
-      <c r="AR346" t="inlineStr"/>
+      <c r="AQ346" t="n">
+        <v>91996.10000000001</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -48328,8 +48670,9 @@
       <c r="AP347" t="n">
         <v>3924.58</v>
       </c>
-      <c r="AQ347" t="inlineStr"/>
-      <c r="AR347" t="inlineStr"/>
+      <c r="AQ347" t="n">
+        <v>3930.55</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -48466,8 +48809,9 @@
       <c r="AP348" t="n">
         <v>795853.3199999999</v>
       </c>
-      <c r="AQ348" t="inlineStr"/>
-      <c r="AR348" t="inlineStr"/>
+      <c r="AQ348" t="n">
+        <v>797063.59</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -48600,8 +48944,9 @@
       <c r="AP349" t="n">
         <v>6608280.12</v>
       </c>
-      <c r="AQ349" t="inlineStr"/>
-      <c r="AR349" t="inlineStr"/>
+      <c r="AQ349" t="n">
+        <v>6618329.41</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -48738,8 +49083,9 @@
       <c r="AP350" t="n">
         <v>6906283.41</v>
       </c>
-      <c r="AQ350" t="inlineStr"/>
-      <c r="AR350" t="inlineStr"/>
+      <c r="AQ350" t="n">
+        <v>6916785.87</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -48876,8 +49222,9 @@
       <c r="AP351" t="n">
         <v>20126546.09</v>
       </c>
-      <c r="AQ351" t="inlineStr"/>
-      <c r="AR351" t="inlineStr"/>
+      <c r="AQ351" t="n">
+        <v>20157152.76</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -49014,8 +49361,9 @@
       <c r="AP352" t="n">
         <v>45923663.51</v>
       </c>
-      <c r="AQ352" t="inlineStr"/>
-      <c r="AR352" t="inlineStr"/>
+      <c r="AQ352" t="n">
+        <v>45993500.15</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -49152,8 +49500,9 @@
       <c r="AP353" t="n">
         <v>8094.09</v>
       </c>
-      <c r="AQ353" t="inlineStr"/>
-      <c r="AR353" t="inlineStr"/>
+      <c r="AQ353" t="n">
+        <v>8106.4</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -49290,8 +49639,9 @@
       <c r="AP354" t="n">
         <v>5614126.56</v>
       </c>
-      <c r="AQ354" t="inlineStr"/>
-      <c r="AR354" t="inlineStr"/>
+      <c r="AQ354" t="n">
+        <v>5622664.03</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -49428,8 +49778,9 @@
       <c r="AP355" t="n">
         <v>16281785.2</v>
       </c>
-      <c r="AQ355" t="inlineStr"/>
-      <c r="AR355" t="inlineStr"/>
+      <c r="AQ355" t="n">
+        <v>16306545.09</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -49566,8 +49917,9 @@
       <c r="AP356" t="n">
         <v>24332507.49</v>
       </c>
-      <c r="AQ356" t="inlineStr"/>
-      <c r="AR356" t="inlineStr"/>
+      <c r="AQ356" t="n">
+        <v>24369510.2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -49704,8 +50056,9 @@
       <c r="AP357" t="n">
         <v>218992567.37</v>
       </c>
-      <c r="AQ357" t="inlineStr"/>
-      <c r="AR357" t="inlineStr"/>
+      <c r="AQ357" t="n">
+        <v>219325591.84</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -49842,8 +50195,9 @@
       <c r="AP358" t="n">
         <v>1127137.65</v>
       </c>
-      <c r="AQ358" t="inlineStr"/>
-      <c r="AR358" t="inlineStr"/>
+      <c r="AQ358" t="n">
+        <v>1128851.7</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -49980,8 +50334,9 @@
       <c r="AP359" t="n">
         <v>4024064.84</v>
       </c>
-      <c r="AQ359" t="inlineStr"/>
-      <c r="AR359" t="inlineStr"/>
+      <c r="AQ359" t="n">
+        <v>4030184.28</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -50118,8 +50473,9 @@
       <c r="AP360" t="n">
         <v>118277.2</v>
       </c>
-      <c r="AQ360" t="inlineStr"/>
-      <c r="AR360" t="inlineStr"/>
+      <c r="AQ360" t="n">
+        <v>118457.07</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -50256,8 +50612,9 @@
       <c r="AP361" t="n">
         <v>118573.72</v>
       </c>
-      <c r="AQ361" t="inlineStr"/>
-      <c r="AR361" t="inlineStr"/>
+      <c r="AQ361" t="n">
+        <v>114795.57</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -50394,8 +50751,9 @@
       <c r="AP362" t="n">
         <v>13860.54</v>
       </c>
-      <c r="AQ362" t="inlineStr"/>
-      <c r="AR362" t="inlineStr"/>
+      <c r="AQ362" t="n">
+        <v>13881.62</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -50532,8 +50890,9 @@
       <c r="AP363" t="n">
         <v>51383.68</v>
       </c>
-      <c r="AQ363" t="inlineStr"/>
-      <c r="AR363" t="inlineStr"/>
+      <c r="AQ363" t="n">
+        <v>51461.82</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -50670,8 +51029,9 @@
       <c r="AP364" t="n">
         <v>216342.02</v>
       </c>
-      <c r="AQ364" t="inlineStr"/>
-      <c r="AR364" t="inlineStr"/>
+      <c r="AQ364" t="n">
+        <v>216671.02</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -50808,8 +51168,9 @@
       <c r="AP365" t="n">
         <v>284643.16</v>
       </c>
-      <c r="AQ365" t="inlineStr"/>
-      <c r="AR365" t="inlineStr"/>
+      <c r="AQ365" t="n">
+        <v>285076.02</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -50946,8 +51307,9 @@
       <c r="AP366" t="n">
         <v>1248847.71</v>
       </c>
-      <c r="AQ366" t="inlineStr"/>
-      <c r="AR366" t="inlineStr"/>
+      <c r="AQ366" t="n">
+        <v>1250746.85</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -51084,8 +51446,9 @@
       <c r="AP367" t="n">
         <v>42048.74</v>
       </c>
-      <c r="AQ367" t="inlineStr"/>
-      <c r="AR367" t="inlineStr"/>
+      <c r="AQ367" t="n">
+        <v>42112.69</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -51222,8 +51585,9 @@
       <c r="AP368" t="n">
         <v>1527105.32</v>
       </c>
-      <c r="AQ368" t="inlineStr"/>
-      <c r="AR368" t="inlineStr"/>
+      <c r="AQ368" t="n">
+        <v>1473472.94</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -51360,8 +51724,9 @@
       <c r="AP369" t="n">
         <v>20440.36</v>
       </c>
-      <c r="AQ369" t="inlineStr"/>
-      <c r="AR369" t="inlineStr"/>
+      <c r="AQ369" t="n">
+        <v>20471.45</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -51498,8 +51863,9 @@
       <c r="AP370" t="n">
         <v>841076.46</v>
       </c>
-      <c r="AQ370" t="inlineStr"/>
-      <c r="AR370" t="inlineStr"/>
+      <c r="AQ370" t="n">
+        <v>842355.49</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -51636,8 +52002,9 @@
       <c r="AP371" t="n">
         <v>3237759.2</v>
       </c>
-      <c r="AQ371" t="inlineStr"/>
-      <c r="AR371" t="inlineStr"/>
+      <c r="AQ371" t="n">
+        <v>3242682.89</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -51774,8 +52141,9 @@
       <c r="AP372" t="n">
         <v>617019.62</v>
       </c>
-      <c r="AQ372" t="inlineStr"/>
-      <c r="AR372" t="inlineStr"/>
+      <c r="AQ372" t="n">
+        <v>617957.9300000001</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -51912,8 +52280,9 @@
       <c r="AP373" t="n">
         <v>24680.78</v>
       </c>
-      <c r="AQ373" t="inlineStr"/>
-      <c r="AR373" t="inlineStr"/>
+      <c r="AQ373" t="n">
+        <v>24718.32</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -52050,8 +52419,9 @@
       <c r="AP374" t="n">
         <v>144608.18</v>
       </c>
-      <c r="AQ374" t="inlineStr"/>
-      <c r="AR374" t="inlineStr"/>
+      <c r="AQ374" t="n">
+        <v>144828.09</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -52188,8 +52558,9 @@
       <c r="AP375" t="n">
         <v>455655.48</v>
       </c>
-      <c r="AQ375" t="inlineStr"/>
-      <c r="AR375" t="inlineStr"/>
+      <c r="AQ375" t="n">
+        <v>456348.41</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -52326,8 +52697,9 @@
       <c r="AP376" t="n">
         <v>23276.26</v>
       </c>
-      <c r="AQ376" t="inlineStr"/>
-      <c r="AR376" t="inlineStr"/>
+      <c r="AQ376" t="n">
+        <v>19814.91</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -52464,8 +52836,9 @@
       <c r="AP377" t="n">
         <v>285169.71</v>
       </c>
-      <c r="AQ377" t="inlineStr"/>
-      <c r="AR377" t="inlineStr"/>
+      <c r="AQ377" t="n">
+        <v>285603.37</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -52602,8 +52975,9 @@
       <c r="AP378" t="n">
         <v>133428.59</v>
       </c>
-      <c r="AQ378" t="inlineStr"/>
-      <c r="AR378" t="inlineStr"/>
+      <c r="AQ378" t="n">
+        <v>133631.49</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -52740,8 +53114,9 @@
       <c r="AP379" t="n">
         <v>2406414.6</v>
       </c>
-      <c r="AQ379" t="inlineStr"/>
-      <c r="AR379" t="inlineStr"/>
+      <c r="AQ379" t="n">
+        <v>2410074.06</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -52878,8 +53253,9 @@
       <c r="AP380" t="n">
         <v>115975.73</v>
       </c>
-      <c r="AQ380" t="inlineStr"/>
-      <c r="AR380" t="inlineStr"/>
+      <c r="AQ380" t="n">
+        <v>116152.1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -53016,8 +53392,9 @@
       <c r="AP381" t="n">
         <v>634410.4300000001</v>
       </c>
-      <c r="AQ381" t="inlineStr"/>
-      <c r="AR381" t="inlineStr"/>
+      <c r="AQ381" t="n">
+        <v>635375.1899999999</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -53154,8 +53531,9 @@
       <c r="AP382" t="n">
         <v>868305.6899999999</v>
       </c>
-      <c r="AQ382" t="inlineStr"/>
-      <c r="AR382" t="inlineStr"/>
+      <c r="AQ382" t="n">
+        <v>869626.13</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -53292,8 +53670,9 @@
       <c r="AP383" t="n">
         <v>608235</v>
       </c>
-      <c r="AQ383" t="inlineStr"/>
-      <c r="AR383" t="inlineStr"/>
+      <c r="AQ383" t="n">
+        <v>526092.6800000001</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -53430,8 +53809,9 @@
       <c r="AP384" t="n">
         <v>404520.1</v>
       </c>
-      <c r="AQ384" t="inlineStr"/>
-      <c r="AR384" t="inlineStr"/>
+      <c r="AQ384" t="n">
+        <v>405135.26</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -53568,8 +53948,9 @@
       <c r="AP385" t="n">
         <v>251198.42</v>
       </c>
-      <c r="AQ385" t="inlineStr"/>
-      <c r="AR385" t="inlineStr"/>
+      <c r="AQ385" t="n">
+        <v>251580.42</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -53706,8 +54087,9 @@
       <c r="AP386" t="n">
         <v>928066.35</v>
       </c>
-      <c r="AQ386" t="inlineStr"/>
-      <c r="AR386" t="inlineStr"/>
+      <c r="AQ386" t="n">
+        <v>929477.67</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -53844,8 +54226,9 @@
       <c r="AP387" t="n">
         <v>331502.57</v>
       </c>
-      <c r="AQ387" t="inlineStr"/>
-      <c r="AR387" t="inlineStr"/>
+      <c r="AQ387" t="n">
+        <v>332006.69</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -53982,8 +54365,9 @@
       <c r="AP388" t="n">
         <v>89900.53</v>
       </c>
-      <c r="AQ388" t="inlineStr"/>
-      <c r="AR388" t="inlineStr"/>
+      <c r="AQ388" t="n">
+        <v>83827.78</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -54120,8 +54504,9 @@
       <c r="AP389" t="n">
         <v>7541960.3</v>
       </c>
-      <c r="AQ389" t="inlineStr"/>
-      <c r="AR389" t="inlineStr"/>
+      <c r="AQ389" t="n">
+        <v>7553429.45</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -54258,8 +54643,9 @@
       <c r="AP390" t="n">
         <v>6091562.17</v>
       </c>
-      <c r="AQ390" t="inlineStr"/>
-      <c r="AR390" t="inlineStr"/>
+      <c r="AQ390" t="n">
+        <v>6100825.68</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -54396,8 +54782,9 @@
       <c r="AP391" t="n">
         <v>36434.86</v>
       </c>
-      <c r="AQ391" t="inlineStr"/>
-      <c r="AR391" t="inlineStr"/>
+      <c r="AQ391" t="n">
+        <v>36490.27</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -54534,8 +54921,9 @@
       <c r="AP392" t="n">
         <v>246935.88</v>
       </c>
-      <c r="AQ392" t="inlineStr"/>
-      <c r="AR392" t="inlineStr"/>
+      <c r="AQ392" t="n">
+        <v>239158.27</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -54668,8 +55056,9 @@
       <c r="AP393" t="n">
         <v>77789.78</v>
       </c>
-      <c r="AQ393" t="inlineStr"/>
-      <c r="AR393" t="inlineStr"/>
+      <c r="AQ393" t="n">
+        <v>77908.07000000001</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -54806,8 +55195,9 @@
       <c r="AP394" t="n">
         <v>117652.69</v>
       </c>
-      <c r="AQ394" t="inlineStr"/>
-      <c r="AR394" t="inlineStr"/>
+      <c r="AQ394" t="n">
+        <v>117831.61</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -54944,8 +55334,9 @@
       <c r="AP395" t="n">
         <v>99126.60000000001</v>
       </c>
-      <c r="AQ395" t="inlineStr"/>
-      <c r="AR395" t="inlineStr"/>
+      <c r="AQ395" t="n">
+        <v>99277.34</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -55082,8 +55473,9 @@
       <c r="AP396" t="n">
         <v>19331.08</v>
       </c>
-      <c r="AQ396" t="inlineStr"/>
-      <c r="AR396" t="inlineStr"/>
+      <c r="AQ396" t="n">
+        <v>19360.47</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -55220,8 +55612,9 @@
       <c r="AP397" t="n">
         <v>13326793.14</v>
       </c>
-      <c r="AQ397" t="inlineStr"/>
-      <c r="AR397" t="inlineStr"/>
+      <c r="AQ397" t="n">
+        <v>13347059.34</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -55358,8 +55751,9 @@
       <c r="AP398" t="n">
         <v>93292.14</v>
       </c>
-      <c r="AQ398" t="inlineStr"/>
-      <c r="AR398" t="inlineStr"/>
+      <c r="AQ398" t="n">
+        <v>93434.00999999999</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -55496,8 +55890,9 @@
       <c r="AP399" t="n">
         <v>114326.63</v>
       </c>
-      <c r="AQ399" t="inlineStr"/>
-      <c r="AR399" t="inlineStr"/>
+      <c r="AQ399" t="n">
+        <v>114500.49</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -55634,8 +56029,9 @@
       <c r="AP400" t="n">
         <v>105953.87</v>
       </c>
-      <c r="AQ400" t="inlineStr"/>
-      <c r="AR400" t="inlineStr"/>
+      <c r="AQ400" t="n">
+        <v>106115</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -55772,8 +56168,9 @@
       <c r="AP401" t="n">
         <v>265632.16</v>
       </c>
-      <c r="AQ401" t="inlineStr"/>
-      <c r="AR401" t="inlineStr"/>
+      <c r="AQ401" t="n">
+        <v>266036.11</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -55910,8 +56307,9 @@
       <c r="AP402" t="n">
         <v>767846.64</v>
       </c>
-      <c r="AQ402" t="inlineStr"/>
-      <c r="AR402" t="inlineStr"/>
+      <c r="AQ402" t="n">
+        <v>769014.3100000001</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -56048,8 +56446,9 @@
       <c r="AP403" t="n">
         <v>383530.22</v>
       </c>
-      <c r="AQ403" t="inlineStr"/>
-      <c r="AR403" t="inlineStr"/>
+      <c r="AQ403" t="n">
+        <v>384113.46</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -56186,8 +56585,9 @@
       <c r="AP404" t="n">
         <v>478460.51</v>
       </c>
-      <c r="AQ404" t="inlineStr"/>
-      <c r="AR404" t="inlineStr"/>
+      <c r="AQ404" t="n">
+        <v>462664.38</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -56324,8 +56724,9 @@
       <c r="AP405" t="n">
         <v>2814767.33</v>
       </c>
-      <c r="AQ405" t="inlineStr"/>
-      <c r="AR405" t="inlineStr"/>
+      <c r="AQ405" t="n">
+        <v>2596491.37</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -56462,8 +56863,9 @@
       <c r="AP406" t="n">
         <v>-10118.62</v>
       </c>
-      <c r="AQ406" t="inlineStr"/>
-      <c r="AR406" t="inlineStr"/>
+      <c r="AQ406" t="n">
+        <v>-10134.01</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -56598,10 +57000,11 @@
         <v>0</v>
       </c>
       <c r="AP407" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ407" t="n">
         <v>-0</v>
       </c>
-      <c r="AQ407" t="inlineStr"/>
-      <c r="AR407" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
